--- a/results/summary_res_all_gRNAs.xlsx
+++ b/results/summary_res_all_gRNAs.xlsx
@@ -1359,31 +1359,31 @@
         <v>170</v>
       </c>
       <c r="G2">
-        <v>0.79851169449395</v>
+        <v>0.746405242424243</v>
       </c>
       <c r="H2">
-        <v>0.710499490316004</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="I2">
-        <v>0.705402650356779</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="J2">
-        <v>0.979612640163099</v>
+        <v>0.98989898989899</v>
       </c>
       <c r="K2">
-        <v>0.793877500156792</v>
+        <v>0.736304232323232</v>
       </c>
       <c r="L2">
-        <v>0.707441386340469</v>
+        <v>0.595959595959596</v>
       </c>
       <c r="M2">
-        <v>0.702344546381244</v>
+        <v>0.595959595959596</v>
       </c>
       <c r="N2">
-        <v>2.41887578675913</v>
+        <v>2.15668984825046</v>
       </c>
       <c r="O2">
-        <v>981</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1406,31 +1406,31 @@
         <v>171</v>
       </c>
       <c r="G3">
-        <v>0.682982303783994</v>
+        <v>0.716449987042878</v>
       </c>
       <c r="H3">
-        <v>0.628352490421456</v>
+        <v>0.707070707070707</v>
       </c>
       <c r="I3">
-        <v>0.554278416347382</v>
+        <v>0.626262626262626</v>
       </c>
       <c r="J3">
-        <v>0.947637292464879</v>
+        <v>0.94949494949495</v>
       </c>
       <c r="K3">
-        <v>0.6761524052579</v>
+        <v>0.7143050729025</v>
       </c>
       <c r="L3">
-        <v>0.623243933588761</v>
+        <v>0.707070707070707</v>
       </c>
       <c r="M3">
-        <v>0.550446998722861</v>
+        <v>0.626262626262626</v>
       </c>
       <c r="N3">
-        <v>5.2490487877587</v>
+        <v>4.231716678372</v>
       </c>
       <c r="O3">
-        <v>783</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1453,31 +1453,31 @@
         <v>172</v>
       </c>
       <c r="G4">
-        <v>0.474443560437121</v>
+        <v>0.578449344742268</v>
       </c>
       <c r="H4">
-        <v>0.285565939771547</v>
+        <v>0.381443298969072</v>
       </c>
       <c r="I4">
-        <v>0.272066458982347</v>
+        <v>0.371134020618557</v>
       </c>
       <c r="J4">
-        <v>0.933541017653167</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0.468332373759138</v>
+        <v>0.578449344742268</v>
       </c>
       <c r="L4">
-        <v>0.285565939771547</v>
+        <v>0.381443298969072</v>
       </c>
       <c r="M4">
-        <v>0.272066458982347</v>
+        <v>0.371134020618557</v>
       </c>
       <c r="N4">
-        <v>4.29888047215039</v>
+        <v>2.91568435605371</v>
       </c>
       <c r="O4">
-        <v>963</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1500,31 +1500,31 @@
         <v>173</v>
       </c>
       <c r="G5">
-        <v>0.785195546277385</v>
+        <v>0.846881410315518</v>
       </c>
       <c r="H5">
-        <v>0.754065040650406</v>
+        <v>0.804878048780488</v>
       </c>
       <c r="I5">
-        <v>0.705284552845528</v>
+        <v>0.75609756097561</v>
       </c>
       <c r="J5">
-        <v>0.983739837398374</v>
+        <v>0.98780487804878</v>
       </c>
       <c r="K5">
-        <v>0.782251653890084</v>
+        <v>0.846719023197928</v>
       </c>
       <c r="L5">
-        <v>0.752032520325203</v>
+        <v>0.804878048780488</v>
       </c>
       <c r="M5">
-        <v>0.703252032520325</v>
+        <v>0.75609756097561</v>
       </c>
       <c r="N5">
-        <v>2.66017761804901</v>
+        <v>2.88036585189155</v>
       </c>
       <c r="O5">
-        <v>492</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1547,31 +1547,31 @@
         <v>174</v>
       </c>
       <c r="G6">
-        <v>0.756672189535871</v>
+        <v>0.818170607070707</v>
       </c>
       <c r="H6">
-        <v>0.75</v>
+        <v>0.767676767676768</v>
       </c>
       <c r="I6">
-        <v>0.602459016393443</v>
+        <v>0.757575757575758</v>
       </c>
       <c r="J6">
-        <v>0.989754098360656</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0.75205944868722</v>
+        <v>0.818170607070707</v>
       </c>
       <c r="L6">
-        <v>0.745901639344262</v>
+        <v>0.767676767676768</v>
       </c>
       <c r="M6">
-        <v>0.598360655737705</v>
+        <v>0.757575757575758</v>
       </c>
       <c r="N6">
-        <v>4.05177756667469</v>
+        <v>2.50679196188142</v>
       </c>
       <c r="O6">
-        <v>976</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1594,31 +1594,31 @@
         <v>175</v>
       </c>
       <c r="G7">
-        <v>0.8380015557804</v>
+        <v>0.788711019091636</v>
       </c>
       <c r="H7">
-        <v>0.860655737704918</v>
+        <v>0.9</v>
       </c>
       <c r="I7">
-        <v>0.707991803278688</v>
+        <v>0.59</v>
       </c>
       <c r="J7">
-        <v>0.00102459016393443</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.00102459016393443</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.00102459016393443</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.00102459016393443</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>2.16999689387953</v>
+        <v>1.72703741247511</v>
       </c>
       <c r="O7">
-        <v>976</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1641,13 +1641,13 @@
         <v>176</v>
       </c>
       <c r="G8">
-        <v>0.594080637638831</v>
+        <v>0.594181322093223</v>
       </c>
       <c r="H8">
-        <v>0.488277268093782</v>
+        <v>0.474747474747475</v>
       </c>
       <c r="I8">
-        <v>0.487257900101937</v>
+        <v>0.474747474747475</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1662,10 +1662,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.69076784873768</v>
+        <v>2.09811617058262</v>
       </c>
       <c r="O8">
-        <v>981</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1688,13 +1688,13 @@
         <v>177</v>
       </c>
       <c r="G9">
-        <v>0.783958337337338</v>
+        <v>0.715328464646465</v>
       </c>
       <c r="H9">
-        <v>0.720720720720721</v>
+        <v>0.585858585858586</v>
       </c>
       <c r="I9">
-        <v>0.70970970970971</v>
+        <v>0.585858585858586</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1709,10 +1709,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.87623736518936</v>
+        <v>2.62951278638399</v>
       </c>
       <c r="O9">
-        <v>999</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1735,31 +1735,31 @@
         <v>178</v>
       </c>
       <c r="G10">
-        <v>0.882256110240001</v>
+        <v>0.90411356</v>
       </c>
       <c r="H10">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="I10">
-        <v>0.789</v>
+        <v>0.82</v>
       </c>
       <c r="J10">
-        <v>0.003</v>
+        <v>0.01</v>
       </c>
       <c r="K10">
-        <v>0.002605</v>
+        <v>0.01</v>
       </c>
       <c r="L10">
-        <v>0.003</v>
+        <v>0.01</v>
       </c>
       <c r="M10">
-        <v>0.002</v>
+        <v>0.01</v>
       </c>
       <c r="N10">
-        <v>2.19138477850895</v>
+        <v>1.75148825497924</v>
       </c>
       <c r="O10">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1782,13 +1782,13 @@
         <v>179</v>
       </c>
       <c r="G11">
-        <v>0.723262800159996</v>
+        <v>0.558355599999999</v>
       </c>
       <c r="H11">
-        <v>0.781</v>
+        <v>0.63</v>
       </c>
       <c r="I11">
-        <v>0.515</v>
+        <v>0.3</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3.77378705742452</v>
+        <v>2.32581360258754</v>
       </c>
       <c r="O11">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1829,13 +1829,13 @@
         <v>180</v>
       </c>
       <c r="G12">
-        <v>0.787221382999997</v>
+        <v>0.78206538</v>
       </c>
       <c r="H12">
-        <v>0.704</v>
+        <v>0.66</v>
       </c>
       <c r="I12">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1850,10 +1850,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3.09851793587763</v>
+        <v>1.78399208714468</v>
       </c>
       <c r="O12">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1876,31 +1876,31 @@
         <v>181</v>
       </c>
       <c r="G13">
-        <v>0.744456599614546</v>
+        <v>0.903902205375612</v>
       </c>
       <c r="H13">
-        <v>0.761658031088083</v>
+        <v>0.89010989010989</v>
       </c>
       <c r="I13">
-        <v>0.634715025906736</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="J13">
-        <v>0.981865284974093</v>
+        <v>0.989010989010989</v>
       </c>
       <c r="K13">
-        <v>0.742035293465984</v>
+        <v>0.903330590372417</v>
       </c>
       <c r="L13">
-        <v>0.759067357512953</v>
+        <v>0.89010989010989</v>
       </c>
       <c r="M13">
-        <v>0.634715025906736</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="N13">
-        <v>3.74626818958162</v>
+        <v>3.24860919756886</v>
       </c>
       <c r="O13">
-        <v>386</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1923,31 +1923,31 @@
         <v>182</v>
       </c>
       <c r="G14">
-        <v>0.847132042743539</v>
+        <v>0.85776704</v>
       </c>
       <c r="H14">
-        <v>0.836</v>
+        <v>0.84</v>
       </c>
       <c r="I14">
-        <v>0.809</v>
+        <v>0.83</v>
       </c>
       <c r="J14">
-        <v>0.965</v>
+        <v>0.98</v>
       </c>
       <c r="K14">
-        <v>0.818691888188002</v>
+        <v>0.85504852</v>
       </c>
       <c r="L14">
-        <v>0.806</v>
+        <v>0.84</v>
       </c>
       <c r="M14">
-        <v>0.779</v>
+        <v>0.83</v>
       </c>
       <c r="N14">
-        <v>2.28598639051996</v>
+        <v>1.41367389862828</v>
       </c>
       <c r="O14">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1970,31 +1970,31 @@
         <v>183</v>
       </c>
       <c r="G15">
-        <v>0.918695198700106</v>
+        <v>0.886903345454948</v>
       </c>
       <c r="H15">
-        <v>0.921325051759834</v>
+        <v>0.8875</v>
       </c>
       <c r="I15">
-        <v>0.869565217391304</v>
+        <v>0.8375</v>
       </c>
       <c r="J15">
-        <v>0.979296066252588</v>
+        <v>0.9625</v>
       </c>
       <c r="K15">
-        <v>0.913942441797971</v>
+        <v>0.8863959375</v>
       </c>
       <c r="L15">
-        <v>0.917184265010352</v>
+        <v>0.8875</v>
       </c>
       <c r="M15">
-        <v>0.865424430641822</v>
+        <v>0.8375</v>
       </c>
       <c r="N15">
-        <v>2.71686075827078</v>
+        <v>2.96136450659265</v>
       </c>
       <c r="O15">
-        <v>483</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2017,31 +2017,31 @@
         <v>184</v>
       </c>
       <c r="G16">
-        <v>0.981809639273039</v>
+        <v>0.901229976345748</v>
       </c>
       <c r="H16">
-        <v>0.983</v>
+        <v>0.9</v>
       </c>
       <c r="I16">
-        <v>0.976</v>
+        <v>0.9</v>
       </c>
       <c r="J16">
-        <v>0.993</v>
+        <v>0.94</v>
       </c>
       <c r="K16">
-        <v>0.979737093310031</v>
+        <v>0.890504516715668</v>
       </c>
       <c r="L16">
-        <v>0.981</v>
+        <v>0.89</v>
       </c>
       <c r="M16">
-        <v>0.974</v>
+        <v>0.89</v>
       </c>
       <c r="N16">
-        <v>0.374892857127758</v>
+        <v>0.832904561192996</v>
       </c>
       <c r="O16">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -2064,31 +2064,31 @@
         <v>185</v>
       </c>
       <c r="G17">
-        <v>0.697652269999997</v>
+        <v>0.883150000000001</v>
       </c>
       <c r="H17">
-        <v>0.51</v>
+        <v>0.81</v>
       </c>
       <c r="I17">
-        <v>0.51</v>
+        <v>0.81</v>
       </c>
       <c r="J17">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>0.696652269999997</v>
+        <v>0.883150000000001</v>
       </c>
       <c r="L17">
-        <v>0.509</v>
+        <v>0.81</v>
       </c>
       <c r="M17">
-        <v>0.509</v>
+        <v>0.81</v>
       </c>
       <c r="N17">
-        <v>1.54211637292486</v>
+        <v>0.779207486310554</v>
       </c>
       <c r="O17">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -2111,31 +2111,31 @@
         <v>186</v>
       </c>
       <c r="G18">
-        <v>0.818684018307735</v>
+        <v>0.898057394897959</v>
       </c>
       <c r="H18">
-        <v>0.786004056795132</v>
+        <v>0.86734693877551</v>
       </c>
       <c r="I18">
-        <v>0.731237322515213</v>
+        <v>0.846938775510204</v>
       </c>
       <c r="J18">
-        <v>0.997971602434077</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>0.818639999320488</v>
+        <v>0.898057394897959</v>
       </c>
       <c r="L18">
-        <v>0.786004056795132</v>
+        <v>0.86734693877551</v>
       </c>
       <c r="M18">
-        <v>0.731237322515213</v>
+        <v>0.846938775510204</v>
       </c>
       <c r="N18">
-        <v>2.85393673992318</v>
+        <v>2.11572875064339</v>
       </c>
       <c r="O18">
-        <v>986</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -2158,31 +2158,31 @@
         <v>187</v>
       </c>
       <c r="G19">
-        <v>0.802736481441595</v>
+        <v>0.720966019999999</v>
       </c>
       <c r="H19">
-        <v>0.779</v>
+        <v>0.69</v>
       </c>
       <c r="I19">
-        <v>0.659</v>
+        <v>0.57</v>
       </c>
       <c r="J19">
-        <v>0.862</v>
+        <v>0.82</v>
       </c>
       <c r="K19">
-        <v>0.684668937982287</v>
+        <v>0.5604999</v>
       </c>
       <c r="L19">
-        <v>0.666</v>
+        <v>0.54</v>
       </c>
       <c r="M19">
-        <v>0.552</v>
+        <v>0.42</v>
       </c>
       <c r="N19">
-        <v>3.57626559812105</v>
+        <v>3.25386911001226</v>
       </c>
       <c r="O19">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -2205,31 +2205,31 @@
         <v>188</v>
       </c>
       <c r="G20">
-        <v>0.824139148425279</v>
+        <v>0.81517435</v>
       </c>
       <c r="H20">
-        <v>0.769307923771314</v>
+        <v>0.68</v>
       </c>
       <c r="I20">
-        <v>0.730190571715145</v>
+        <v>0.64</v>
       </c>
       <c r="J20">
-        <v>0.993981945837513</v>
+        <v>0.99</v>
       </c>
       <c r="K20">
-        <v>0.818121094262791</v>
+        <v>0.80517435</v>
       </c>
       <c r="L20">
-        <v>0.763289869608826</v>
+        <v>0.67</v>
       </c>
       <c r="M20">
-        <v>0.724172517552658</v>
+        <v>0.63</v>
       </c>
       <c r="N20">
-        <v>2.03589941381961</v>
+        <v>1.46343998874787</v>
       </c>
       <c r="O20">
-        <v>997</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -2252,31 +2252,31 @@
         <v>189</v>
       </c>
       <c r="G21">
-        <v>0.909474777193407</v>
+        <v>0.979099580689278</v>
       </c>
       <c r="H21">
-        <v>0.92964824120603</v>
+        <v>0.989690721649485</v>
       </c>
       <c r="I21">
-        <v>0.835175879396985</v>
+        <v>0.958762886597938</v>
       </c>
       <c r="J21">
-        <v>0.993969849246231</v>
+        <v>0.979381443298969</v>
       </c>
       <c r="K21">
-        <v>0.906847001005025</v>
+        <v>0.96720618556701</v>
       </c>
       <c r="L21">
-        <v>0.927638190954774</v>
+        <v>0.979381443298969</v>
       </c>
       <c r="M21">
-        <v>0.833165829145729</v>
+        <v>0.948453608247423</v>
       </c>
       <c r="N21">
-        <v>1.67483304421666</v>
+        <v>0.781188403078017</v>
       </c>
       <c r="O21">
-        <v>995</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2299,31 +2299,31 @@
         <v>190</v>
       </c>
       <c r="G22">
-        <v>0.885633700895998</v>
+        <v>0.936163768640001</v>
       </c>
       <c r="H22">
-        <v>0.866</v>
+        <v>0.94</v>
       </c>
       <c r="I22">
-        <v>0.837</v>
+        <v>0.92</v>
       </c>
       <c r="J22">
-        <v>0.975</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>0.870987460895998</v>
+        <v>0.936163768640001</v>
       </c>
       <c r="L22">
-        <v>0.861</v>
+        <v>0.94</v>
       </c>
       <c r="M22">
-        <v>0.832</v>
+        <v>0.92</v>
       </c>
       <c r="N22">
-        <v>3.07035497064692</v>
+        <v>2.45091598719725</v>
       </c>
       <c r="O22">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2346,31 +2346,31 @@
         <v>173</v>
       </c>
       <c r="G23">
-        <v>0.785195546277385</v>
+        <v>0.846881410315518</v>
       </c>
       <c r="H23">
-        <v>0.754065040650406</v>
+        <v>0.804878048780488</v>
       </c>
       <c r="I23">
-        <v>0.705284552845528</v>
+        <v>0.75609756097561</v>
       </c>
       <c r="J23">
-        <v>0.983739837398374</v>
+        <v>0.98780487804878</v>
       </c>
       <c r="K23">
-        <v>0.782251653890084</v>
+        <v>0.846719023197928</v>
       </c>
       <c r="L23">
-        <v>0.752032520325203</v>
+        <v>0.804878048780488</v>
       </c>
       <c r="M23">
-        <v>0.703252032520325</v>
+        <v>0.75609756097561</v>
       </c>
       <c r="N23">
-        <v>2.66017761804901</v>
+        <v>2.88036585189155</v>
       </c>
       <c r="O23">
-        <v>492</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2393,31 +2393,31 @@
         <v>174</v>
       </c>
       <c r="G24">
-        <v>0.756672189535871</v>
+        <v>0.818170607070707</v>
       </c>
       <c r="H24">
-        <v>0.75</v>
+        <v>0.767676767676768</v>
       </c>
       <c r="I24">
-        <v>0.602459016393443</v>
+        <v>0.757575757575758</v>
       </c>
       <c r="J24">
-        <v>0.989754098360656</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>0.75205944868722</v>
+        <v>0.818170607070707</v>
       </c>
       <c r="L24">
-        <v>0.745901639344262</v>
+        <v>0.767676767676768</v>
       </c>
       <c r="M24">
-        <v>0.598360655737705</v>
+        <v>0.757575757575758</v>
       </c>
       <c r="N24">
-        <v>4.05177756667469</v>
+        <v>2.50679196188142</v>
       </c>
       <c r="O24">
-        <v>976</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2440,31 +2440,31 @@
         <v>191</v>
       </c>
       <c r="G25">
-        <v>0.56938797026705</v>
+        <v>0.59755207025974</v>
       </c>
       <c r="H25">
-        <v>0.546511627906977</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I25">
-        <v>0.288372093023256</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="J25">
-        <v>0.993023255813953</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>0.567940498662456</v>
+        <v>0.59755207025974</v>
       </c>
       <c r="L25">
-        <v>0.544186046511628</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="M25">
-        <v>0.288372093023256</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="N25">
-        <v>4.27334109035607</v>
+        <v>4.38725542509089</v>
       </c>
       <c r="O25">
-        <v>430</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2487,19 +2487,19 @@
         <v>192</v>
       </c>
       <c r="G26">
-        <v>0.936543562193716</v>
+        <v>0.956333333333333</v>
       </c>
       <c r="H26">
-        <v>0.926605504587156</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="I26">
-        <v>0.924566768603466</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="J26">
-        <v>0.00101936799184506</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>6.75025484199796e-05</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2508,10 +2508,10 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1.3624101689488</v>
+        <v>0.574630315180638</v>
       </c>
       <c r="O26">
-        <v>981</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2534,31 +2534,31 @@
         <v>193</v>
       </c>
       <c r="G27">
-        <v>0.752468480619308</v>
+        <v>0.826557430083275</v>
       </c>
       <c r="H27">
-        <v>0.764434180138568</v>
+        <v>0.848101265822785</v>
       </c>
       <c r="I27">
-        <v>0.745958429561201</v>
+        <v>0.822784810126582</v>
       </c>
       <c r="J27">
-        <v>0.884526558891455</v>
+        <v>0.936708860759494</v>
       </c>
       <c r="K27">
-        <v>0.670698239473439</v>
+        <v>0.799500316455696</v>
       </c>
       <c r="L27">
-        <v>0.678983833718245</v>
+        <v>0.822784810126582</v>
       </c>
       <c r="M27">
-        <v>0.662817551963048</v>
+        <v>0.79746835443038</v>
       </c>
       <c r="N27">
-        <v>4.37524539435632</v>
+        <v>4.3926226587326</v>
       </c>
       <c r="O27">
-        <v>433</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2581,31 +2581,31 @@
         <v>194</v>
       </c>
       <c r="G28">
-        <v>0.775624819334438</v>
+        <v>0.866778903128141</v>
       </c>
       <c r="H28">
-        <v>0.751605995717345</v>
+        <v>0.924050632911392</v>
       </c>
       <c r="I28">
-        <v>0.63169164882227</v>
+        <v>0.734177215189873</v>
       </c>
       <c r="J28">
-        <v>0.715203426124197</v>
+        <v>0.645569620253165</v>
       </c>
       <c r="K28">
-        <v>0.524066447537473</v>
+        <v>0.574201860759494</v>
       </c>
       <c r="L28">
-        <v>0.492505353319058</v>
+        <v>0.607594936708861</v>
       </c>
       <c r="M28">
-        <v>0.404710920770878</v>
+        <v>0.506329113924051</v>
       </c>
       <c r="N28">
-        <v>3.86885384896436</v>
+        <v>3.64151778468161</v>
       </c>
       <c r="O28">
-        <v>467</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2628,31 +2628,31 @@
         <v>195</v>
       </c>
       <c r="G29">
-        <v>0.68275891660968</v>
+        <v>0.725891472699444</v>
       </c>
       <c r="H29">
-        <v>0.629722921914358</v>
+        <v>0.717171717171717</v>
       </c>
       <c r="I29">
-        <v>0.554156171284635</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="J29">
-        <v>0.948362720403023</v>
+        <v>0.94949494949495</v>
       </c>
       <c r="K29">
-        <v>0.676023638844023</v>
+        <v>0.723746558559066</v>
       </c>
       <c r="L29">
-        <v>0.624685138539043</v>
+        <v>0.717171717171717</v>
       </c>
       <c r="M29">
-        <v>0.550377833753149</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="N29">
-        <v>5.26257053419506</v>
+        <v>4.17302838105533</v>
       </c>
       <c r="O29">
-        <v>794</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2675,31 +2675,31 @@
         <v>196</v>
       </c>
       <c r="G30">
-        <v>0.217658919206947</v>
+        <v>0.165745175149446</v>
       </c>
       <c r="H30">
-        <v>0.133468149646107</v>
+        <v>0.03</v>
       </c>
       <c r="I30">
-        <v>0.038422649140546</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>0.764408493427705</v>
+        <v>0.86</v>
       </c>
       <c r="K30">
-        <v>0.168691323915684</v>
+        <v>0.142275718360826</v>
       </c>
       <c r="L30">
-        <v>0.0859453993933266</v>
+        <v>0.01</v>
       </c>
       <c r="M30">
-        <v>0.0353892821031345</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>6.42050008539541</v>
+        <v>4.57474331406078</v>
       </c>
       <c r="O30">
-        <v>989</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2722,31 +2722,31 @@
         <v>197</v>
       </c>
       <c r="G31">
-        <v>0.173233623546028</v>
+        <v>0.144737980063163</v>
       </c>
       <c r="H31">
-        <v>0.0483870967741935</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>0.0423387096774194</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>0.888104838709677</v>
+        <v>0.93</v>
       </c>
       <c r="K31">
-        <v>0.160579892921311</v>
+        <v>0.141497456668718</v>
       </c>
       <c r="L31">
-        <v>0.0473790322580645</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>0.0413306451612903</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>5.40670800742727</v>
+        <v>3.35421192792486</v>
       </c>
       <c r="O31">
-        <v>992</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2769,31 +2769,31 @@
         <v>198</v>
       </c>
       <c r="G32">
-        <v>0.702708915792758</v>
+        <v>0.768737394399133</v>
       </c>
       <c r="H32">
-        <v>0.6841046277666</v>
+        <v>0.76</v>
       </c>
       <c r="I32">
-        <v>0.647887323943662</v>
+        <v>0.76</v>
       </c>
       <c r="J32">
-        <v>0.79476861167002</v>
+        <v>0.79</v>
       </c>
       <c r="K32">
-        <v>0.67634687098767</v>
+        <v>0.73198768656</v>
       </c>
       <c r="L32">
-        <v>0.669014084507042</v>
+        <v>0.73</v>
       </c>
       <c r="M32">
-        <v>0.633802816901408</v>
+        <v>0.73</v>
       </c>
       <c r="N32">
-        <v>3.73590090775589</v>
+        <v>2.45188003464093</v>
       </c>
       <c r="O32">
-        <v>994</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2816,31 +2816,31 @@
         <v>199</v>
       </c>
       <c r="G33">
-        <v>0.463456107612409</v>
+        <v>0.473913658989691</v>
       </c>
       <c r="H33">
-        <v>0.491666666666667</v>
+        <v>0.515463917525773</v>
       </c>
       <c r="I33">
-        <v>0.147916666666667</v>
+        <v>0.103092783505155</v>
       </c>
       <c r="J33">
-        <v>0.965625</v>
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>0.461608840679102</v>
+        <v>0.473913658989691</v>
       </c>
       <c r="L33">
-        <v>0.491666666666667</v>
+        <v>0.515463917525773</v>
       </c>
       <c r="M33">
-        <v>0.147916666666667</v>
+        <v>0.103092783505155</v>
       </c>
       <c r="N33">
-        <v>4.40497897465158</v>
+        <v>2.91568435605371</v>
       </c>
       <c r="O33">
-        <v>960</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2863,31 +2863,31 @@
         <v>200</v>
       </c>
       <c r="G34">
-        <v>0.567851148599597</v>
+        <v>0.51199310364</v>
       </c>
       <c r="H34">
-        <v>0.484143763213531</v>
+        <v>0.42</v>
       </c>
       <c r="I34">
-        <v>0.293868921775899</v>
+        <v>0.27</v>
       </c>
       <c r="J34">
-        <v>0.966173361522199</v>
+        <v>0.98</v>
       </c>
       <c r="K34">
-        <v>0.559114728442394</v>
+        <v>0.49707310364</v>
       </c>
       <c r="L34">
-        <v>0.478858350951374</v>
+        <v>0.41</v>
       </c>
       <c r="M34">
-        <v>0.288583509513742</v>
+        <v>0.26</v>
       </c>
       <c r="N34">
-        <v>5.16145923937754</v>
+        <v>3.88569996742263</v>
       </c>
       <c r="O34">
-        <v>946</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2910,31 +2910,31 @@
         <v>201</v>
       </c>
       <c r="G35">
-        <v>0.925648938399357</v>
+        <v>0.942321714285714</v>
       </c>
       <c r="H35">
-        <v>0.91541755888651</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I35">
-        <v>0.881156316916488</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="J35">
-        <v>0.987152034261242</v>
+        <v>0.989795918367347</v>
       </c>
       <c r="K35">
-        <v>0.915757075444325</v>
+        <v>0.940321714285714</v>
       </c>
       <c r="L35">
-        <v>0.903640256959315</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="M35">
-        <v>0.874732334047109</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="N35">
-        <v>2.75041716143028</v>
+        <v>1.65416003391818</v>
       </c>
       <c r="O35">
-        <v>934</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2957,31 +2957,31 @@
         <v>202</v>
       </c>
       <c r="G36">
-        <v>0.958746871775277</v>
+        <v>0.976280268817204</v>
       </c>
       <c r="H36">
-        <v>0.97008547008547</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="I36">
-        <v>0.909188034188034</v>
+        <v>0.935483870967742</v>
       </c>
       <c r="J36">
-        <v>0.97008547008547</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="K36">
-        <v>0.936971679100427</v>
+        <v>0.965527580645161</v>
       </c>
       <c r="L36">
-        <v>0.949786324786325</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="M36">
-        <v>0.892094017094017</v>
+        <v>0.924731182795699</v>
       </c>
       <c r="N36">
-        <v>1.87539654938328</v>
+        <v>0.957268500730921</v>
       </c>
       <c r="O36">
-        <v>936</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -3004,31 +3004,31 @@
         <v>203</v>
       </c>
       <c r="G37">
-        <v>0.968013431193998</v>
+        <v>0.994868686868687</v>
       </c>
       <c r="H37">
-        <v>0.96751269035533</v>
+        <v>0.98989898989899</v>
       </c>
       <c r="I37">
-        <v>0.960406091370558</v>
+        <v>0.98989898989899</v>
       </c>
       <c r="J37">
-        <v>0.978680203045685</v>
+        <v>1</v>
       </c>
       <c r="K37">
-        <v>0.967951415706763</v>
+        <v>0.994868686868687</v>
       </c>
       <c r="L37">
-        <v>0.96751269035533</v>
+        <v>0.98989898989899</v>
       </c>
       <c r="M37">
-        <v>0.960406091370558</v>
+        <v>0.98989898989899</v>
       </c>
       <c r="N37">
-        <v>0.593529291768871</v>
+        <v>0.161440542541821</v>
       </c>
       <c r="O37">
-        <v>985</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -3051,31 +3051,31 @@
         <v>204</v>
       </c>
       <c r="G38">
-        <v>0.921880736749579</v>
+        <v>0.949422765371773</v>
       </c>
       <c r="H38">
-        <v>0.904109589041096</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="I38">
-        <v>0.901826484018265</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="J38">
-        <v>0.970319634703196</v>
+        <v>0.95959595959596</v>
       </c>
       <c r="K38">
-        <v>0.913149516758586</v>
+        <v>0.928909090909091</v>
       </c>
       <c r="L38">
-        <v>0.897260273972603</v>
+        <v>0.919191919191919</v>
       </c>
       <c r="M38">
-        <v>0.894977168949772</v>
+        <v>0.919191919191919</v>
       </c>
       <c r="N38">
-        <v>1.22978373627946</v>
+        <v>0.801188403078017</v>
       </c>
       <c r="O38">
-        <v>438</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -3098,31 +3098,31 @@
         <v>205</v>
       </c>
       <c r="G39">
-        <v>0.714339133620212</v>
+        <v>0.683614450379519</v>
       </c>
       <c r="H39">
-        <v>0.876433121019108</v>
+        <v>0.826530612244898</v>
       </c>
       <c r="I39">
-        <v>0.494267515923567</v>
+        <v>0.438775510204082</v>
       </c>
       <c r="J39">
-        <v>0.910828025477707</v>
+        <v>0.938775510204082</v>
       </c>
       <c r="K39">
-        <v>0.664266995771549</v>
+        <v>0.665075436142857</v>
       </c>
       <c r="L39">
-        <v>0.817834394904459</v>
+        <v>0.795918367346939</v>
       </c>
       <c r="M39">
-        <v>0.453503184713376</v>
+        <v>0.438775510204082</v>
       </c>
       <c r="N39">
-        <v>4.57742836429659</v>
+        <v>3.77709698337163</v>
       </c>
       <c r="O39">
-        <v>785</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -3145,31 +3145,31 @@
         <v>206</v>
       </c>
       <c r="G40">
-        <v>0.392320547838117</v>
+        <v>0.416345208126891</v>
       </c>
       <c r="H40">
-        <v>0.267175572519084</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="I40">
-        <v>0.225190839694656</v>
+        <v>0.23469387755102</v>
       </c>
       <c r="J40">
-        <v>0.973282442748092</v>
+        <v>0.989795918367347</v>
       </c>
       <c r="K40">
-        <v>0.391271304643025</v>
+        <v>0.416258699064816</v>
       </c>
       <c r="L40">
-        <v>0.267175572519084</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="M40">
-        <v>0.225190839694656</v>
+        <v>0.23469387755102</v>
       </c>
       <c r="N40">
-        <v>5.24062805296641</v>
+        <v>4.29944823457962</v>
       </c>
       <c r="O40">
-        <v>786</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -3192,31 +3192,31 @@
         <v>207</v>
       </c>
       <c r="G41">
-        <v>0.736367623186279</v>
+        <v>0.782581158141961</v>
       </c>
       <c r="H41">
-        <v>0.733055265901981</v>
+        <v>0.775510204081633</v>
       </c>
       <c r="I41">
-        <v>0.631908237747654</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="J41">
-        <v>0.949947862356621</v>
+        <v>0.918367346938776</v>
       </c>
       <c r="K41">
-        <v>0.734285186363118</v>
+        <v>0.780772797016735</v>
       </c>
       <c r="L41">
-        <v>0.732012513034411</v>
+        <v>0.775510204081633</v>
       </c>
       <c r="M41">
-        <v>0.630865484880083</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="N41">
-        <v>3.92337309848527</v>
+        <v>2.85161796685751</v>
       </c>
       <c r="O41">
-        <v>959</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -3239,31 +3239,31 @@
         <v>208</v>
       </c>
       <c r="G42">
-        <v>0.68275891660968</v>
+        <v>0.725891472699444</v>
       </c>
       <c r="H42">
-        <v>0.629722921914358</v>
+        <v>0.717171717171717</v>
       </c>
       <c r="I42">
-        <v>0.554156171284635</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="J42">
-        <v>0.948362720403023</v>
+        <v>0.94949494949495</v>
       </c>
       <c r="K42">
-        <v>0.676023638844023</v>
+        <v>0.723746558559066</v>
       </c>
       <c r="L42">
-        <v>0.624685138539043</v>
+        <v>0.717171717171717</v>
       </c>
       <c r="M42">
-        <v>0.550377833753149</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="N42">
-        <v>5.26257053419506</v>
+        <v>4.17302838105533</v>
       </c>
       <c r="O42">
-        <v>794</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -3286,31 +3286,31 @@
         <v>209</v>
       </c>
       <c r="G43">
-        <v>0.737540893500211</v>
+        <v>0.786181014380012</v>
       </c>
       <c r="H43">
-        <v>0.680616740088106</v>
+        <v>0.75</v>
       </c>
       <c r="I43">
-        <v>0.627753303964758</v>
+        <v>0.71</v>
       </c>
       <c r="J43">
-        <v>0.963656387665198</v>
+        <v>0.95</v>
       </c>
       <c r="K43">
-        <v>0.736653247340704</v>
+        <v>0.78531906235732</v>
       </c>
       <c r="L43">
-        <v>0.680616740088106</v>
+        <v>0.75</v>
       </c>
       <c r="M43">
-        <v>0.627753303964758</v>
+        <v>0.71</v>
       </c>
       <c r="N43">
-        <v>4.37385317057862</v>
+        <v>2.96808949947512</v>
       </c>
       <c r="O43">
-        <v>908</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -3333,31 +3333,31 @@
         <v>210</v>
       </c>
       <c r="G44">
-        <v>0.826249764474695</v>
+        <v>0.875920646521739</v>
       </c>
       <c r="H44">
-        <v>0.808016877637131</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="I44">
-        <v>0.789029535864979</v>
+        <v>0.858695652173913</v>
       </c>
       <c r="J44">
-        <v>0.863924050632911</v>
+        <v>0.891304347826087</v>
       </c>
       <c r="K44">
-        <v>0.73080590214949</v>
+        <v>0.81393723347826</v>
       </c>
       <c r="L44">
-        <v>0.718354430379747</v>
+        <v>0.815217391304348</v>
       </c>
       <c r="M44">
-        <v>0.70253164556962</v>
+        <v>0.804347826086957</v>
       </c>
       <c r="N44">
-        <v>4.06998082723134</v>
+        <v>3.22124061559695</v>
       </c>
       <c r="O44">
-        <v>948</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -3380,31 +3380,31 @@
         <v>211</v>
       </c>
       <c r="G45">
-        <v>0.145589267575339</v>
+        <v>0.107882076264448</v>
       </c>
       <c r="H45">
-        <v>0.0394190871369295</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>0.0363070539419087</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>0.860995850622407</v>
+        <v>0.810526315789474</v>
       </c>
       <c r="K45">
-        <v>0.138341316637718</v>
+        <v>0.0970451821684476</v>
       </c>
       <c r="L45">
-        <v>0.0394190871369295</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>0.0363070539419087</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>5.46768545709817</v>
+        <v>4.11547152389298</v>
       </c>
       <c r="O45">
-        <v>964</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -3427,31 +3427,31 @@
         <v>212</v>
       </c>
       <c r="G46">
-        <v>0.208999691293009</v>
+        <v>0.172113897150029</v>
       </c>
       <c r="H46">
-        <v>0.0773993808049536</v>
+        <v>0.0309278350515464</v>
       </c>
       <c r="I46">
-        <v>0.0423116615067079</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>0.912280701754386</v>
+        <v>0.907216494845361</v>
       </c>
       <c r="K46">
-        <v>0.19731030135376</v>
+        <v>0.158493203116326</v>
       </c>
       <c r="L46">
-        <v>0.0701754385964912</v>
+        <v>0.0103092783505155</v>
       </c>
       <c r="M46">
-        <v>0.0423116615067079</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>5.78515959895951</v>
+        <v>4.16858967204679</v>
       </c>
       <c r="O46">
-        <v>969</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -3474,31 +3474,31 @@
         <v>213</v>
       </c>
       <c r="G47">
-        <v>0.461416301017356</v>
+        <v>0.50776948358</v>
       </c>
       <c r="H47">
-        <v>0.276938569989929</v>
+        <v>0.34</v>
       </c>
       <c r="I47">
-        <v>0.224572004028197</v>
+        <v>0.23</v>
       </c>
       <c r="J47">
-        <v>0.961732124874119</v>
+        <v>0.99</v>
       </c>
       <c r="K47">
-        <v>0.454986585852</v>
+        <v>0.50587528358</v>
       </c>
       <c r="L47">
-        <v>0.273917421953676</v>
+        <v>0.34</v>
       </c>
       <c r="M47">
-        <v>0.221550855991944</v>
+        <v>0.23</v>
       </c>
       <c r="N47">
-        <v>4.50499188610092</v>
+        <v>3.61085394031325</v>
       </c>
       <c r="O47">
-        <v>993</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3521,31 +3521,31 @@
         <v>214</v>
       </c>
       <c r="G48">
-        <v>0.575622534778875</v>
+        <v>0.59975404</v>
       </c>
       <c r="H48">
-        <v>0.525731584258325</v>
+        <v>0.55</v>
       </c>
       <c r="I48">
-        <v>0.473259334006054</v>
+        <v>0.51</v>
       </c>
       <c r="J48">
-        <v>0.968718466195762</v>
+        <v>1</v>
       </c>
       <c r="K48">
-        <v>0.56366305569575</v>
+        <v>0.59975404</v>
       </c>
       <c r="L48">
-        <v>0.515640766902119</v>
+        <v>0.55</v>
       </c>
       <c r="M48">
-        <v>0.463168516649849</v>
+        <v>0.51</v>
       </c>
       <c r="N48">
-        <v>5.54090590579354</v>
+        <v>3.5714352439539</v>
       </c>
       <c r="O48">
-        <v>991</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3568,31 +3568,31 @@
         <v>215</v>
       </c>
       <c r="G49">
-        <v>0.0717166868549398</v>
+        <v>0.0373838972492669</v>
       </c>
       <c r="H49">
-        <v>0.0385786802030457</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>0.0355329949238579</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>0.74010152284264</v>
+        <v>0.808080808080808</v>
       </c>
       <c r="K49">
-        <v>0.0683475039055416</v>
+        <v>0.035239158819386</v>
       </c>
       <c r="L49">
-        <v>0.0385786802030457</v>
+        <v>0</v>
       </c>
       <c r="M49">
-        <v>0.0355329949238579</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>5.62537295892189</v>
+        <v>4.30603566002801</v>
       </c>
       <c r="O49">
-        <v>985</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3615,31 +3615,31 @@
         <v>216</v>
       </c>
       <c r="G50">
-        <v>0.699854460060401</v>
+        <v>0.733768290482445</v>
       </c>
       <c r="H50">
-        <v>0.650663942798774</v>
+        <v>0.680412371134021</v>
       </c>
       <c r="I50">
-        <v>0.628192032686415</v>
+        <v>0.680412371134021</v>
       </c>
       <c r="J50">
-        <v>0.896833503575077</v>
+        <v>0.938144329896907</v>
       </c>
       <c r="K50">
-        <v>0.693260553940808</v>
+        <v>0.731532824742268</v>
       </c>
       <c r="L50">
-        <v>0.649642492339122</v>
+        <v>0.680412371134021</v>
       </c>
       <c r="M50">
-        <v>0.627170582226762</v>
+        <v>0.680412371134021</v>
       </c>
       <c r="N50">
-        <v>3.60957603996223</v>
+        <v>2.09155687497472</v>
       </c>
       <c r="O50">
-        <v>979</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3662,31 +3662,31 @@
         <v>217</v>
       </c>
       <c r="G51">
-        <v>0.925159116508428</v>
+        <v>0.953513435</v>
       </c>
       <c r="H51">
-        <v>0.923719958202717</v>
+        <v>0.959183673469388</v>
       </c>
       <c r="I51">
-        <v>0.869383490073145</v>
+        <v>0.897959183673469</v>
       </c>
       <c r="J51">
-        <v>0.00626959247648903</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>0.00525094537887419</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>0.00522466039707419</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>0.00522466039707419</v>
+        <v>0</v>
       </c>
       <c r="N51">
-        <v>1.95480318827015</v>
+        <v>0.839556365373903</v>
       </c>
       <c r="O51">
-        <v>957</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3709,31 +3709,31 @@
         <v>218</v>
       </c>
       <c r="G52">
-        <v>0.938099402000001</v>
+        <v>0.93653245372449</v>
       </c>
       <c r="H52">
-        <v>0.928342245989305</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I52">
-        <v>0.893048128342246</v>
+        <v>0.897959183673469</v>
       </c>
       <c r="J52">
-        <v>0.974331550802139</v>
+        <v>0.979591836734694</v>
       </c>
       <c r="K52">
-        <v>0.924441957155081</v>
+        <v>0.93365306122449</v>
       </c>
       <c r="L52">
-        <v>0.915508021390374</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="M52">
-        <v>0.886631016042781</v>
+        <v>0.897959183673469</v>
       </c>
       <c r="N52">
-        <v>2.8922565436627</v>
+        <v>1.93234589040767</v>
       </c>
       <c r="O52">
-        <v>935</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3756,31 +3756,31 @@
         <v>219</v>
       </c>
       <c r="G53">
-        <v>0.924532245909826</v>
+        <v>0.946033877551021</v>
       </c>
       <c r="H53">
-        <v>0.914225941422594</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I53">
-        <v>0.879707112970711</v>
+        <v>0.918367346938776</v>
       </c>
       <c r="J53">
-        <v>0.988493723849372</v>
+        <v>1</v>
       </c>
       <c r="K53">
-        <v>0.914692955827981</v>
+        <v>0.946033877551021</v>
       </c>
       <c r="L53">
-        <v>0.903765690376569</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="M53">
-        <v>0.871338912133891</v>
+        <v>0.918367346938776</v>
       </c>
       <c r="N53">
-        <v>1.95480318827015</v>
+        <v>0.839556365373903</v>
       </c>
       <c r="O53">
-        <v>956</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3803,31 +3803,31 @@
         <v>220</v>
       </c>
       <c r="G54">
-        <v>0.924532245909826</v>
+        <v>0.946033877551021</v>
       </c>
       <c r="H54">
-        <v>0.914225941422594</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I54">
-        <v>0.879707112970711</v>
+        <v>0.918367346938776</v>
       </c>
       <c r="J54">
-        <v>0.988493723849372</v>
+        <v>1</v>
       </c>
       <c r="K54">
-        <v>0.914692955827981</v>
+        <v>0.946033877551021</v>
       </c>
       <c r="L54">
-        <v>0.903765690376569</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="M54">
-        <v>0.871338912133891</v>
+        <v>0.918367346938776</v>
       </c>
       <c r="N54">
-        <v>1.95480318827015</v>
+        <v>0.839556365373903</v>
       </c>
       <c r="O54">
-        <v>956</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3850,31 +3850,31 @@
         <v>221</v>
       </c>
       <c r="G55">
-        <v>0.559149664885153</v>
+        <v>0.564680883261225</v>
       </c>
       <c r="H55">
-        <v>0.905857740585774</v>
+        <v>0.918367346938776</v>
       </c>
       <c r="I55">
-        <v>0.00209205020920502</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>0.988493723849372</v>
+        <v>1</v>
       </c>
       <c r="K55">
-        <v>0.55328023317263</v>
+        <v>0.564680883261225</v>
       </c>
       <c r="L55">
-        <v>0.897489539748954</v>
+        <v>0.918367346938776</v>
       </c>
       <c r="M55">
-        <v>0.00209205020920502</v>
+        <v>0</v>
       </c>
       <c r="N55">
-        <v>1.95480318827015</v>
+        <v>0.839556365373903</v>
       </c>
       <c r="O55">
-        <v>956</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3897,31 +3897,31 @@
         <v>222</v>
       </c>
       <c r="G56">
-        <v>0.91290987768146</v>
+        <v>0.929129210285715</v>
       </c>
       <c r="H56">
-        <v>0.91541755888651</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I56">
-        <v>0.881156316916488</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="J56">
-        <v>0.987152034261242</v>
+        <v>0.989795918367347</v>
       </c>
       <c r="K56">
-        <v>0.903156500807798</v>
+        <v>0.927157210285715</v>
       </c>
       <c r="L56">
-        <v>0.903640256959315</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="M56">
-        <v>0.874732334047109</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="N56">
-        <v>2.75041716143028</v>
+        <v>1.65416003391818</v>
       </c>
       <c r="O56">
-        <v>934</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3944,31 +3944,31 @@
         <v>223</v>
       </c>
       <c r="G57">
-        <v>0.0931875909737028</v>
+        <v>0.0966507469568817</v>
       </c>
       <c r="H57">
-        <v>0.00105596620908131</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>0.00105596620908131</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>0.944033790918691</v>
+        <v>0.979591836734694</v>
       </c>
       <c r="K57">
-        <v>0.0890071414571597</v>
+        <v>0.0919394424025449</v>
       </c>
       <c r="L57">
-        <v>0.00105596620908131</v>
+        <v>0</v>
       </c>
       <c r="M57">
-        <v>0.00105596620908131</v>
+        <v>0</v>
       </c>
       <c r="N57">
-        <v>3.05485495625471</v>
+        <v>1.8641497599239</v>
       </c>
       <c r="O57">
-        <v>947</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3991,31 +3991,31 @@
         <v>224</v>
       </c>
       <c r="G58">
-        <v>0.927720303323831</v>
+        <v>0.985347150537634</v>
       </c>
       <c r="H58">
-        <v>0.931744312026002</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="I58">
-        <v>0.866738894907909</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="J58">
-        <v>0.985915492957746</v>
+        <v>1</v>
       </c>
       <c r="K58">
-        <v>0.921868827786565</v>
+        <v>0.985347150537634</v>
       </c>
       <c r="L58">
-        <v>0.927410617551463</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="M58">
-        <v>0.862405200433369</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="N58">
-        <v>2.45245012822325</v>
+        <v>0.99977748931331</v>
       </c>
       <c r="O58">
-        <v>923</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -4038,31 +4038,31 @@
         <v>225</v>
       </c>
       <c r="G59">
-        <v>0.958746871775277</v>
+        <v>0.976280268817204</v>
       </c>
       <c r="H59">
-        <v>0.97008547008547</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="I59">
-        <v>0.909188034188034</v>
+        <v>0.935483870967742</v>
       </c>
       <c r="J59">
-        <v>0.97008547008547</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="K59">
-        <v>0.936971679100427</v>
+        <v>0.965527580645161</v>
       </c>
       <c r="L59">
-        <v>0.949786324786325</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="M59">
-        <v>0.892094017094017</v>
+        <v>0.924731182795699</v>
       </c>
       <c r="N59">
-        <v>1.87539654938328</v>
+        <v>0.957268500730921</v>
       </c>
       <c r="O59">
-        <v>936</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -4085,13 +4085,13 @@
         <v>226</v>
       </c>
       <c r="G60">
-        <v>0.781975798052387</v>
+        <v>0.894842098923772</v>
       </c>
       <c r="H60">
-        <v>0.802313354363828</v>
+        <v>0.968421052631579</v>
       </c>
       <c r="I60">
-        <v>0.749737118822292</v>
+        <v>0.894736842105263</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>3.85607248786288</v>
+        <v>2.14914097322882</v>
       </c>
       <c r="O60">
-        <v>951</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -4132,31 +4132,31 @@
         <v>227</v>
       </c>
       <c r="G61">
-        <v>0.738356094035053</v>
+        <v>0.903902205375612</v>
       </c>
       <c r="H61">
-        <v>0.755968169761273</v>
+        <v>0.89010989010989</v>
       </c>
       <c r="I61">
-        <v>0.625994694960212</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="J61">
-        <v>0.981432360742706</v>
+        <v>0.989010989010989</v>
       </c>
       <c r="K61">
-        <v>0.735876984821936</v>
+        <v>0.903330590372418</v>
       </c>
       <c r="L61">
-        <v>0.753315649867374</v>
+        <v>0.89010989010989</v>
       </c>
       <c r="M61">
-        <v>0.625994694960212</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="N61">
-        <v>3.79020057310525</v>
+        <v>3.18711682690503</v>
       </c>
       <c r="O61">
-        <v>377</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -4179,31 +4179,31 @@
         <v>228</v>
       </c>
       <c r="G62">
-        <v>0.566835956792768</v>
+        <v>0.596799337387566</v>
       </c>
       <c r="H62">
-        <v>0.543778801843318</v>
+        <v>0.576923076923077</v>
       </c>
       <c r="I62">
-        <v>0.285714285714286</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="J62">
-        <v>0.993087557603687</v>
+        <v>1</v>
       </c>
       <c r="K62">
-        <v>0.56540182594029</v>
+        <v>0.596799337387566</v>
       </c>
       <c r="L62">
-        <v>0.54147465437788</v>
+        <v>0.576923076923077</v>
       </c>
       <c r="M62">
-        <v>0.285714285714286</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="N62">
-        <v>4.28905468307688</v>
+        <v>4.35752490868933</v>
       </c>
       <c r="O62">
-        <v>434</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -4226,31 +4226,31 @@
         <v>229</v>
       </c>
       <c r="G63">
-        <v>0.934480962702387</v>
+        <v>0.95149015</v>
       </c>
       <c r="H63">
-        <v>0.925373134328358</v>
+        <v>0.95</v>
       </c>
       <c r="I63">
-        <v>0.904051172707889</v>
+        <v>0.9375</v>
       </c>
       <c r="J63">
-        <v>0.987206823027719</v>
+        <v>0.975</v>
       </c>
       <c r="K63">
-        <v>0.928011488035996</v>
+        <v>0.92649015</v>
       </c>
       <c r="L63">
-        <v>0.918976545842217</v>
+        <v>0.925</v>
       </c>
       <c r="M63">
-        <v>0.897654584221748</v>
+        <v>0.9125</v>
       </c>
       <c r="N63">
-        <v>2.82799410341281</v>
+        <v>2.87550230895619</v>
       </c>
       <c r="O63">
-        <v>469</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -4273,31 +4273,31 @@
         <v>230</v>
       </c>
       <c r="G64">
-        <v>0.918695198700106</v>
+        <v>0.886903345454948</v>
       </c>
       <c r="H64">
-        <v>0.921325051759834</v>
+        <v>0.8875</v>
       </c>
       <c r="I64">
-        <v>0.869565217391304</v>
+        <v>0.8375</v>
       </c>
       <c r="J64">
-        <v>0.979296066252588</v>
+        <v>0.9625</v>
       </c>
       <c r="K64">
-        <v>0.913942441797971</v>
+        <v>0.8863959375</v>
       </c>
       <c r="L64">
-        <v>0.917184265010352</v>
+        <v>0.8875</v>
       </c>
       <c r="M64">
-        <v>0.865424430641822</v>
+        <v>0.8375</v>
       </c>
       <c r="N64">
-        <v>2.71686075827078</v>
+        <v>2.96136450659265</v>
       </c>
       <c r="O64">
-        <v>483</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -4320,31 +4320,31 @@
         <v>231</v>
       </c>
       <c r="G65">
-        <v>0.786813993378019</v>
+        <v>0.856686288364299</v>
       </c>
       <c r="H65">
-        <v>0.756147540983607</v>
+        <v>0.817073170731707</v>
       </c>
       <c r="I65">
-        <v>0.706967213114754</v>
+        <v>0.768292682926829</v>
       </c>
       <c r="J65">
-        <v>0.983606557377049</v>
+        <v>0.98780487804878</v>
       </c>
       <c r="K65">
-        <v>0.783845970725248</v>
+        <v>0.856523901246709</v>
       </c>
       <c r="L65">
-        <v>0.754098360655738</v>
+        <v>0.817073170731707</v>
       </c>
       <c r="M65">
-        <v>0.704918032786885</v>
+        <v>0.768292682926829</v>
       </c>
       <c r="N65">
-        <v>2.62871100998389</v>
+        <v>2.83993530776983</v>
       </c>
       <c r="O65">
-        <v>488</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -4367,31 +4367,31 @@
         <v>181</v>
       </c>
       <c r="G66">
-        <v>0.744456599614546</v>
+        <v>0.903902205375612</v>
       </c>
       <c r="H66">
-        <v>0.761658031088083</v>
+        <v>0.89010989010989</v>
       </c>
       <c r="I66">
-        <v>0.634715025906736</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="J66">
-        <v>0.981865284974093</v>
+        <v>0.989010989010989</v>
       </c>
       <c r="K66">
-        <v>0.742035293465984</v>
+        <v>0.903330590372417</v>
       </c>
       <c r="L66">
-        <v>0.759067357512953</v>
+        <v>0.89010989010989</v>
       </c>
       <c r="M66">
-        <v>0.634715025906736</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="N66">
-        <v>3.74626818958162</v>
+        <v>3.24860919756886</v>
       </c>
       <c r="O66">
-        <v>386</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -4414,31 +4414,31 @@
         <v>232</v>
       </c>
       <c r="G67">
-        <v>0.474204246230262</v>
+        <v>0.506564726769098</v>
       </c>
       <c r="H67">
-        <v>0.703853955375254</v>
+        <v>0.746987951807229</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0.979716024340771</v>
+        <v>0.975903614457831</v>
       </c>
       <c r="K67">
-        <v>0.472203795668146</v>
+        <v>0.506093141456014</v>
       </c>
       <c r="L67">
-        <v>0.701825557809331</v>
+        <v>0.746987951807229</v>
       </c>
       <c r="M67">
         <v>0</v>
       </c>
       <c r="N67">
-        <v>2.66017761804901</v>
+        <v>2.88036585189155</v>
       </c>
       <c r="O67">
-        <v>493</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -4461,31 +4461,31 @@
         <v>233</v>
       </c>
       <c r="G68">
-        <v>0.68319354030972</v>
+        <v>0.725891472699444</v>
       </c>
       <c r="H68">
-        <v>0.631710362047441</v>
+        <v>0.717171717171717</v>
       </c>
       <c r="I68">
-        <v>0.553058676654182</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="J68">
-        <v>0.948813982521848</v>
+        <v>0.94949494949495</v>
       </c>
       <c r="K68">
-        <v>0.676517122649381</v>
+        <v>0.723746558559066</v>
       </c>
       <c r="L68">
-        <v>0.626716604244694</v>
+        <v>0.717171717171717</v>
       </c>
       <c r="M68">
-        <v>0.549313358302122</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="N68">
-        <v>5.27346382403279</v>
+        <v>4.17302838105533</v>
       </c>
       <c r="O68">
-        <v>801</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -4508,31 +4508,31 @@
         <v>234</v>
       </c>
       <c r="G69">
-        <v>0.925648938399357</v>
+        <v>0.942321714285714</v>
       </c>
       <c r="H69">
-        <v>0.91541755888651</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I69">
-        <v>0.881156316916488</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="J69">
-        <v>0.987152034261242</v>
+        <v>0.989795918367347</v>
       </c>
       <c r="K69">
-        <v>0.915757075444325</v>
+        <v>0.940321714285714</v>
       </c>
       <c r="L69">
-        <v>0.903640256959315</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="M69">
-        <v>0.874732334047109</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="N69">
-        <v>2.75041716143028</v>
+        <v>1.65416003391818</v>
       </c>
       <c r="O69">
-        <v>934</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -4555,31 +4555,31 @@
         <v>235</v>
       </c>
       <c r="G70">
-        <v>0.802104920871623</v>
+        <v>0.832445821964808</v>
       </c>
       <c r="H70">
-        <v>0.751540041067762</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I70">
-        <v>0.680698151950719</v>
+        <v>0.757575757575758</v>
       </c>
       <c r="J70">
-        <v>0.985626283367556</v>
+        <v>0.98989898989899</v>
       </c>
       <c r="K70">
-        <v>0.798086098599383</v>
+        <v>0.826839761358747</v>
       </c>
       <c r="L70">
-        <v>0.748459958932238</v>
+        <v>0.767676767676768</v>
       </c>
       <c r="M70">
-        <v>0.67864476386037</v>
+        <v>0.757575757575758</v>
       </c>
       <c r="N70">
-        <v>4.06732663756417</v>
+        <v>2.56407135330461</v>
       </c>
       <c r="O70">
-        <v>974</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -4602,31 +4602,31 @@
         <v>236</v>
       </c>
       <c r="G71">
-        <v>0.790427875142228</v>
+        <v>0.700157707070707</v>
       </c>
       <c r="H71">
-        <v>0.753073770491803</v>
+        <v>0.646464646464647</v>
       </c>
       <c r="I71">
-        <v>0.74077868852459</v>
+        <v>0.646464646464647</v>
       </c>
       <c r="J71">
-        <v>0.980532786885246</v>
+        <v>0.97979797979798</v>
       </c>
       <c r="K71">
-        <v>0.783410405340368</v>
+        <v>0.687349626262626</v>
       </c>
       <c r="L71">
-        <v>0.746926229508197</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="M71">
-        <v>0.734631147540984</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="N71">
-        <v>3.01153081374147</v>
+        <v>2.50504452683873</v>
       </c>
       <c r="O71">
-        <v>976</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -4649,31 +4649,31 @@
         <v>204</v>
       </c>
       <c r="G72">
-        <v>0.921880736749579</v>
+        <v>0.949422765371773</v>
       </c>
       <c r="H72">
-        <v>0.904109589041096</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="I72">
-        <v>0.901826484018265</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="J72">
-        <v>0.970319634703196</v>
+        <v>0.95959595959596</v>
       </c>
       <c r="K72">
-        <v>0.913149516758586</v>
+        <v>0.928909090909091</v>
       </c>
       <c r="L72">
-        <v>0.897260273972603</v>
+        <v>0.919191919191919</v>
       </c>
       <c r="M72">
-        <v>0.894977168949772</v>
+        <v>0.919191919191919</v>
       </c>
       <c r="N72">
-        <v>1.22978373627946</v>
+        <v>0.801188403078017</v>
       </c>
       <c r="O72">
-        <v>438</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -4696,31 +4696,31 @@
         <v>181</v>
       </c>
       <c r="G73">
-        <v>0.744456599614546</v>
+        <v>0.903902205375612</v>
       </c>
       <c r="H73">
-        <v>0.761658031088083</v>
+        <v>0.89010989010989</v>
       </c>
       <c r="I73">
-        <v>0.634715025906736</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="J73">
-        <v>0.981865284974093</v>
+        <v>0.989010989010989</v>
       </c>
       <c r="K73">
-        <v>0.742035293465984</v>
+        <v>0.903330590372417</v>
       </c>
       <c r="L73">
-        <v>0.759067357512953</v>
+        <v>0.89010989010989</v>
       </c>
       <c r="M73">
-        <v>0.634715025906736</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="N73">
-        <v>3.74626818958162</v>
+        <v>3.24860919756886</v>
       </c>
       <c r="O73">
-        <v>386</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4743,31 +4743,31 @@
         <v>237</v>
       </c>
       <c r="G74">
-        <v>0.79851169449395</v>
+        <v>0.746405242424243</v>
       </c>
       <c r="H74">
-        <v>0.710499490316004</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="I74">
-        <v>0.705402650356779</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="J74">
-        <v>0.979612640163099</v>
+        <v>0.98989898989899</v>
       </c>
       <c r="K74">
-        <v>0.793877500156792</v>
+        <v>0.736304232323232</v>
       </c>
       <c r="L74">
-        <v>0.707441386340469</v>
+        <v>0.595959595959596</v>
       </c>
       <c r="M74">
-        <v>0.702344546381244</v>
+        <v>0.595959595959596</v>
       </c>
       <c r="N74">
-        <v>2.41887578675913</v>
+        <v>2.15668984825046</v>
       </c>
       <c r="O74">
-        <v>981</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -4790,31 +4790,31 @@
         <v>238</v>
       </c>
       <c r="G75">
-        <v>0.921880736749579</v>
+        <v>0.949422765371773</v>
       </c>
       <c r="H75">
-        <v>0.904109589041096</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="I75">
-        <v>0.901826484018265</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="J75">
-        <v>0.970319634703196</v>
+        <v>0.95959595959596</v>
       </c>
       <c r="K75">
-        <v>0.913149516758586</v>
+        <v>0.928909090909091</v>
       </c>
       <c r="L75">
-        <v>0.897260273972603</v>
+        <v>0.919191919191919</v>
       </c>
       <c r="M75">
-        <v>0.894977168949772</v>
+        <v>0.919191919191919</v>
       </c>
       <c r="N75">
-        <v>1.22978373627946</v>
+        <v>0.801188403078017</v>
       </c>
       <c r="O75">
-        <v>438</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -4837,31 +4837,31 @@
         <v>239</v>
       </c>
       <c r="G76">
-        <v>0.718186969255358</v>
+        <v>0.639630013115868</v>
       </c>
       <c r="H76">
-        <v>0.824299065420561</v>
+        <v>0.67</v>
       </c>
       <c r="I76">
-        <v>0.480373831775701</v>
+        <v>0.47</v>
       </c>
       <c r="J76">
-        <v>0.867289719626168</v>
+        <v>0.72</v>
       </c>
       <c r="K76">
-        <v>0.669959961857976</v>
+        <v>0.595283098187586</v>
       </c>
       <c r="L76">
-        <v>0.770093457943925</v>
+        <v>0.63</v>
       </c>
       <c r="M76">
-        <v>0.457943925233645</v>
+        <v>0.45</v>
       </c>
       <c r="N76">
-        <v>3.96036636906972</v>
+        <v>2.87394225565193</v>
       </c>
       <c r="O76">
-        <v>535</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -4884,31 +4884,31 @@
         <v>240</v>
       </c>
       <c r="G77">
-        <v>0.817241058173239</v>
+        <v>0.840479196371772</v>
       </c>
       <c r="H77">
-        <v>0.807017543859649</v>
+        <v>0.842696629213483</v>
       </c>
       <c r="I77">
-        <v>0.72280701754386</v>
+        <v>0.741573033707865</v>
       </c>
       <c r="J77">
-        <v>0.968421052631579</v>
+        <v>0.955056179775281</v>
       </c>
       <c r="K77">
-        <v>0.806832540730768</v>
+        <v>0.825365393258427</v>
       </c>
       <c r="L77">
-        <v>0.796491228070175</v>
+        <v>0.820224719101124</v>
       </c>
       <c r="M77">
-        <v>0.715789473684211</v>
+        <v>0.741573033707865</v>
       </c>
       <c r="N77">
-        <v>2.93200291828835</v>
+        <v>2.64736338405209</v>
       </c>
       <c r="O77">
-        <v>570</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4931,31 +4931,31 @@
         <v>241</v>
       </c>
       <c r="G78">
-        <v>0.740400794026266</v>
+        <v>0.791261014380012</v>
       </c>
       <c r="H78">
-        <v>0.685124864277959</v>
+        <v>0.76</v>
       </c>
       <c r="I78">
-        <v>0.630836047774158</v>
+        <v>0.72</v>
       </c>
       <c r="J78">
-        <v>0.964169381107492</v>
+        <v>0.95</v>
       </c>
       <c r="K78">
-        <v>0.739525677074221</v>
+        <v>0.79039906235732</v>
       </c>
       <c r="L78">
-        <v>0.685124864277959</v>
+        <v>0.76</v>
       </c>
       <c r="M78">
-        <v>0.630836047774158</v>
+        <v>0.72</v>
       </c>
       <c r="N78">
-        <v>4.36426268842462</v>
+        <v>2.92460434401915</v>
       </c>
       <c r="O78">
-        <v>921</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4978,31 +4978,31 @@
         <v>242</v>
       </c>
       <c r="G79">
-        <v>0.702708915792758</v>
+        <v>0.768737394399133</v>
       </c>
       <c r="H79">
-        <v>0.6841046277666</v>
+        <v>0.76</v>
       </c>
       <c r="I79">
-        <v>0.647887323943662</v>
+        <v>0.76</v>
       </c>
       <c r="J79">
-        <v>0.79476861167002</v>
+        <v>0.79</v>
       </c>
       <c r="K79">
-        <v>0.67634687098767</v>
+        <v>0.73198768656</v>
       </c>
       <c r="L79">
-        <v>0.669014084507042</v>
+        <v>0.73</v>
       </c>
       <c r="M79">
-        <v>0.633802816901408</v>
+        <v>0.73</v>
       </c>
       <c r="N79">
-        <v>3.73590090775589</v>
+        <v>2.45188003464093</v>
       </c>
       <c r="O79">
-        <v>994</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -5025,31 +5025,31 @@
         <v>243</v>
       </c>
       <c r="G80">
-        <v>0.307039332364531</v>
+        <v>0.375204654703082</v>
       </c>
       <c r="H80">
-        <v>0.231256599788807</v>
+        <v>0.31</v>
       </c>
       <c r="I80">
-        <v>0.216473072861668</v>
+        <v>0.29</v>
       </c>
       <c r="J80">
-        <v>0.755015839493136</v>
+        <v>0.82</v>
       </c>
       <c r="K80">
-        <v>0.28667453703489</v>
+        <v>0.35528059435</v>
       </c>
       <c r="L80">
-        <v>0.231256599788807</v>
+        <v>0.31</v>
       </c>
       <c r="M80">
-        <v>0.216473072861668</v>
+        <v>0.29</v>
       </c>
       <c r="N80">
-        <v>4.79308078761255</v>
+        <v>3.77795539887046</v>
       </c>
       <c r="O80">
-        <v>947</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -5072,31 +5072,31 @@
         <v>244</v>
       </c>
       <c r="G81">
-        <v>0.924532245909826</v>
+        <v>0.946033877551021</v>
       </c>
       <c r="H81">
-        <v>0.914225941422594</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I81">
-        <v>0.879707112970711</v>
+        <v>0.918367346938776</v>
       </c>
       <c r="J81">
-        <v>0.988493723849372</v>
+        <v>1</v>
       </c>
       <c r="K81">
-        <v>0.914692955827981</v>
+        <v>0.946033877551021</v>
       </c>
       <c r="L81">
-        <v>0.903765690376569</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="M81">
-        <v>0.871338912133891</v>
+        <v>0.918367346938776</v>
       </c>
       <c r="N81">
-        <v>1.95480318827015</v>
+        <v>0.839556365373903</v>
       </c>
       <c r="O81">
-        <v>956</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -5119,31 +5119,31 @@
         <v>245</v>
       </c>
       <c r="G82">
-        <v>0.927265958260614</v>
+        <v>0.97050252688172</v>
       </c>
       <c r="H82">
-        <v>0.916038751345533</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>0.860064585575888</v>
+        <v>0.924731182795699</v>
       </c>
       <c r="J82">
-        <v>0.970936490850377</v>
+        <v>1</v>
       </c>
       <c r="K82">
-        <v>0.911459047362756</v>
+        <v>0.97050252688172</v>
       </c>
       <c r="L82">
-        <v>0.904198062432723</v>
+        <v>1</v>
       </c>
       <c r="M82">
-        <v>0.851453175457481</v>
+        <v>0.924731182795699</v>
       </c>
       <c r="N82">
-        <v>1.989342838306</v>
+        <v>0.957268500730921</v>
       </c>
       <c r="O82">
-        <v>929</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -5166,7 +5166,7 @@
         <v>246</v>
       </c>
       <c r="G83">
-        <v>0.334881743019505</v>
+        <v>0.340931926532107</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -5175,10 +5175,10 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>0.820486815415821</v>
+        <v>0.797979797979798</v>
       </c>
       <c r="K83">
-        <v>0.322609240536508</v>
+        <v>0.327631424242425</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -5187,10 +5187,10 @@
         <v>0</v>
       </c>
       <c r="N83">
-        <v>2.6610147666764</v>
+        <v>1.24175447165502</v>
       </c>
       <c r="O83">
-        <v>986</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -5213,31 +5213,31 @@
         <v>247</v>
       </c>
       <c r="G84">
-        <v>0.748204517113754</v>
+        <v>0.815908609889684</v>
       </c>
       <c r="H84">
-        <v>0.8</v>
+        <v>0.873684210526316</v>
       </c>
       <c r="I84">
-        <v>0.6</v>
+        <v>0.705263157894737</v>
       </c>
       <c r="J84">
-        <v>0.97032967032967</v>
+        <v>0.978947368421053</v>
       </c>
       <c r="K84">
-        <v>0.732859175791944</v>
+        <v>0.799769346731789</v>
       </c>
       <c r="L84">
-        <v>0.78021978021978</v>
+        <v>0.852631578947368</v>
       </c>
       <c r="M84">
-        <v>0.591208791208791</v>
+        <v>0.694736842105263</v>
       </c>
       <c r="N84">
-        <v>3.32160468842401</v>
+        <v>2.23759127386008</v>
       </c>
       <c r="O84">
-        <v>910</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -5260,31 +5260,31 @@
         <v>248</v>
       </c>
       <c r="G85">
-        <v>0.18213633528734</v>
+        <v>0.172169884195465</v>
       </c>
       <c r="H85">
-        <v>0.0882647943831495</v>
+        <v>0.09</v>
       </c>
       <c r="I85">
-        <v>0.0551654964894684</v>
+        <v>0.04</v>
       </c>
       <c r="J85">
-        <v>0.805416248746239</v>
+        <v>0.71</v>
       </c>
       <c r="K85">
-        <v>0.176243170931374</v>
+        <v>0.166365986653723</v>
       </c>
       <c r="L85">
-        <v>0.0882647943831495</v>
+        <v>0.09</v>
       </c>
       <c r="M85">
-        <v>0.0551654964894684</v>
+        <v>0.04</v>
       </c>
       <c r="N85">
-        <v>6.17484114751812</v>
+        <v>4.24276208342498</v>
       </c>
       <c r="O85">
-        <v>997</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -5307,31 +5307,31 @@
         <v>249</v>
       </c>
       <c r="G86">
-        <v>0.979751592</v>
+        <v>0.95659</v>
       </c>
       <c r="H86">
-        <v>0.977</v>
+        <v>0.98</v>
       </c>
       <c r="I86">
-        <v>0.964</v>
+        <v>0.91</v>
       </c>
       <c r="J86">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="K86">
-        <v>0.977751592</v>
+        <v>0.95659</v>
       </c>
       <c r="L86">
-        <v>0.975</v>
+        <v>0.98</v>
       </c>
       <c r="M86">
-        <v>0.962</v>
+        <v>0.91</v>
       </c>
       <c r="N86">
-        <v>1.04212058264285</v>
+        <v>0.941172095986552</v>
       </c>
       <c r="O86">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -5354,31 +5354,31 @@
         <v>250</v>
       </c>
       <c r="G87">
-        <v>0.84837686331</v>
+        <v>0.629983099999999</v>
       </c>
       <c r="H87">
-        <v>0.814</v>
+        <v>0.56</v>
       </c>
       <c r="I87">
-        <v>0.779</v>
+        <v>0.54</v>
       </c>
       <c r="J87">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="K87">
-        <v>0.84461386331</v>
+        <v>0.629983099999999</v>
       </c>
       <c r="L87">
-        <v>0.81</v>
+        <v>0.56</v>
       </c>
       <c r="M87">
-        <v>0.775</v>
+        <v>0.54</v>
       </c>
       <c r="N87">
-        <v>2.09159551252022</v>
+        <v>1.58095429422159</v>
       </c>
       <c r="O87">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -5401,31 +5401,31 @@
         <v>251</v>
       </c>
       <c r="G88">
-        <v>0.152477892020041</v>
+        <v>0.1638901097</v>
       </c>
       <c r="H88">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>0.926</v>
+        <v>0.98</v>
       </c>
       <c r="K88">
-        <v>0.141886397264967</v>
+        <v>0.1628786762</v>
       </c>
       <c r="L88">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="M88">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="N88">
-        <v>4.77677151400544</v>
+        <v>2.56927510131555</v>
       </c>
       <c r="O88">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -5448,31 +5448,31 @@
         <v>185</v>
       </c>
       <c r="G89">
-        <v>0.697652269999997</v>
+        <v>0.883150000000001</v>
       </c>
       <c r="H89">
-        <v>0.51</v>
+        <v>0.81</v>
       </c>
       <c r="I89">
-        <v>0.51</v>
+        <v>0.81</v>
       </c>
       <c r="J89">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="K89">
-        <v>0.696652269999997</v>
+        <v>0.883150000000001</v>
       </c>
       <c r="L89">
-        <v>0.509</v>
+        <v>0.81</v>
       </c>
       <c r="M89">
-        <v>0.509</v>
+        <v>0.81</v>
       </c>
       <c r="N89">
-        <v>1.54211637292486</v>
+        <v>0.779207486310554</v>
       </c>
       <c r="O89">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -5495,31 +5495,31 @@
         <v>252</v>
       </c>
       <c r="G90">
-        <v>0.813480081125463</v>
+        <v>0.83634671029127</v>
       </c>
       <c r="H90">
-        <v>0.800751879699248</v>
+        <v>0.855421686746988</v>
       </c>
       <c r="I90">
-        <v>0.719924812030075</v>
+        <v>0.734939759036145</v>
       </c>
       <c r="J90">
-        <v>0.969924812030075</v>
+        <v>0.951807228915663</v>
       </c>
       <c r="K90">
-        <v>0.805251030482214</v>
+        <v>0.826355662650602</v>
       </c>
       <c r="L90">
-        <v>0.793233082706767</v>
+        <v>0.843373493975904</v>
       </c>
       <c r="M90">
-        <v>0.714285714285714</v>
+        <v>0.734939759036145</v>
       </c>
       <c r="N90">
-        <v>2.91432539124929</v>
+        <v>3.03149709804776</v>
       </c>
       <c r="O90">
-        <v>532</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -5542,31 +5542,31 @@
         <v>253</v>
       </c>
       <c r="G91">
-        <v>0.738265494844509</v>
+        <v>0.786181014380012</v>
       </c>
       <c r="H91">
-        <v>0.682017543859649</v>
+        <v>0.75</v>
       </c>
       <c r="I91">
-        <v>0.628289473684211</v>
+        <v>0.71</v>
       </c>
       <c r="J91">
-        <v>0.963815789473684</v>
+        <v>0.95</v>
       </c>
       <c r="K91">
-        <v>0.737381741869911</v>
+        <v>0.78531906235732</v>
       </c>
       <c r="L91">
-        <v>0.682017543859649</v>
+        <v>0.75</v>
       </c>
       <c r="M91">
-        <v>0.628289473684211</v>
+        <v>0.71</v>
       </c>
       <c r="N91">
-        <v>4.38155666293078</v>
+        <v>2.99644575426893</v>
       </c>
       <c r="O91">
-        <v>912</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -5589,31 +5589,31 @@
         <v>254</v>
       </c>
       <c r="G92">
-        <v>0.346153276423056</v>
+        <v>0.48026976834864</v>
       </c>
       <c r="H92">
-        <v>0.265388496468214</v>
+        <v>0.414141414141414</v>
       </c>
       <c r="I92">
-        <v>0.265388496468214</v>
+        <v>0.414141414141414</v>
       </c>
       <c r="J92">
-        <v>0.397578203834511</v>
+        <v>0.505050505050505</v>
       </c>
       <c r="K92">
-        <v>0.266570327492069</v>
+        <v>0.369685338181818</v>
       </c>
       <c r="L92">
-        <v>0.247225025227043</v>
+        <v>0.353535353535354</v>
       </c>
       <c r="M92">
-        <v>0.247225025227043</v>
+        <v>0.353535353535354</v>
       </c>
       <c r="N92">
-        <v>5.92545969630295</v>
+        <v>4.32159351100563</v>
       </c>
       <c r="O92">
-        <v>991</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -5636,31 +5636,31 @@
         <v>255</v>
       </c>
       <c r="G93">
-        <v>0.552968231919462</v>
+        <v>0.61811433636598</v>
       </c>
       <c r="H93">
-        <v>0.415322580645161</v>
+        <v>0.44</v>
       </c>
       <c r="I93">
-        <v>0.377016129032258</v>
+        <v>0.43</v>
       </c>
       <c r="J93">
-        <v>0.891129032258065</v>
+        <v>0.97</v>
       </c>
       <c r="K93">
-        <v>0.506055937649973</v>
+        <v>0.61345596325882</v>
       </c>
       <c r="L93">
-        <v>0.373991935483871</v>
+        <v>0.44</v>
       </c>
       <c r="M93">
-        <v>0.357862903225806</v>
+        <v>0.43</v>
       </c>
       <c r="N93">
-        <v>5.40670800742727</v>
+        <v>3.29421192792486</v>
       </c>
       <c r="O93">
-        <v>992</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -5683,31 +5683,31 @@
         <v>256</v>
       </c>
       <c r="G94">
-        <v>0.573391555415365</v>
+        <v>0.686803082648617</v>
       </c>
       <c r="H94">
-        <v>0.517206477732793</v>
+        <v>0.7</v>
       </c>
       <c r="I94">
-        <v>0.379554655870445</v>
+        <v>0.48</v>
       </c>
       <c r="J94">
-        <v>0.866396761133603</v>
+        <v>0.86</v>
       </c>
       <c r="K94">
-        <v>0.502661644891772</v>
+        <v>0.629635242648617</v>
       </c>
       <c r="L94">
-        <v>0.451417004048583</v>
+        <v>0.63</v>
       </c>
       <c r="M94">
-        <v>0.334008097165992</v>
+        <v>0.48</v>
       </c>
       <c r="N94">
-        <v>5.28402930577442</v>
+        <v>3.06214044633627</v>
       </c>
       <c r="O94">
-        <v>988</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:15">
@@ -5730,31 +5730,31 @@
         <v>234</v>
       </c>
       <c r="G95">
-        <v>0.925648938399357</v>
+        <v>0.942321714285714</v>
       </c>
       <c r="H95">
-        <v>0.91541755888651</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I95">
-        <v>0.881156316916488</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="J95">
-        <v>0.987152034261242</v>
+        <v>0.989795918367347</v>
       </c>
       <c r="K95">
-        <v>0.915757075444325</v>
+        <v>0.940321714285714</v>
       </c>
       <c r="L95">
-        <v>0.903640256959315</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="M95">
-        <v>0.874732334047109</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="N95">
-        <v>2.75041716143028</v>
+        <v>1.65416003391818</v>
       </c>
       <c r="O95">
-        <v>934</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -5777,31 +5777,31 @@
         <v>257</v>
       </c>
       <c r="G96">
-        <v>0.924948518526618</v>
+        <v>0.954981262626263</v>
       </c>
       <c r="H96">
-        <v>0.926680244399185</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="I96">
-        <v>0.878818737270876</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="J96">
-        <v>0.991853360488798</v>
+        <v>1</v>
       </c>
       <c r="K96">
-        <v>0.920836241330528</v>
+        <v>0.954981262626263</v>
       </c>
       <c r="L96">
-        <v>0.922606924643585</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="M96">
-        <v>0.874745417515275</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="N96">
-        <v>1.22854380598013</v>
+        <v>0.494889620422621</v>
       </c>
       <c r="O96">
-        <v>982</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -5824,31 +5824,31 @@
         <v>258</v>
       </c>
       <c r="G97">
-        <v>0.720148380554458</v>
+        <v>0.92471935</v>
       </c>
       <c r="H97">
-        <v>0.655</v>
+        <v>0.89</v>
       </c>
       <c r="I97">
-        <v>0.654</v>
+        <v>0.89</v>
       </c>
       <c r="J97">
-        <v>0.879</v>
+        <v>0.97</v>
       </c>
       <c r="K97">
-        <v>0.70170732</v>
+        <v>0.89471935</v>
       </c>
       <c r="L97">
-        <v>0.642</v>
+        <v>0.86</v>
       </c>
       <c r="M97">
-        <v>0.641</v>
+        <v>0.86</v>
       </c>
       <c r="N97">
-        <v>3.88167221649991</v>
+        <v>1.64846969903622</v>
       </c>
       <c r="O97">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -5871,31 +5871,31 @@
         <v>259</v>
       </c>
       <c r="G98">
-        <v>0.897082685647099</v>
+        <v>0.92528105</v>
       </c>
       <c r="H98">
-        <v>0.895266868076536</v>
+        <v>0.95</v>
       </c>
       <c r="I98">
-        <v>0.835850956696878</v>
+        <v>0.86</v>
       </c>
       <c r="J98">
-        <v>0.998992950654582</v>
+        <v>1</v>
       </c>
       <c r="K98">
-        <v>0.897057192346426</v>
+        <v>0.92528105</v>
       </c>
       <c r="L98">
-        <v>0.895266868076536</v>
+        <v>0.95</v>
       </c>
       <c r="M98">
-        <v>0.835850956696878</v>
+        <v>0.86</v>
       </c>
       <c r="N98">
-        <v>1.61848815801891</v>
+        <v>1.0982131498962</v>
       </c>
       <c r="O98">
-        <v>993</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -5918,31 +5918,31 @@
         <v>260</v>
       </c>
       <c r="G99">
-        <v>0.451155628830407</v>
+        <v>0.528854239666746</v>
       </c>
       <c r="H99">
-        <v>0.372</v>
+        <v>0.44</v>
       </c>
       <c r="I99">
-        <v>0.34</v>
+        <v>0.43</v>
       </c>
       <c r="J99">
-        <v>0.851</v>
+        <v>0.9</v>
       </c>
       <c r="K99">
-        <v>0.391044762460002</v>
+        <v>0.504066156</v>
       </c>
       <c r="L99">
-        <v>0.323</v>
+        <v>0.42</v>
       </c>
       <c r="M99">
-        <v>0.292</v>
+        <v>0.41</v>
       </c>
       <c r="N99">
-        <v>4.20540423724274</v>
+        <v>2.70667767436754</v>
       </c>
       <c r="O99">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -5965,31 +5965,31 @@
         <v>261</v>
       </c>
       <c r="G100">
-        <v>0.871317936999999</v>
+        <v>0.70858412</v>
       </c>
       <c r="H100">
-        <v>0.83</v>
+        <v>0.64</v>
       </c>
       <c r="I100">
-        <v>0.8</v>
+        <v>0.59</v>
       </c>
       <c r="J100">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="K100">
-        <v>0.863334936999999</v>
+        <v>0.70858412</v>
       </c>
       <c r="L100">
-        <v>0.823</v>
+        <v>0.64</v>
       </c>
       <c r="M100">
-        <v>0.793</v>
+        <v>0.59</v>
       </c>
       <c r="N100">
-        <v>2.09269315269052</v>
+        <v>2.06804654984921</v>
       </c>
       <c r="O100">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -6012,31 +6012,31 @@
         <v>262</v>
       </c>
       <c r="G101">
-        <v>0.863920523120245</v>
+        <v>0.91274290909091</v>
       </c>
       <c r="H101">
-        <v>0.88376753507014</v>
+        <v>0.95959595959596</v>
       </c>
       <c r="I101">
-        <v>0.804609218436874</v>
+        <v>0.848484848484849</v>
       </c>
       <c r="J101">
-        <v>0.954909819639279</v>
+        <v>0.94949494949495</v>
       </c>
       <c r="K101">
-        <v>0.829556046166337</v>
+        <v>0.862237858585859</v>
       </c>
       <c r="L101">
-        <v>0.850701402805611</v>
+        <v>0.909090909090909</v>
       </c>
       <c r="M101">
-        <v>0.773547094188377</v>
+        <v>0.797979797979798</v>
       </c>
       <c r="N101">
-        <v>2.44613802577299</v>
+        <v>1.97846966783352</v>
       </c>
       <c r="O101">
-        <v>998</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:15">
@@ -6059,31 +6059,31 @@
         <v>263</v>
       </c>
       <c r="G102">
-        <v>0.940645372093001</v>
+        <v>0.96334</v>
       </c>
       <c r="H102">
-        <v>0.984</v>
+        <v>0.96</v>
       </c>
       <c r="I102">
-        <v>0.863</v>
+        <v>0.93</v>
       </c>
       <c r="J102">
-        <v>0.964</v>
+        <v>1</v>
       </c>
       <c r="K102">
-        <v>0.906598017608001</v>
+        <v>0.96334</v>
       </c>
       <c r="L102">
-        <v>0.949</v>
+        <v>0.96</v>
       </c>
       <c r="M102">
-        <v>0.831</v>
+        <v>0.93</v>
       </c>
       <c r="N102">
-        <v>1.61995493796698</v>
+        <v>1.24502458673514</v>
       </c>
       <c r="O102">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:15">
@@ -6106,31 +6106,31 @@
         <v>264</v>
       </c>
       <c r="G103">
-        <v>0.0812370887426038</v>
+        <v>0.0765520974346469</v>
       </c>
       <c r="H103">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I103">
         <v>0</v>
       </c>
       <c r="J103">
-        <v>0.657</v>
+        <v>0.83</v>
       </c>
       <c r="K103">
-        <v>0.0676222813985726</v>
+        <v>0.06786736268</v>
       </c>
       <c r="L103">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="M103">
         <v>0</v>
       </c>
       <c r="N103">
-        <v>6.46111127194825</v>
+        <v>2.80743190745793</v>
       </c>
       <c r="O103">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:15">
@@ -6153,31 +6153,31 @@
         <v>171</v>
       </c>
       <c r="G104">
-        <v>0.682982303783994</v>
+        <v>0.716449987042878</v>
       </c>
       <c r="H104">
-        <v>0.628352490421456</v>
+        <v>0.707070707070707</v>
       </c>
       <c r="I104">
-        <v>0.554278416347382</v>
+        <v>0.626262626262626</v>
       </c>
       <c r="J104">
-        <v>0.947637292464879</v>
+        <v>0.94949494949495</v>
       </c>
       <c r="K104">
-        <v>0.6761524052579</v>
+        <v>0.7143050729025</v>
       </c>
       <c r="L104">
-        <v>0.623243933588761</v>
+        <v>0.707070707070707</v>
       </c>
       <c r="M104">
-        <v>0.550446998722861</v>
+        <v>0.626262626262626</v>
       </c>
       <c r="N104">
-        <v>5.2490487877587</v>
+        <v>4.231716678372</v>
       </c>
       <c r="O104">
-        <v>783</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:15">
@@ -6200,31 +6200,31 @@
         <v>172</v>
       </c>
       <c r="G105">
-        <v>0.474443560437121</v>
+        <v>0.578449344742268</v>
       </c>
       <c r="H105">
-        <v>0.285565939771547</v>
+        <v>0.381443298969072</v>
       </c>
       <c r="I105">
-        <v>0.272066458982347</v>
+        <v>0.371134020618557</v>
       </c>
       <c r="J105">
-        <v>0.933541017653167</v>
+        <v>1</v>
       </c>
       <c r="K105">
-        <v>0.468332373759138</v>
+        <v>0.578449344742268</v>
       </c>
       <c r="L105">
-        <v>0.285565939771547</v>
+        <v>0.381443298969072</v>
       </c>
       <c r="M105">
-        <v>0.272066458982347</v>
+        <v>0.371134020618557</v>
       </c>
       <c r="N105">
-        <v>4.29888047215039</v>
+        <v>2.91568435605371</v>
       </c>
       <c r="O105">
-        <v>963</v>
+        <v>97</v>
       </c>
     </row>
     <row r="106" spans="1:15">
@@ -6247,31 +6247,31 @@
         <v>265</v>
       </c>
       <c r="G106">
-        <v>0.841251450140969</v>
+        <v>0.81993607524</v>
       </c>
       <c r="H106">
-        <v>0.857</v>
+        <v>0.84</v>
       </c>
       <c r="I106">
-        <v>0.731</v>
+        <v>0.71</v>
       </c>
       <c r="J106">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="K106">
-        <v>0.840614079276001</v>
+        <v>0.81993607524</v>
       </c>
       <c r="L106">
-        <v>0.856</v>
+        <v>0.84</v>
       </c>
       <c r="M106">
-        <v>0.731</v>
+        <v>0.71</v>
       </c>
       <c r="N106">
-        <v>2.00922273948255</v>
+        <v>1.55170500674649</v>
       </c>
       <c r="O106">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:15">
@@ -6294,31 +6294,31 @@
         <v>266</v>
       </c>
       <c r="G107">
-        <v>0.410398287302003</v>
+        <v>0.280742100000001</v>
       </c>
       <c r="H107">
-        <v>0.333</v>
+        <v>0.15</v>
       </c>
       <c r="I107">
-        <v>0.212</v>
+        <v>0.1</v>
       </c>
       <c r="J107">
-        <v>0.949</v>
+        <v>0.97</v>
       </c>
       <c r="K107">
-        <v>0.391638583052402</v>
+        <v>0.250742100000001</v>
       </c>
       <c r="L107">
-        <v>0.32</v>
+        <v>0.12</v>
       </c>
       <c r="M107">
-        <v>0.199</v>
+        <v>0.07</v>
       </c>
       <c r="N107">
-        <v>3.19693368939522</v>
+        <v>1.48147885771627</v>
       </c>
       <c r="O107">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:15">
@@ -6341,31 +6341,31 @@
         <v>267</v>
       </c>
       <c r="G108">
-        <v>0.798052878239094</v>
+        <v>0.773191990375401</v>
       </c>
       <c r="H108">
-        <v>0.932</v>
+        <v>0.93</v>
       </c>
       <c r="I108">
-        <v>0.747</v>
+        <v>0.67</v>
       </c>
       <c r="J108">
-        <v>0.913</v>
+        <v>0.78</v>
       </c>
       <c r="K108">
-        <v>0.753103297402133</v>
+        <v>0.6516640903754</v>
       </c>
       <c r="L108">
-        <v>0.876</v>
+        <v>0.71</v>
       </c>
       <c r="M108">
-        <v>0.712</v>
+        <v>0.65</v>
       </c>
       <c r="N108">
-        <v>2.46785467732128</v>
+        <v>2.30321415549641</v>
       </c>
       <c r="O108">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:15">
@@ -6388,31 +6388,31 @@
         <v>268</v>
       </c>
       <c r="G109">
-        <v>0.614408880245938</v>
+        <v>0.560398522003313</v>
       </c>
       <c r="H109">
-        <v>0.687687687687688</v>
+        <v>0.676767676767677</v>
       </c>
       <c r="I109">
-        <v>0.206206206206206</v>
+        <v>0.161616161616162</v>
       </c>
       <c r="J109">
-        <v>0.917917917917918</v>
+        <v>0.878787878787879</v>
       </c>
       <c r="K109">
-        <v>0.55671902321891</v>
+        <v>0.487320847316444</v>
       </c>
       <c r="L109">
-        <v>0.614614614614615</v>
+        <v>0.565656565656566</v>
       </c>
       <c r="M109">
-        <v>0.186186186186186</v>
+        <v>0.161616161616162</v>
       </c>
       <c r="N109">
-        <v>4.75025253750041</v>
+        <v>3.9043367109321</v>
       </c>
       <c r="O109">
-        <v>999</v>
+        <v>99</v>
       </c>
     </row>
     <row r="110" spans="1:15">
@@ -6435,31 +6435,31 @@
         <v>171</v>
       </c>
       <c r="G110">
-        <v>0.682982303783994</v>
+        <v>0.716449987042878</v>
       </c>
       <c r="H110">
-        <v>0.628352490421456</v>
+        <v>0.707070707070707</v>
       </c>
       <c r="I110">
-        <v>0.554278416347382</v>
+        <v>0.626262626262626</v>
       </c>
       <c r="J110">
-        <v>0.947637292464879</v>
+        <v>0.94949494949495</v>
       </c>
       <c r="K110">
-        <v>0.6761524052579</v>
+        <v>0.7143050729025</v>
       </c>
       <c r="L110">
-        <v>0.623243933588761</v>
+        <v>0.707070707070707</v>
       </c>
       <c r="M110">
-        <v>0.550446998722861</v>
+        <v>0.626262626262626</v>
       </c>
       <c r="N110">
-        <v>5.2490487877587</v>
+        <v>4.231716678372</v>
       </c>
       <c r="O110">
-        <v>783</v>
+        <v>99</v>
       </c>
     </row>
     <row r="111" spans="1:15">
@@ -6482,31 +6482,31 @@
         <v>172</v>
       </c>
       <c r="G111">
-        <v>0.474443560437121</v>
+        <v>0.578449344742268</v>
       </c>
       <c r="H111">
-        <v>0.285565939771547</v>
+        <v>0.381443298969072</v>
       </c>
       <c r="I111">
-        <v>0.272066458982347</v>
+        <v>0.371134020618557</v>
       </c>
       <c r="J111">
-        <v>0.933541017653167</v>
+        <v>1</v>
       </c>
       <c r="K111">
-        <v>0.468332373759138</v>
+        <v>0.578449344742268</v>
       </c>
       <c r="L111">
-        <v>0.285565939771547</v>
+        <v>0.381443298969072</v>
       </c>
       <c r="M111">
-        <v>0.272066458982347</v>
+        <v>0.371134020618557</v>
       </c>
       <c r="N111">
-        <v>4.29888047215039</v>
+        <v>2.91568435605371</v>
       </c>
       <c r="O111">
-        <v>963</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112" spans="1:15">
@@ -6529,31 +6529,31 @@
         <v>173</v>
       </c>
       <c r="G112">
-        <v>0.785195546277385</v>
+        <v>0.846881410315518</v>
       </c>
       <c r="H112">
-        <v>0.754065040650406</v>
+        <v>0.804878048780488</v>
       </c>
       <c r="I112">
-        <v>0.705284552845528</v>
+        <v>0.75609756097561</v>
       </c>
       <c r="J112">
-        <v>0.983739837398374</v>
+        <v>0.98780487804878</v>
       </c>
       <c r="K112">
-        <v>0.782251653890084</v>
+        <v>0.846719023197928</v>
       </c>
       <c r="L112">
-        <v>0.752032520325203</v>
+        <v>0.804878048780488</v>
       </c>
       <c r="M112">
-        <v>0.703252032520325</v>
+        <v>0.75609756097561</v>
       </c>
       <c r="N112">
-        <v>2.66017761804901</v>
+        <v>2.88036585189155</v>
       </c>
       <c r="O112">
-        <v>492</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113" spans="1:15">
@@ -6576,31 +6576,31 @@
         <v>174</v>
       </c>
       <c r="G113">
-        <v>0.756672189535871</v>
+        <v>0.818170607070707</v>
       </c>
       <c r="H113">
-        <v>0.75</v>
+        <v>0.767676767676768</v>
       </c>
       <c r="I113">
-        <v>0.602459016393443</v>
+        <v>0.757575757575758</v>
       </c>
       <c r="J113">
-        <v>0.989754098360656</v>
+        <v>1</v>
       </c>
       <c r="K113">
-        <v>0.75205944868722</v>
+        <v>0.818170607070707</v>
       </c>
       <c r="L113">
-        <v>0.745901639344262</v>
+        <v>0.767676767676768</v>
       </c>
       <c r="M113">
-        <v>0.598360655737705</v>
+        <v>0.757575757575758</v>
       </c>
       <c r="N113">
-        <v>4.05177756667469</v>
+        <v>2.50679196188142</v>
       </c>
       <c r="O113">
-        <v>976</v>
+        <v>99</v>
       </c>
     </row>
     <row r="114" spans="1:15">
@@ -6623,31 +6623,31 @@
         <v>191</v>
       </c>
       <c r="G114">
-        <v>0.56938797026705</v>
+        <v>0.59755207025974</v>
       </c>
       <c r="H114">
-        <v>0.546511627906977</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I114">
-        <v>0.288372093023256</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="J114">
-        <v>0.993023255813953</v>
+        <v>1</v>
       </c>
       <c r="K114">
-        <v>0.567940498662456</v>
+        <v>0.59755207025974</v>
       </c>
       <c r="L114">
-        <v>0.544186046511628</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="M114">
-        <v>0.288372093023256</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="N114">
-        <v>4.27334109035607</v>
+        <v>4.38725542509089</v>
       </c>
       <c r="O114">
-        <v>430</v>
+        <v>77</v>
       </c>
     </row>
     <row r="115" spans="1:15">
@@ -6670,19 +6670,19 @@
         <v>192</v>
       </c>
       <c r="G115">
-        <v>0.936543562193716</v>
+        <v>0.956333333333333</v>
       </c>
       <c r="H115">
-        <v>0.926605504587156</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="I115">
-        <v>0.924566768603466</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="J115">
-        <v>0.00101936799184506</v>
+        <v>0</v>
       </c>
       <c r="K115">
-        <v>6.75025484199796e-05</v>
+        <v>0</v>
       </c>
       <c r="L115">
         <v>0</v>
@@ -6691,10 +6691,10 @@
         <v>0</v>
       </c>
       <c r="N115">
-        <v>1.3624101689488</v>
+        <v>0.574630315180638</v>
       </c>
       <c r="O115">
-        <v>981</v>
+        <v>99</v>
       </c>
     </row>
     <row r="116" spans="1:15">
@@ -6717,31 +6717,31 @@
         <v>193</v>
       </c>
       <c r="G116">
-        <v>0.752468480619308</v>
+        <v>0.826557430083275</v>
       </c>
       <c r="H116">
-        <v>0.764434180138568</v>
+        <v>0.848101265822785</v>
       </c>
       <c r="I116">
-        <v>0.745958429561201</v>
+        <v>0.822784810126582</v>
       </c>
       <c r="J116">
-        <v>0.884526558891455</v>
+        <v>0.936708860759494</v>
       </c>
       <c r="K116">
-        <v>0.670698239473439</v>
+        <v>0.799500316455696</v>
       </c>
       <c r="L116">
-        <v>0.678983833718245</v>
+        <v>0.822784810126582</v>
       </c>
       <c r="M116">
-        <v>0.662817551963048</v>
+        <v>0.79746835443038</v>
       </c>
       <c r="N116">
-        <v>4.37524539435632</v>
+        <v>4.3926226587326</v>
       </c>
       <c r="O116">
-        <v>433</v>
+        <v>79</v>
       </c>
     </row>
     <row r="117" spans="1:15">
@@ -6764,31 +6764,31 @@
         <v>194</v>
       </c>
       <c r="G117">
-        <v>0.775624819334438</v>
+        <v>0.866778903128141</v>
       </c>
       <c r="H117">
-        <v>0.751605995717345</v>
+        <v>0.924050632911392</v>
       </c>
       <c r="I117">
-        <v>0.63169164882227</v>
+        <v>0.734177215189873</v>
       </c>
       <c r="J117">
-        <v>0.715203426124197</v>
+        <v>0.645569620253165</v>
       </c>
       <c r="K117">
-        <v>0.524066447537473</v>
+        <v>0.574201860759494</v>
       </c>
       <c r="L117">
-        <v>0.492505353319058</v>
+        <v>0.607594936708861</v>
       </c>
       <c r="M117">
-        <v>0.404710920770878</v>
+        <v>0.506329113924051</v>
       </c>
       <c r="N117">
-        <v>3.86885384896436</v>
+        <v>3.64151778468161</v>
       </c>
       <c r="O117">
-        <v>467</v>
+        <v>79</v>
       </c>
     </row>
     <row r="118" spans="1:15">
@@ -6811,31 +6811,31 @@
         <v>195</v>
       </c>
       <c r="G118">
-        <v>0.68275891660968</v>
+        <v>0.725891472699444</v>
       </c>
       <c r="H118">
-        <v>0.629722921914358</v>
+        <v>0.717171717171717</v>
       </c>
       <c r="I118">
-        <v>0.554156171284635</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="J118">
-        <v>0.948362720403023</v>
+        <v>0.94949494949495</v>
       </c>
       <c r="K118">
-        <v>0.676023638844023</v>
+        <v>0.723746558559066</v>
       </c>
       <c r="L118">
-        <v>0.624685138539043</v>
+        <v>0.717171717171717</v>
       </c>
       <c r="M118">
-        <v>0.550377833753149</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="N118">
-        <v>5.26257053419506</v>
+        <v>4.17302838105533</v>
       </c>
       <c r="O118">
-        <v>794</v>
+        <v>99</v>
       </c>
     </row>
     <row r="119" spans="1:15">
@@ -6858,31 +6858,31 @@
         <v>196</v>
       </c>
       <c r="G119">
-        <v>0.217658919206947</v>
+        <v>0.165745175149446</v>
       </c>
       <c r="H119">
-        <v>0.133468149646107</v>
+        <v>0.03</v>
       </c>
       <c r="I119">
-        <v>0.038422649140546</v>
+        <v>0</v>
       </c>
       <c r="J119">
-        <v>0.764408493427705</v>
+        <v>0.86</v>
       </c>
       <c r="K119">
-        <v>0.168691323915684</v>
+        <v>0.142275718360826</v>
       </c>
       <c r="L119">
-        <v>0.0859453993933266</v>
+        <v>0.01</v>
       </c>
       <c r="M119">
-        <v>0.0353892821031345</v>
+        <v>0</v>
       </c>
       <c r="N119">
-        <v>6.42050008539541</v>
+        <v>4.57474331406078</v>
       </c>
       <c r="O119">
-        <v>989</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120" spans="1:15">
@@ -6905,31 +6905,31 @@
         <v>197</v>
       </c>
       <c r="G120">
-        <v>0.173233623546028</v>
+        <v>0.144737980063163</v>
       </c>
       <c r="H120">
-        <v>0.0483870967741935</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>0.0423387096774194</v>
+        <v>0</v>
       </c>
       <c r="J120">
-        <v>0.888104838709677</v>
+        <v>0.93</v>
       </c>
       <c r="K120">
-        <v>0.160579892921311</v>
+        <v>0.141497456668718</v>
       </c>
       <c r="L120">
-        <v>0.0473790322580645</v>
+        <v>0</v>
       </c>
       <c r="M120">
-        <v>0.0413306451612903</v>
+        <v>0</v>
       </c>
       <c r="N120">
-        <v>5.40670800742727</v>
+        <v>3.35421192792486</v>
       </c>
       <c r="O120">
-        <v>992</v>
+        <v>100</v>
       </c>
     </row>
     <row r="121" spans="1:15">
@@ -6952,31 +6952,31 @@
         <v>198</v>
       </c>
       <c r="G121">
-        <v>0.702708915792758</v>
+        <v>0.768737394399133</v>
       </c>
       <c r="H121">
-        <v>0.6841046277666</v>
+        <v>0.76</v>
       </c>
       <c r="I121">
-        <v>0.647887323943662</v>
+        <v>0.76</v>
       </c>
       <c r="J121">
-        <v>0.79476861167002</v>
+        <v>0.79</v>
       </c>
       <c r="K121">
-        <v>0.67634687098767</v>
+        <v>0.73198768656</v>
       </c>
       <c r="L121">
-        <v>0.669014084507042</v>
+        <v>0.73</v>
       </c>
       <c r="M121">
-        <v>0.633802816901408</v>
+        <v>0.73</v>
       </c>
       <c r="N121">
-        <v>3.73590090775589</v>
+        <v>2.45188003464093</v>
       </c>
       <c r="O121">
-        <v>994</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122" spans="1:15">
@@ -6999,31 +6999,31 @@
         <v>199</v>
       </c>
       <c r="G122">
-        <v>0.463456107612409</v>
+        <v>0.473913658989691</v>
       </c>
       <c r="H122">
-        <v>0.491666666666667</v>
+        <v>0.515463917525773</v>
       </c>
       <c r="I122">
-        <v>0.147916666666667</v>
+        <v>0.103092783505155</v>
       </c>
       <c r="J122">
-        <v>0.965625</v>
+        <v>1</v>
       </c>
       <c r="K122">
-        <v>0.461608840679102</v>
+        <v>0.473913658989691</v>
       </c>
       <c r="L122">
-        <v>0.491666666666667</v>
+        <v>0.515463917525773</v>
       </c>
       <c r="M122">
-        <v>0.147916666666667</v>
+        <v>0.103092783505155</v>
       </c>
       <c r="N122">
-        <v>4.40497897465158</v>
+        <v>2.91568435605371</v>
       </c>
       <c r="O122">
-        <v>960</v>
+        <v>97</v>
       </c>
     </row>
     <row r="123" spans="1:15">
@@ -7046,31 +7046,31 @@
         <v>200</v>
       </c>
       <c r="G123">
-        <v>0.567851148599597</v>
+        <v>0.51199310364</v>
       </c>
       <c r="H123">
-        <v>0.484143763213531</v>
+        <v>0.42</v>
       </c>
       <c r="I123">
-        <v>0.293868921775899</v>
+        <v>0.27</v>
       </c>
       <c r="J123">
-        <v>0.966173361522199</v>
+        <v>0.98</v>
       </c>
       <c r="K123">
-        <v>0.559114728442394</v>
+        <v>0.49707310364</v>
       </c>
       <c r="L123">
-        <v>0.478858350951374</v>
+        <v>0.41</v>
       </c>
       <c r="M123">
-        <v>0.288583509513742</v>
+        <v>0.26</v>
       </c>
       <c r="N123">
-        <v>5.16145923937754</v>
+        <v>3.88569996742263</v>
       </c>
       <c r="O123">
-        <v>946</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124" spans="1:15">
@@ -7093,31 +7093,31 @@
         <v>201</v>
       </c>
       <c r="G124">
-        <v>0.925648938399357</v>
+        <v>0.942321714285714</v>
       </c>
       <c r="H124">
-        <v>0.91541755888651</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I124">
-        <v>0.881156316916488</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="J124">
-        <v>0.987152034261242</v>
+        <v>0.989795918367347</v>
       </c>
       <c r="K124">
-        <v>0.915757075444325</v>
+        <v>0.940321714285714</v>
       </c>
       <c r="L124">
-        <v>0.903640256959315</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="M124">
-        <v>0.874732334047109</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="N124">
-        <v>2.75041716143028</v>
+        <v>1.65416003391818</v>
       </c>
       <c r="O124">
-        <v>934</v>
+        <v>98</v>
       </c>
     </row>
     <row r="125" spans="1:15">
@@ -7140,31 +7140,31 @@
         <v>202</v>
       </c>
       <c r="G125">
-        <v>0.958746871775277</v>
+        <v>0.976280268817204</v>
       </c>
       <c r="H125">
-        <v>0.97008547008547</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="I125">
-        <v>0.909188034188034</v>
+        <v>0.935483870967742</v>
       </c>
       <c r="J125">
-        <v>0.97008547008547</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="K125">
-        <v>0.936971679100427</v>
+        <v>0.965527580645161</v>
       </c>
       <c r="L125">
-        <v>0.949786324786325</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="M125">
-        <v>0.892094017094017</v>
+        <v>0.924731182795699</v>
       </c>
       <c r="N125">
-        <v>1.87539654938328</v>
+        <v>0.957268500730921</v>
       </c>
       <c r="O125">
-        <v>936</v>
+        <v>93</v>
       </c>
     </row>
     <row r="126" spans="1:15">
@@ -7187,31 +7187,31 @@
         <v>269</v>
       </c>
       <c r="G126">
-        <v>0.927720303323831</v>
+        <v>0.985347150537634</v>
       </c>
       <c r="H126">
-        <v>0.931744312026002</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="I126">
-        <v>0.866738894907909</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="J126">
-        <v>0.985915492957746</v>
+        <v>1</v>
       </c>
       <c r="K126">
-        <v>0.921868827786565</v>
+        <v>0.985347150537634</v>
       </c>
       <c r="L126">
-        <v>0.927410617551463</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="M126">
-        <v>0.862405200433369</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="N126">
-        <v>2.45245012822325</v>
+        <v>0.99977748931331</v>
       </c>
       <c r="O126">
-        <v>923</v>
+        <v>93</v>
       </c>
     </row>
     <row r="127" spans="1:15">
@@ -7234,31 +7234,31 @@
         <v>270</v>
       </c>
       <c r="G127">
-        <v>0.802657241004593</v>
+        <v>0.814364101010101</v>
       </c>
       <c r="H127">
-        <v>0.775051124744376</v>
+        <v>0.787878787878788</v>
       </c>
       <c r="I127">
-        <v>0.75357873210634</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="J127">
-        <v>0.979550102249489</v>
+        <v>1</v>
       </c>
       <c r="K127">
-        <v>0.80142176596818</v>
+        <v>0.814364101010101</v>
       </c>
       <c r="L127">
-        <v>0.775051124744376</v>
+        <v>0.787878787878788</v>
       </c>
       <c r="M127">
-        <v>0.75357873210634</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="N127">
-        <v>3.02303324273588</v>
+        <v>1.61666788972057</v>
       </c>
       <c r="O127">
-        <v>978</v>
+        <v>99</v>
       </c>
     </row>
     <row r="128" spans="1:15">
@@ -7281,31 +7281,31 @@
         <v>271</v>
       </c>
       <c r="G128">
-        <v>0.281985983631559</v>
+        <v>0.374982746333088</v>
       </c>
       <c r="H128">
-        <v>0.215943491422805</v>
+        <v>0.37</v>
       </c>
       <c r="I128">
-        <v>0.0221997981836529</v>
+        <v>0.07</v>
       </c>
       <c r="J128">
-        <v>0.852674066599395</v>
+        <v>0.87</v>
       </c>
       <c r="K128">
-        <v>0.271960590374003</v>
+        <v>0.3540911536</v>
       </c>
       <c r="L128">
-        <v>0.215943491422805</v>
+        <v>0.37</v>
       </c>
       <c r="M128">
-        <v>0.0221997981836529</v>
+        <v>0.07</v>
       </c>
       <c r="N128">
-        <v>4.44127438977204</v>
+        <v>3.31046829893867</v>
       </c>
       <c r="O128">
-        <v>991</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129" spans="1:15">
@@ -7328,7 +7328,7 @@
         <v>272</v>
       </c>
       <c r="G129">
-        <v>0.0622738353642195</v>
+        <v>0.0762811068614808</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -7337,10 +7337,10 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>0.747464503042596</v>
+        <v>0.797979797979798</v>
       </c>
       <c r="K129">
-        <v>0.0592745516471586</v>
+        <v>0.0735587434637879</v>
       </c>
       <c r="L129">
         <v>0</v>
@@ -7349,10 +7349,10 @@
         <v>0</v>
       </c>
       <c r="N129">
-        <v>6.29586277068095</v>
+        <v>4.39822846951675</v>
       </c>
       <c r="O129">
-        <v>986</v>
+        <v>99</v>
       </c>
     </row>
     <row r="130" spans="1:15">
@@ -7375,7 +7375,7 @@
         <v>273</v>
       </c>
       <c r="G130">
-        <v>0.0332201840670581</v>
+        <v>0.0315252323230919</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -7384,10 +7384,10 @@
         <v>0</v>
       </c>
       <c r="J130">
-        <v>0.302605210420842</v>
+        <v>0.07</v>
       </c>
       <c r="K130">
-        <v>0.0123246577319008</v>
+        <v>0.00273581120150415</v>
       </c>
       <c r="L130">
         <v>0</v>
@@ -7396,10 +7396,10 @@
         <v>0</v>
       </c>
       <c r="N130">
-        <v>3.95477450010343</v>
+        <v>0.756909740308999</v>
       </c>
       <c r="O130">
-        <v>998</v>
+        <v>100</v>
       </c>
     </row>
     <row r="131" spans="1:15">
@@ -7422,31 +7422,31 @@
         <v>261</v>
       </c>
       <c r="G131">
-        <v>0.871317936999999</v>
+        <v>0.70858412</v>
       </c>
       <c r="H131">
-        <v>0.83</v>
+        <v>0.64</v>
       </c>
       <c r="I131">
-        <v>0.8</v>
+        <v>0.59</v>
       </c>
       <c r="J131">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="K131">
-        <v>0.863334936999999</v>
+        <v>0.70858412</v>
       </c>
       <c r="L131">
-        <v>0.823</v>
+        <v>0.64</v>
       </c>
       <c r="M131">
-        <v>0.793</v>
+        <v>0.59</v>
       </c>
       <c r="N131">
-        <v>2.09269315269052</v>
+        <v>2.06804654984921</v>
       </c>
       <c r="O131">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="132" spans="1:15">
@@ -7469,31 +7469,31 @@
         <v>274</v>
       </c>
       <c r="G132">
-        <v>0.435536896694134</v>
+        <v>0.165216247488976</v>
       </c>
       <c r="H132">
-        <v>0.272</v>
+        <v>0.04</v>
       </c>
       <c r="I132">
-        <v>0.208</v>
+        <v>0.03</v>
       </c>
       <c r="J132">
-        <v>0.949</v>
+        <v>0.85</v>
       </c>
       <c r="K132">
-        <v>0.431332291569726</v>
+        <v>0.158865310728997</v>
       </c>
       <c r="L132">
-        <v>0.27</v>
+        <v>0.04</v>
       </c>
       <c r="M132">
-        <v>0.206</v>
+        <v>0.03</v>
       </c>
       <c r="N132">
-        <v>5.34511899152963</v>
+        <v>4.26814373132616</v>
       </c>
       <c r="O132">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="133" spans="1:15">
@@ -7516,31 +7516,31 @@
         <v>275</v>
       </c>
       <c r="G133">
-        <v>0.448183395770162</v>
+        <v>0.0911005246942363</v>
       </c>
       <c r="H133">
-        <v>0.443887775551102</v>
+        <v>0.08</v>
       </c>
       <c r="I133">
-        <v>0.416833667334669</v>
+        <v>0.08</v>
       </c>
       <c r="J133">
-        <v>0.357715430861723</v>
+        <v>0.08</v>
       </c>
       <c r="K133">
-        <v>0.332814157649871</v>
+        <v>0.08</v>
       </c>
       <c r="L133">
-        <v>0.336673346693387</v>
+        <v>0.08</v>
       </c>
       <c r="M133">
-        <v>0.313627254509018</v>
+        <v>0.08</v>
       </c>
       <c r="N133">
-        <v>5.11614261701485</v>
+        <v>4.31411631649308</v>
       </c>
       <c r="O133">
-        <v>998</v>
+        <v>100</v>
       </c>
     </row>
     <row r="134" spans="1:15">
@@ -7563,31 +7563,31 @@
         <v>276</v>
       </c>
       <c r="G134">
-        <v>0.538414615719429</v>
+        <v>0.569884901158604</v>
       </c>
       <c r="H134">
-        <v>0.406406406406406</v>
+        <v>0.43</v>
       </c>
       <c r="I134">
-        <v>0.395395395395395</v>
+        <v>0.42</v>
       </c>
       <c r="J134">
-        <v>0.277277277277277</v>
+        <v>0.14</v>
       </c>
       <c r="K134">
-        <v>0.101953938820901</v>
+        <v>0.07718547</v>
       </c>
       <c r="L134">
-        <v>0.0630630630630631</v>
+        <v>0.06</v>
       </c>
       <c r="M134">
-        <v>0.0530530530530531</v>
+        <v>0.05</v>
       </c>
       <c r="N134">
-        <v>5.31389404886682</v>
+        <v>3.3923585424752</v>
       </c>
       <c r="O134">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="135" spans="1:15">
@@ -7610,31 +7610,31 @@
         <v>277</v>
       </c>
       <c r="G135">
-        <v>0.0948139851935225</v>
+        <v>0.0496456838255426</v>
       </c>
       <c r="H135">
-        <v>0.0291164658634538</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>0.0210843373493976</v>
+        <v>0</v>
       </c>
       <c r="J135">
-        <v>0.0833333333333333</v>
+        <v>0.01</v>
       </c>
       <c r="K135">
-        <v>0.0219481638810583</v>
+        <v>0.000220022921301183</v>
       </c>
       <c r="L135">
-        <v>0.0120481927710843</v>
+        <v>0</v>
       </c>
       <c r="M135">
-        <v>0.0100401606425703</v>
+        <v>0</v>
       </c>
       <c r="N135">
-        <v>7.11862825121897</v>
+        <v>4.9008718934921</v>
       </c>
       <c r="O135">
-        <v>996</v>
+        <v>100</v>
       </c>
     </row>
     <row r="136" spans="1:15">
@@ -7657,31 +7657,31 @@
         <v>278</v>
       </c>
       <c r="G136">
-        <v>0.532146389296116</v>
+        <v>0.654692918268799</v>
       </c>
       <c r="H136">
-        <v>0.726</v>
+        <v>0.91</v>
       </c>
       <c r="I136">
-        <v>0.117</v>
+        <v>0.25</v>
       </c>
       <c r="J136">
-        <v>0.972</v>
+        <v>0.97</v>
       </c>
       <c r="K136">
-        <v>0.514586836346116</v>
+        <v>0.640437576768799</v>
       </c>
       <c r="L136">
-        <v>0.702</v>
+        <v>0.89</v>
       </c>
       <c r="M136">
-        <v>0.108</v>
+        <v>0.25</v>
       </c>
       <c r="N136">
-        <v>4.65673576213949</v>
+        <v>4.13637444864144</v>
       </c>
       <c r="O136">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="137" spans="1:15">
@@ -7704,31 +7704,31 @@
         <v>279</v>
       </c>
       <c r="G137">
-        <v>0.474443560437121</v>
+        <v>0.578449344742268</v>
       </c>
       <c r="H137">
-        <v>0.285565939771547</v>
+        <v>0.381443298969072</v>
       </c>
       <c r="I137">
-        <v>0.272066458982347</v>
+        <v>0.371134020618557</v>
       </c>
       <c r="J137">
-        <v>0.933541017653167</v>
+        <v>1</v>
       </c>
       <c r="K137">
-        <v>0.468332373759138</v>
+        <v>0.578449344742268</v>
       </c>
       <c r="L137">
-        <v>0.285565939771547</v>
+        <v>0.381443298969072</v>
       </c>
       <c r="M137">
-        <v>0.272066458982347</v>
+        <v>0.371134020618557</v>
       </c>
       <c r="N137">
-        <v>4.29888047215039</v>
+        <v>2.91568435605371</v>
       </c>
       <c r="O137">
-        <v>963</v>
+        <v>97</v>
       </c>
     </row>
     <row r="138" spans="1:15">
@@ -7751,31 +7751,31 @@
         <v>182</v>
       </c>
       <c r="G138">
-        <v>0.847132042743539</v>
+        <v>0.85776704</v>
       </c>
       <c r="H138">
-        <v>0.836</v>
+        <v>0.84</v>
       </c>
       <c r="I138">
-        <v>0.809</v>
+        <v>0.83</v>
       </c>
       <c r="J138">
-        <v>0.965</v>
+        <v>0.98</v>
       </c>
       <c r="K138">
-        <v>0.818691888188002</v>
+        <v>0.85504852</v>
       </c>
       <c r="L138">
-        <v>0.806</v>
+        <v>0.84</v>
       </c>
       <c r="M138">
-        <v>0.779</v>
+        <v>0.83</v>
       </c>
       <c r="N138">
-        <v>2.28598639051996</v>
+        <v>1.41367389862828</v>
       </c>
       <c r="O138">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="139" spans="1:15">
@@ -7798,31 +7798,31 @@
         <v>280</v>
       </c>
       <c r="G139">
-        <v>0.697652269999997</v>
+        <v>0.883150000000001</v>
       </c>
       <c r="H139">
-        <v>0.51</v>
+        <v>0.81</v>
       </c>
       <c r="I139">
-        <v>0.51</v>
+        <v>0.81</v>
       </c>
       <c r="J139">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="K139">
-        <v>0.696652269999997</v>
+        <v>0.883150000000001</v>
       </c>
       <c r="L139">
-        <v>0.509</v>
+        <v>0.81</v>
       </c>
       <c r="M139">
-        <v>0.509</v>
+        <v>0.81</v>
       </c>
       <c r="N139">
-        <v>1.54211637292486</v>
+        <v>0.779207486310554</v>
       </c>
       <c r="O139">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="140" spans="1:15">
@@ -7845,31 +7845,31 @@
         <v>268</v>
       </c>
       <c r="G140">
-        <v>0.614408880245938</v>
+        <v>0.560398522003313</v>
       </c>
       <c r="H140">
-        <v>0.687687687687688</v>
+        <v>0.676767676767677</v>
       </c>
       <c r="I140">
-        <v>0.206206206206206</v>
+        <v>0.161616161616162</v>
       </c>
       <c r="J140">
-        <v>0.917917917917918</v>
+        <v>0.878787878787879</v>
       </c>
       <c r="K140">
-        <v>0.55671902321891</v>
+        <v>0.487320847316444</v>
       </c>
       <c r="L140">
-        <v>0.614614614614615</v>
+        <v>0.565656565656566</v>
       </c>
       <c r="M140">
-        <v>0.186186186186186</v>
+        <v>0.161616161616162</v>
       </c>
       <c r="N140">
-        <v>4.75025253750041</v>
+        <v>3.9043367109321</v>
       </c>
       <c r="O140">
-        <v>999</v>
+        <v>99</v>
       </c>
     </row>
     <row r="141" spans="1:15">
@@ -7892,31 +7892,31 @@
         <v>281</v>
       </c>
       <c r="G141">
-        <v>0.837535993658632</v>
+        <v>0.839529376812504</v>
       </c>
       <c r="H141">
-        <v>0.8</v>
+        <v>0.804347826086957</v>
       </c>
       <c r="I141">
-        <v>0.752066115702479</v>
+        <v>0.728260869565217</v>
       </c>
       <c r="J141">
-        <v>0.978512396694215</v>
+        <v>0.989130434782609</v>
       </c>
       <c r="K141">
-        <v>0.831925407786083</v>
+        <v>0.839372610434783</v>
       </c>
       <c r="L141">
-        <v>0.79504132231405</v>
+        <v>0.804347826086957</v>
       </c>
       <c r="M141">
-        <v>0.748760330578512</v>
+        <v>0.728260869565217</v>
       </c>
       <c r="N141">
-        <v>2.71211745502357</v>
+        <v>2.48655724338248</v>
       </c>
       <c r="O141">
-        <v>605</v>
+        <v>92</v>
       </c>
     </row>
     <row r="142" spans="1:15">
@@ -7939,31 +7939,31 @@
         <v>282</v>
       </c>
       <c r="G142">
-        <v>0.769844614554174</v>
+        <v>0.665670818163265</v>
       </c>
       <c r="H142">
-        <v>0.856281407035176</v>
+        <v>0.73469387755102</v>
       </c>
       <c r="I142">
-        <v>0.533668341708543</v>
+        <v>0.346938775510204</v>
       </c>
       <c r="J142">
-        <v>0.984924623115578</v>
+        <v>0.86734693877551</v>
       </c>
       <c r="K142">
-        <v>0.758592353247642</v>
+        <v>0.571834083469388</v>
       </c>
       <c r="L142">
-        <v>0.841206030150754</v>
+        <v>0.602040816326531</v>
       </c>
       <c r="M142">
-        <v>0.530653266331658</v>
+        <v>0.336734693877551</v>
       </c>
       <c r="N142">
-        <v>4.11176679203063</v>
+        <v>3.9547348796657</v>
       </c>
       <c r="O142">
-        <v>995</v>
+        <v>98</v>
       </c>
     </row>
     <row r="143" spans="1:15">
@@ -7986,31 +7986,31 @@
         <v>283</v>
       </c>
       <c r="G143">
-        <v>0.774280989599995</v>
+        <v>0.57374965</v>
       </c>
       <c r="H143">
-        <v>0.658</v>
+        <v>0.37</v>
       </c>
       <c r="I143">
-        <v>0.64</v>
+        <v>0.35</v>
       </c>
       <c r="J143">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="K143">
-        <v>0.772899407599995</v>
+        <v>0.57374965</v>
       </c>
       <c r="L143">
-        <v>0.657</v>
+        <v>0.37</v>
       </c>
       <c r="M143">
-        <v>0.639</v>
+        <v>0.35</v>
       </c>
       <c r="N143">
-        <v>2.57031070441884</v>
+        <v>2.55704175012088</v>
       </c>
       <c r="O143">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="144" spans="1:15">
@@ -8033,31 +8033,31 @@
         <v>284</v>
       </c>
       <c r="G144">
-        <v>0.587403139883128</v>
+        <v>0.5827175352</v>
       </c>
       <c r="H144">
-        <v>0.487975951903808</v>
+        <v>0.54</v>
       </c>
       <c r="I144">
-        <v>0.353707414829659</v>
+        <v>0.29</v>
       </c>
       <c r="J144">
-        <v>0.932865731462926</v>
+        <v>1</v>
       </c>
       <c r="K144">
-        <v>0.577600860689512</v>
+        <v>0.5827175352</v>
       </c>
       <c r="L144">
-        <v>0.48496993987976</v>
+        <v>0.54</v>
       </c>
       <c r="M144">
-        <v>0.350701402805611</v>
+        <v>0.29</v>
       </c>
       <c r="N144">
-        <v>3.91074078983519</v>
+        <v>2.93726935057743</v>
       </c>
       <c r="O144">
-        <v>998</v>
+        <v>100</v>
       </c>
     </row>
     <row r="145" spans="1:15">
@@ -8080,31 +8080,31 @@
         <v>285</v>
       </c>
       <c r="G145">
-        <v>0.896420630399251</v>
+        <v>0.91080824</v>
       </c>
       <c r="H145">
-        <v>0.894894894894895</v>
+        <v>0.88</v>
       </c>
       <c r="I145">
-        <v>0.810810810810811</v>
+        <v>0.87</v>
       </c>
       <c r="J145">
-        <v>0.966966966966967</v>
+        <v>0.99</v>
       </c>
       <c r="K145">
-        <v>0.868110084853705</v>
+        <v>0.90770234</v>
       </c>
       <c r="L145">
-        <v>0.866866866866867</v>
+        <v>0.88</v>
       </c>
       <c r="M145">
-        <v>0.785785785785786</v>
+        <v>0.87</v>
       </c>
       <c r="N145">
-        <v>3.13156674994157</v>
+        <v>1.61507622475497</v>
       </c>
       <c r="O145">
-        <v>999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="146" spans="1:15">
@@ -8127,31 +8127,31 @@
         <v>286</v>
       </c>
       <c r="G146">
-        <v>0.81637848791568</v>
+        <v>0.886256084210526</v>
       </c>
       <c r="H146">
-        <v>0.791836734693877</v>
+        <v>0.863157894736842</v>
       </c>
       <c r="I146">
-        <v>0.743877551020408</v>
+        <v>0.831578947368421</v>
       </c>
       <c r="J146">
-        <v>0.946938775510204</v>
+        <v>0.968421052631579</v>
       </c>
       <c r="K146">
-        <v>0.780871098855878</v>
+        <v>0.854677136842105</v>
       </c>
       <c r="L146">
-        <v>0.757142857142857</v>
+        <v>0.831578947368421</v>
       </c>
       <c r="M146">
-        <v>0.712244897959184</v>
+        <v>0.8</v>
       </c>
       <c r="N146">
-        <v>2.99630711606097</v>
+        <v>2.48875843973146</v>
       </c>
       <c r="O146">
-        <v>980</v>
+        <v>95</v>
       </c>
     </row>
     <row r="147" spans="1:15">
@@ -8174,31 +8174,31 @@
         <v>181</v>
       </c>
       <c r="G147">
-        <v>0.744456599614546</v>
+        <v>0.903902205375612</v>
       </c>
       <c r="H147">
-        <v>0.761658031088083</v>
+        <v>0.89010989010989</v>
       </c>
       <c r="I147">
-        <v>0.634715025906736</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="J147">
-        <v>0.981865284974093</v>
+        <v>0.989010989010989</v>
       </c>
       <c r="K147">
-        <v>0.742035293465984</v>
+        <v>0.903330590372417</v>
       </c>
       <c r="L147">
-        <v>0.759067357512953</v>
+        <v>0.89010989010989</v>
       </c>
       <c r="M147">
-        <v>0.634715025906736</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="N147">
-        <v>3.74626818958162</v>
+        <v>3.24860919756886</v>
       </c>
       <c r="O147">
-        <v>386</v>
+        <v>91</v>
       </c>
     </row>
     <row r="148" spans="1:15">
@@ -8221,31 +8221,31 @@
         <v>287</v>
       </c>
       <c r="G148">
-        <v>0.0530863355963334</v>
+        <v>0.0632495058271474</v>
       </c>
       <c r="H148">
-        <v>0.00204081632653061</v>
+        <v>0.0105263157894737</v>
       </c>
       <c r="I148">
-        <v>0.00204081632653061</v>
+        <v>0.0105263157894737</v>
       </c>
       <c r="J148">
-        <v>0.814285714285714</v>
+        <v>0.852631578947368</v>
       </c>
       <c r="K148">
-        <v>0.0479420643918008</v>
+        <v>0.0593104240885777</v>
       </c>
       <c r="L148">
-        <v>0.00204081632653061</v>
+        <v>0.0105263157894737</v>
       </c>
       <c r="M148">
-        <v>0.00204081632653061</v>
+        <v>0.0105263157894737</v>
       </c>
       <c r="N148">
-        <v>5.34758635018869</v>
+        <v>4.12314659177331</v>
       </c>
       <c r="O148">
-        <v>980</v>
+        <v>95</v>
       </c>
     </row>
     <row r="149" spans="1:15">
@@ -8268,31 +8268,31 @@
         <v>254</v>
       </c>
       <c r="G149">
-        <v>0.346153276423056</v>
+        <v>0.48026976834864</v>
       </c>
       <c r="H149">
-        <v>0.265388496468214</v>
+        <v>0.414141414141414</v>
       </c>
       <c r="I149">
-        <v>0.265388496468214</v>
+        <v>0.414141414141414</v>
       </c>
       <c r="J149">
-        <v>0.397578203834511</v>
+        <v>0.505050505050505</v>
       </c>
       <c r="K149">
-        <v>0.266570327492069</v>
+        <v>0.369685338181818</v>
       </c>
       <c r="L149">
-        <v>0.247225025227043</v>
+        <v>0.353535353535354</v>
       </c>
       <c r="M149">
-        <v>0.247225025227043</v>
+        <v>0.353535353535354</v>
       </c>
       <c r="N149">
-        <v>5.92545969630295</v>
+        <v>4.32159351100563</v>
       </c>
       <c r="O149">
-        <v>991</v>
+        <v>99</v>
       </c>
     </row>
     <row r="150" spans="1:15">
@@ -8315,31 +8315,31 @@
         <v>288</v>
       </c>
       <c r="G150">
-        <v>0.402123605838445</v>
+        <v>0.483196880183449</v>
       </c>
       <c r="H150">
-        <v>0.194556451612903</v>
+        <v>0.27</v>
       </c>
       <c r="I150">
-        <v>0.149193548387097</v>
+        <v>0.26</v>
       </c>
       <c r="J150">
-        <v>0.894153225806452</v>
+        <v>0.97</v>
       </c>
       <c r="K150">
-        <v>0.367932159562861</v>
+        <v>0.47248677758128</v>
       </c>
       <c r="L150">
-        <v>0.176411290322581</v>
+        <v>0.26</v>
       </c>
       <c r="M150">
-        <v>0.13508064516129</v>
+        <v>0.25</v>
       </c>
       <c r="N150">
-        <v>5.40870800742727</v>
+        <v>3.29421192792486</v>
       </c>
       <c r="O150">
-        <v>992</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151" spans="1:15">
@@ -8362,31 +8362,31 @@
         <v>289</v>
       </c>
       <c r="G151">
-        <v>0.702708915792758</v>
+        <v>0.768737394399133</v>
       </c>
       <c r="H151">
-        <v>0.6841046277666</v>
+        <v>0.76</v>
       </c>
       <c r="I151">
-        <v>0.647887323943662</v>
+        <v>0.76</v>
       </c>
       <c r="J151">
-        <v>0.79476861167002</v>
+        <v>0.79</v>
       </c>
       <c r="K151">
-        <v>0.67634687098767</v>
+        <v>0.73198768656</v>
       </c>
       <c r="L151">
-        <v>0.669014084507042</v>
+        <v>0.73</v>
       </c>
       <c r="M151">
-        <v>0.633802816901408</v>
+        <v>0.73</v>
       </c>
       <c r="N151">
-        <v>3.73590090775589</v>
+        <v>2.45188003464093</v>
       </c>
       <c r="O151">
-        <v>994</v>
+        <v>100</v>
       </c>
     </row>
     <row r="152" spans="1:15">
@@ -8409,31 +8409,31 @@
         <v>290</v>
       </c>
       <c r="G152">
-        <v>0.36573711099215</v>
+        <v>0.421830340876454</v>
       </c>
       <c r="H152">
-        <v>0.221052631578947</v>
+        <v>0.29</v>
       </c>
       <c r="I152">
-        <v>0.215789473684211</v>
+        <v>0.29</v>
       </c>
       <c r="J152">
-        <v>0.902105263157895</v>
+        <v>0.9</v>
       </c>
       <c r="K152">
-        <v>0.352695987130609</v>
+        <v>0.40642751548</v>
       </c>
       <c r="L152">
-        <v>0.221052631578947</v>
+        <v>0.29</v>
       </c>
       <c r="M152">
-        <v>0.215789473684211</v>
+        <v>0.29</v>
       </c>
       <c r="N152">
-        <v>5.21141445653855</v>
+        <v>3.96569996742263</v>
       </c>
       <c r="O152">
-        <v>950</v>
+        <v>100</v>
       </c>
     </row>
     <row r="153" spans="1:15">
@@ -8456,31 +8456,31 @@
         <v>291</v>
       </c>
       <c r="G153">
-        <v>0.958746871775277</v>
+        <v>0.976280268817204</v>
       </c>
       <c r="H153">
-        <v>0.97008547008547</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="I153">
-        <v>0.909188034188034</v>
+        <v>0.935483870967742</v>
       </c>
       <c r="J153">
-        <v>0.97008547008547</v>
+        <v>0.989247311827957</v>
       </c>
       <c r="K153">
-        <v>0.936971679100427</v>
+        <v>0.965527580645161</v>
       </c>
       <c r="L153">
-        <v>0.949786324786325</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="M153">
-        <v>0.892094017094017</v>
+        <v>0.924731182795699</v>
       </c>
       <c r="N153">
-        <v>1.87539654938328</v>
+        <v>0.957268500730921</v>
       </c>
       <c r="O153">
-        <v>936</v>
+        <v>93</v>
       </c>
     </row>
     <row r="154" spans="1:15">
@@ -8503,31 +8503,31 @@
         <v>292</v>
       </c>
       <c r="G154">
-        <v>0.570473753907589</v>
+        <v>0.713089680851064</v>
       </c>
       <c r="H154">
-        <v>0.445617740232313</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="I154">
-        <v>0.355860612460401</v>
+        <v>0.563829787234043</v>
       </c>
       <c r="J154">
-        <v>0.983104540654699</v>
+        <v>1</v>
       </c>
       <c r="K154">
-        <v>0.569057213861035</v>
+        <v>0.713089680851064</v>
       </c>
       <c r="L154">
-        <v>0.445617740232313</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="M154">
-        <v>0.355860612460401</v>
+        <v>0.563829787234043</v>
       </c>
       <c r="N154">
-        <v>3.85843389549324</v>
+        <v>2.14914097322882</v>
       </c>
       <c r="O154">
-        <v>947</v>
+        <v>94</v>
       </c>
     </row>
     <row r="155" spans="1:15">
@@ -8550,19 +8550,19 @@
         <v>293</v>
       </c>
       <c r="G155">
-        <v>0.71401913539049</v>
+        <v>0.619647337460269</v>
       </c>
       <c r="H155">
-        <v>0.822097378277154</v>
+        <v>0.69</v>
       </c>
       <c r="I155">
-        <v>0.455056179775281</v>
+        <v>0.44</v>
       </c>
       <c r="J155">
-        <v>0.00187265917602996</v>
+        <v>0</v>
       </c>
       <c r="K155">
-        <v>8.52369182691034e-06</v>
+        <v>0</v>
       </c>
       <c r="L155">
         <v>0</v>
@@ -8571,10 +8571,10 @@
         <v>0</v>
       </c>
       <c r="N155">
-        <v>3.95185630427735</v>
+        <v>2.89394225565193</v>
       </c>
       <c r="O155">
-        <v>534</v>
+        <v>100</v>
       </c>
     </row>
     <row r="156" spans="1:15">
@@ -8597,31 +8597,31 @@
         <v>294</v>
       </c>
       <c r="G156">
-        <v>0.860804670428462</v>
+        <v>0.76489</v>
       </c>
       <c r="H156">
-        <v>0.832</v>
+        <v>0.6</v>
       </c>
       <c r="I156">
-        <v>0.777</v>
+        <v>0.58</v>
       </c>
       <c r="J156">
-        <v>0.997</v>
+        <v>1</v>
       </c>
       <c r="K156">
-        <v>0.859233623000002</v>
+        <v>0.76489</v>
       </c>
       <c r="L156">
-        <v>0.831</v>
+        <v>0.6</v>
       </c>
       <c r="M156">
-        <v>0.776</v>
+        <v>0.58</v>
       </c>
       <c r="N156">
-        <v>1.58232897147799</v>
+        <v>2.11410261188977</v>
       </c>
       <c r="O156">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="157" spans="1:15">
@@ -8644,31 +8644,31 @@
         <v>170</v>
       </c>
       <c r="G157">
-        <v>0.79851169449395</v>
+        <v>0.746405242424243</v>
       </c>
       <c r="H157">
-        <v>0.710499490316004</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="I157">
-        <v>0.705402650356779</v>
+        <v>0.606060606060606</v>
       </c>
       <c r="J157">
-        <v>0.979612640163099</v>
+        <v>0.98989898989899</v>
       </c>
       <c r="K157">
-        <v>0.793877500156792</v>
+        <v>0.736304232323232</v>
       </c>
       <c r="L157">
-        <v>0.707441386340469</v>
+        <v>0.595959595959596</v>
       </c>
       <c r="M157">
-        <v>0.702344546381244</v>
+        <v>0.595959595959596</v>
       </c>
       <c r="N157">
-        <v>2.41887578675913</v>
+        <v>2.15668984825046</v>
       </c>
       <c r="O157">
-        <v>981</v>
+        <v>99</v>
       </c>
     </row>
     <row r="158" spans="1:15">
@@ -8691,31 +8691,31 @@
         <v>295</v>
       </c>
       <c r="G158">
-        <v>0.817578663596019</v>
+        <v>0.761628872080429</v>
       </c>
       <c r="H158">
-        <v>0.747701736465781</v>
+        <v>0.64</v>
       </c>
       <c r="I158">
-        <v>0.740551583248212</v>
+        <v>0.64</v>
       </c>
       <c r="J158">
-        <v>0.987742594484168</v>
+        <v>0.98</v>
       </c>
       <c r="K158">
-        <v>0.815927098945864</v>
+        <v>0.75749312</v>
       </c>
       <c r="L158">
-        <v>0.746680286006129</v>
+        <v>0.64</v>
       </c>
       <c r="M158">
-        <v>0.73953013278856</v>
+        <v>0.64</v>
       </c>
       <c r="N158">
-        <v>2.18285215667874</v>
+        <v>1.67416003391818</v>
       </c>
       <c r="O158">
-        <v>979</v>
+        <v>100</v>
       </c>
     </row>
     <row r="159" spans="1:15">
@@ -8738,31 +8738,31 @@
         <v>296</v>
       </c>
       <c r="G159">
-        <v>0.640358957875356</v>
+        <v>0.632397626262626</v>
       </c>
       <c r="H159">
-        <v>0.502548419979613</v>
+        <v>0.484848484848485</v>
       </c>
       <c r="I159">
-        <v>0.476044852191641</v>
+        <v>0.464646464646465</v>
       </c>
       <c r="J159">
-        <v>0.962283384301733</v>
+        <v>0.98989898989899</v>
       </c>
       <c r="K159">
-        <v>0.625693805262001</v>
+        <v>0.628185505050504</v>
       </c>
       <c r="L159">
-        <v>0.491335372069317</v>
+        <v>0.484848484848485</v>
       </c>
       <c r="M159">
-        <v>0.465851172273191</v>
+        <v>0.464646464646465</v>
       </c>
       <c r="N159">
-        <v>2.69284136961132</v>
+        <v>2.18730015173056</v>
       </c>
       <c r="O159">
-        <v>981</v>
+        <v>99</v>
       </c>
     </row>
     <row r="160" spans="1:15">
@@ -8785,31 +8785,31 @@
         <v>257</v>
       </c>
       <c r="G160">
-        <v>0.924948518526618</v>
+        <v>0.954981262626263</v>
       </c>
       <c r="H160">
-        <v>0.926680244399185</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="I160">
-        <v>0.878818737270876</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="J160">
-        <v>0.991853360488798</v>
+        <v>1</v>
       </c>
       <c r="K160">
-        <v>0.920836241330528</v>
+        <v>0.954981262626263</v>
       </c>
       <c r="L160">
-        <v>0.922606924643585</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="M160">
-        <v>0.874745417515275</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="N160">
-        <v>1.22854380598013</v>
+        <v>0.494889620422621</v>
       </c>
       <c r="O160">
-        <v>982</v>
+        <v>99</v>
       </c>
     </row>
     <row r="161" spans="1:15">
@@ -8832,31 +8832,31 @@
         <v>297</v>
       </c>
       <c r="G161">
-        <v>0.819393833503171</v>
+        <v>0.876695788078527</v>
       </c>
       <c r="H161">
-        <v>0.822173435784852</v>
+        <v>0.873684210526316</v>
       </c>
       <c r="I161">
-        <v>0.783754116355653</v>
+        <v>0.852631578947368</v>
       </c>
       <c r="J161">
-        <v>0.986827661909989</v>
+        <v>0.989473684210526</v>
       </c>
       <c r="K161">
-        <v>0.814032815168853</v>
+        <v>0.866169472289053</v>
       </c>
       <c r="L161">
-        <v>0.816684961580681</v>
+        <v>0.863157894736842</v>
       </c>
       <c r="M161">
-        <v>0.778265642151482</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="N161">
-        <v>3.30245370786903</v>
+        <v>2.23759127386008</v>
       </c>
       <c r="O161">
-        <v>911</v>
+        <v>95</v>
       </c>
     </row>
     <row r="162" spans="1:15">
@@ -8879,31 +8879,31 @@
         <v>249</v>
       </c>
       <c r="G162">
-        <v>0.979751592</v>
+        <v>0.95659</v>
       </c>
       <c r="H162">
-        <v>0.977</v>
+        <v>0.98</v>
       </c>
       <c r="I162">
-        <v>0.964</v>
+        <v>0.91</v>
       </c>
       <c r="J162">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="K162">
-        <v>0.977751592</v>
+        <v>0.95659</v>
       </c>
       <c r="L162">
-        <v>0.975</v>
+        <v>0.98</v>
       </c>
       <c r="M162">
-        <v>0.962</v>
+        <v>0.91</v>
       </c>
       <c r="N162">
-        <v>1.04212058264285</v>
+        <v>0.941172095986552</v>
       </c>
       <c r="O162">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="163" spans="1:15">
@@ -8926,31 +8926,31 @@
         <v>250</v>
       </c>
       <c r="G163">
-        <v>0.84837686331</v>
+        <v>0.629983099999999</v>
       </c>
       <c r="H163">
-        <v>0.814</v>
+        <v>0.56</v>
       </c>
       <c r="I163">
-        <v>0.779</v>
+        <v>0.54</v>
       </c>
       <c r="J163">
-        <v>0.996</v>
+        <v>1</v>
       </c>
       <c r="K163">
-        <v>0.84461386331</v>
+        <v>0.629983099999999</v>
       </c>
       <c r="L163">
-        <v>0.81</v>
+        <v>0.56</v>
       </c>
       <c r="M163">
-        <v>0.775</v>
+        <v>0.54</v>
       </c>
       <c r="N163">
-        <v>2.09159551252022</v>
+        <v>1.58095429422159</v>
       </c>
       <c r="O163">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="164" spans="1:15">
@@ -8973,31 +8973,31 @@
         <v>298</v>
       </c>
       <c r="G164">
-        <v>0.917076999375999</v>
+        <v>0.96788</v>
       </c>
       <c r="H164">
-        <v>0.909</v>
+        <v>0.95</v>
       </c>
       <c r="I164">
-        <v>0.852</v>
+        <v>0.95</v>
       </c>
       <c r="J164">
-        <v>0.998</v>
+        <v>1</v>
       </c>
       <c r="K164">
-        <v>0.915076999375999</v>
+        <v>0.96788</v>
       </c>
       <c r="L164">
-        <v>0.907</v>
+        <v>0.95</v>
       </c>
       <c r="M164">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="N164">
-        <v>1.21119281643557</v>
+        <v>0.382493361860324</v>
       </c>
       <c r="O164">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="165" spans="1:15">
@@ -9020,31 +9020,31 @@
         <v>299</v>
       </c>
       <c r="G165">
-        <v>0.914575377154999</v>
+        <v>0.8379278604</v>
       </c>
       <c r="H165">
-        <v>0.876</v>
+        <v>0.75</v>
       </c>
       <c r="I165">
-        <v>0.869</v>
+        <v>0.75</v>
       </c>
       <c r="J165">
-        <v>0.844</v>
+        <v>0.98</v>
       </c>
       <c r="K165">
-        <v>0.796420890039999</v>
+        <v>0.8179278604</v>
       </c>
       <c r="L165">
-        <v>0.779</v>
+        <v>0.73</v>
       </c>
       <c r="M165">
-        <v>0.773</v>
+        <v>0.73</v>
       </c>
       <c r="N165">
-        <v>1.85530284267361</v>
+        <v>1.68295572625322</v>
       </c>
       <c r="O165">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="166" spans="1:15">
@@ -9067,31 +9067,31 @@
         <v>300</v>
       </c>
       <c r="G166">
-        <v>0.697652269999997</v>
+        <v>0.883150000000001</v>
       </c>
       <c r="H166">
-        <v>0.51</v>
+        <v>0.81</v>
       </c>
       <c r="I166">
-        <v>0.51</v>
+        <v>0.81</v>
       </c>
       <c r="J166">
-        <v>0.999</v>
+        <v>1</v>
       </c>
       <c r="K166">
-        <v>0.696652269999997</v>
+        <v>0.883150000000001</v>
       </c>
       <c r="L166">
-        <v>0.509</v>
+        <v>0.81</v>
       </c>
       <c r="M166">
-        <v>0.509</v>
+        <v>0.81</v>
       </c>
       <c r="N166">
-        <v>1.54211637292486</v>
+        <v>0.779207486310554</v>
       </c>
       <c r="O166">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="167" spans="1:15">
@@ -9123,10 +9123,10 @@
         <v>0</v>
       </c>
       <c r="J167">
-        <v>0.0535279805352798</v>
+        <v>0.24</v>
       </c>
       <c r="K167">
-        <v>8.95446715091966e-08</v>
+        <v>4.01485745348507e-07</v>
       </c>
       <c r="L167">
         <v>0</v>
@@ -9135,10 +9135,10 @@
         <v>0</v>
       </c>
       <c r="N167">
-        <v>5.53071044204601</v>
+        <v>6.04146788019945</v>
       </c>
       <c r="O167">
-        <v>411</v>
+        <v>25</v>
       </c>
     </row>
     <row r="168" spans="1:15">
@@ -9161,31 +9161,31 @@
         <v>252</v>
       </c>
       <c r="G168">
-        <v>0.813480081125463</v>
+        <v>0.83634671029127</v>
       </c>
       <c r="H168">
-        <v>0.800751879699248</v>
+        <v>0.855421686746988</v>
       </c>
       <c r="I168">
-        <v>0.719924812030075</v>
+        <v>0.734939759036145</v>
       </c>
       <c r="J168">
-        <v>0.969924812030075</v>
+        <v>0.951807228915663</v>
       </c>
       <c r="K168">
-        <v>0.805251030482214</v>
+        <v>0.826355662650602</v>
       </c>
       <c r="L168">
-        <v>0.793233082706767</v>
+        <v>0.843373493975904</v>
       </c>
       <c r="M168">
-        <v>0.714285714285714</v>
+        <v>0.734939759036145</v>
       </c>
       <c r="N168">
-        <v>2.91432539124929</v>
+        <v>3.03149709804776</v>
       </c>
       <c r="O168">
-        <v>532</v>
+        <v>83</v>
       </c>
     </row>
     <row r="169" spans="1:15">
@@ -9208,31 +9208,31 @@
         <v>302</v>
       </c>
       <c r="G169">
-        <v>0.924948518526618</v>
+        <v>0.954981262626263</v>
       </c>
       <c r="H169">
-        <v>0.926680244399185</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="I169">
-        <v>0.878818737270876</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="J169">
-        <v>0.991853360488798</v>
+        <v>1</v>
       </c>
       <c r="K169">
-        <v>0.920836241330528</v>
+        <v>0.954981262626263</v>
       </c>
       <c r="L169">
-        <v>0.922606924643585</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="M169">
-        <v>0.874745417515275</v>
+        <v>0.939393939393939</v>
       </c>
       <c r="N169">
-        <v>1.22854380598013</v>
+        <v>0.494889620422621</v>
       </c>
       <c r="O169">
-        <v>982</v>
+        <v>99</v>
       </c>
     </row>
     <row r="170" spans="1:15">
@@ -9264,10 +9264,10 @@
         <v>0</v>
       </c>
       <c r="J170">
-        <v>0.179039301310044</v>
+        <v>0.127659574468085</v>
       </c>
       <c r="K170">
-        <v>2.99507197221412e-07</v>
+        <v>2.13556247525802e-07</v>
       </c>
       <c r="L170">
         <v>0</v>
@@ -9276,10 +9276,10 @@
         <v>0</v>
       </c>
       <c r="N170">
-        <v>7.46608783529634</v>
+        <v>5.15517762616028</v>
       </c>
       <c r="O170">
-        <v>458</v>
+        <v>47</v>
       </c>
     </row>
     <row r="171" spans="1:15">
@@ -9302,31 +9302,31 @@
         <v>261</v>
       </c>
       <c r="G171">
-        <v>0.871317936999999</v>
+        <v>0.70858412</v>
       </c>
       <c r="H171">
-        <v>0.83</v>
+        <v>0.64</v>
       </c>
       <c r="I171">
-        <v>0.8</v>
+        <v>0.59</v>
       </c>
       <c r="J171">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="K171">
-        <v>0.863334936999999</v>
+        <v>0.70858412</v>
       </c>
       <c r="L171">
-        <v>0.823</v>
+        <v>0.64</v>
       </c>
       <c r="M171">
-        <v>0.793</v>
+        <v>0.59</v>
       </c>
       <c r="N171">
-        <v>2.09269315269052</v>
+        <v>2.06804654984921</v>
       </c>
       <c r="O171">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="172" spans="1:15">
@@ -9349,31 +9349,31 @@
         <v>304</v>
       </c>
       <c r="G172">
-        <v>0.940645372093001</v>
+        <v>0.96334</v>
       </c>
       <c r="H172">
-        <v>0.984</v>
+        <v>0.96</v>
       </c>
       <c r="I172">
-        <v>0.863</v>
+        <v>0.93</v>
       </c>
       <c r="J172">
-        <v>0.964</v>
+        <v>1</v>
       </c>
       <c r="K172">
-        <v>0.906598017608001</v>
+        <v>0.96334</v>
       </c>
       <c r="L172">
-        <v>0.949</v>
+        <v>0.96</v>
       </c>
       <c r="M172">
-        <v>0.831</v>
+        <v>0.93</v>
       </c>
       <c r="N172">
-        <v>1.61995493796698</v>
+        <v>1.24502458673514</v>
       </c>
       <c r="O172">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/results/summary_res_all_gRNAs.xlsx
+++ b/results/summary_res_all_gRNAs.xlsx
@@ -1359,31 +1359,31 @@
         <v>170</v>
       </c>
       <c r="G2">
-        <v>0.746405242424243</v>
+        <v>0.776270450335787</v>
       </c>
       <c r="H2">
-        <v>0.606060606060606</v>
+        <v>0.696307460437076</v>
       </c>
       <c r="I2">
-        <v>0.606060606060606</v>
+        <v>0.688018085908063</v>
       </c>
       <c r="J2">
-        <v>0.98989898989899</v>
+        <v>0.963828183873399</v>
       </c>
       <c r="K2">
-        <v>0.736304232323232</v>
+        <v>0.769498758775698</v>
       </c>
       <c r="L2">
-        <v>0.595959595959596</v>
+        <v>0.691032403918613</v>
       </c>
       <c r="M2">
-        <v>0.595959595959596</v>
+        <v>0.682743029389601</v>
       </c>
       <c r="N2">
-        <v>2.15668984825046</v>
+        <v>2.61531160191328</v>
       </c>
       <c r="O2">
-        <v>99</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1406,31 +1406,31 @@
         <v>171</v>
       </c>
       <c r="G3">
-        <v>0.716449987042878</v>
+        <v>0.682982303783994</v>
       </c>
       <c r="H3">
-        <v>0.707070707070707</v>
+        <v>0.628352490421456</v>
       </c>
       <c r="I3">
-        <v>0.626262626262626</v>
+        <v>0.554278416347382</v>
       </c>
       <c r="J3">
-        <v>0.94949494949495</v>
+        <v>0.947637292464879</v>
       </c>
       <c r="K3">
-        <v>0.7143050729025</v>
+        <v>0.6761524052579</v>
       </c>
       <c r="L3">
-        <v>0.707070707070707</v>
+        <v>0.623243933588761</v>
       </c>
       <c r="M3">
-        <v>0.626262626262626</v>
+        <v>0.550446998722861</v>
       </c>
       <c r="N3">
-        <v>4.231716678372</v>
+        <v>5.2490487877587</v>
       </c>
       <c r="O3">
-        <v>99</v>
+        <v>783</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1453,31 +1453,31 @@
         <v>172</v>
       </c>
       <c r="G4">
-        <v>0.578449344742268</v>
+        <v>0.431888086386928</v>
       </c>
       <c r="H4">
-        <v>0.381443298969072</v>
+        <v>0.226765799256506</v>
       </c>
       <c r="I4">
-        <v>0.371134020618557</v>
+        <v>0.214126394052045</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.896654275092937</v>
       </c>
       <c r="K4">
-        <v>0.578449344742268</v>
+        <v>0.422759057283416</v>
       </c>
       <c r="L4">
-        <v>0.381443298969072</v>
+        <v>0.226022304832714</v>
       </c>
       <c r="M4">
-        <v>0.371134020618557</v>
+        <v>0.214126394052045</v>
       </c>
       <c r="N4">
-        <v>2.91568435605371</v>
+        <v>4.60505589831112</v>
       </c>
       <c r="O4">
-        <v>97</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1500,31 +1500,31 @@
         <v>173</v>
       </c>
       <c r="G5">
-        <v>0.846881410315518</v>
+        <v>0.785195546277385</v>
       </c>
       <c r="H5">
-        <v>0.804878048780488</v>
+        <v>0.754065040650406</v>
       </c>
       <c r="I5">
-        <v>0.75609756097561</v>
+        <v>0.705284552845528</v>
       </c>
       <c r="J5">
-        <v>0.98780487804878</v>
+        <v>0.983739837398374</v>
       </c>
       <c r="K5">
-        <v>0.846719023197928</v>
+        <v>0.782251653890084</v>
       </c>
       <c r="L5">
-        <v>0.804878048780488</v>
+        <v>0.752032520325203</v>
       </c>
       <c r="M5">
-        <v>0.75609756097561</v>
+        <v>0.703252032520325</v>
       </c>
       <c r="N5">
-        <v>2.88036585189155</v>
+        <v>2.66017761804901</v>
       </c>
       <c r="O5">
-        <v>82</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1547,31 +1547,31 @@
         <v>174</v>
       </c>
       <c r="G6">
-        <v>0.818170607070707</v>
+        <v>0.758716431988686</v>
       </c>
       <c r="H6">
-        <v>0.767676767676768</v>
+        <v>0.75499629903775</v>
       </c>
       <c r="I6">
-        <v>0.757575757575758</v>
+        <v>0.606217616580311</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.975573649148779</v>
       </c>
       <c r="K6">
-        <v>0.818170607070707</v>
+        <v>0.747623804145617</v>
       </c>
       <c r="L6">
-        <v>0.767676767676768</v>
+        <v>0.745373797187269</v>
       </c>
       <c r="M6">
-        <v>0.757575757575758</v>
+        <v>0.59659511472983</v>
       </c>
       <c r="N6">
-        <v>2.50679196188142</v>
+        <v>4.20622313379339</v>
       </c>
       <c r="O6">
-        <v>99</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1594,31 +1594,31 @@
         <v>175</v>
       </c>
       <c r="G7">
-        <v>0.788711019091636</v>
+        <v>0.81631211587734</v>
       </c>
       <c r="H7">
-        <v>0.9</v>
+        <v>0.816048448145344</v>
       </c>
       <c r="I7">
-        <v>0.59</v>
+        <v>0.690386071158213</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.00302800908402725</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.00237082210446631</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.00227100681302044</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.00227100681302044</v>
       </c>
       <c r="N7">
-        <v>1.72703741247511</v>
+        <v>2.40986670796441</v>
       </c>
       <c r="O7">
-        <v>100</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1641,13 +1641,13 @@
         <v>176</v>
       </c>
       <c r="G8">
-        <v>0.594181322093223</v>
+        <v>0.574202293789736</v>
       </c>
       <c r="H8">
-        <v>0.474747474747475</v>
+        <v>0.475867269984917</v>
       </c>
       <c r="I8">
-        <v>0.474747474747475</v>
+        <v>0.475113122171946</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1662,10 +1662,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.09811617058262</v>
+        <v>2.85909031283905</v>
       </c>
       <c r="O8">
-        <v>99</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1688,19 +1688,19 @@
         <v>177</v>
       </c>
       <c r="G9">
-        <v>0.715328464646465</v>
+        <v>0.723842380597649</v>
       </c>
       <c r="H9">
-        <v>0.585858585858586</v>
+        <v>0.656500359135864</v>
       </c>
       <c r="I9">
-        <v>0.585858585858586</v>
+        <v>0.648544118459583</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.000165755014089176</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.33111922063684e-05</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1709,10 +1709,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.62951278638399</v>
+        <v>3.84011546849227</v>
       </c>
       <c r="O9">
-        <v>99</v>
+        <v>18099</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1735,31 +1735,31 @@
         <v>178</v>
       </c>
       <c r="G10">
-        <v>0.90411356</v>
+        <v>0.875171991100771</v>
       </c>
       <c r="H10">
-        <v>0.84</v>
+        <v>0.838707743946296</v>
       </c>
       <c r="I10">
-        <v>0.82</v>
+        <v>0.760489091345001</v>
       </c>
       <c r="J10">
-        <v>0.01</v>
+        <v>0.000779189642771518</v>
       </c>
       <c r="K10">
-        <v>0.01</v>
+        <v>0.000542652841045313</v>
       </c>
       <c r="L10">
-        <v>0.01</v>
+        <v>0.000419563653800048</v>
       </c>
       <c r="M10">
-        <v>0.01</v>
+        <v>0.00035962598897147</v>
       </c>
       <c r="N10">
-        <v>1.75148825497924</v>
+        <v>2.28174497384023</v>
       </c>
       <c r="O10">
-        <v>100</v>
+        <v>16684</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1782,13 +1782,13 @@
         <v>179</v>
       </c>
       <c r="G11">
-        <v>0.558355599999999</v>
+        <v>0.756498194356525</v>
       </c>
       <c r="H11">
-        <v>0.63</v>
+        <v>0.820031029132908</v>
       </c>
       <c r="I11">
-        <v>0.3</v>
+        <v>0.558524392346147</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.32581360258754</v>
+        <v>3.93617695069883</v>
       </c>
       <c r="O11">
-        <v>100</v>
+        <v>5801</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1829,13 +1829,13 @@
         <v>180</v>
       </c>
       <c r="G12">
-        <v>0.78206538</v>
+        <v>0.764666283492474</v>
       </c>
       <c r="H12">
-        <v>0.66</v>
+        <v>0.711782892476812</v>
       </c>
       <c r="I12">
-        <v>0.66</v>
+        <v>0.611130195809</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1850,10 +1850,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.78399208714468</v>
+        <v>3.9572293082874</v>
       </c>
       <c r="O12">
-        <v>100</v>
+        <v>5822</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1876,31 +1876,31 @@
         <v>181</v>
       </c>
       <c r="G13">
-        <v>0.903902205375612</v>
+        <v>0.744456599614546</v>
       </c>
       <c r="H13">
-        <v>0.89010989010989</v>
+        <v>0.761658031088083</v>
       </c>
       <c r="I13">
-        <v>0.857142857142857</v>
+        <v>0.634715025906736</v>
       </c>
       <c r="J13">
-        <v>0.989010989010989</v>
+        <v>0.981865284974093</v>
       </c>
       <c r="K13">
-        <v>0.903330590372417</v>
+        <v>0.742035293465984</v>
       </c>
       <c r="L13">
-        <v>0.89010989010989</v>
+        <v>0.759067357512953</v>
       </c>
       <c r="M13">
-        <v>0.857142857142857</v>
+        <v>0.634715025906736</v>
       </c>
       <c r="N13">
-        <v>3.24860919756886</v>
+        <v>3.74626818958162</v>
       </c>
       <c r="O13">
-        <v>91</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1923,31 +1923,31 @@
         <v>182</v>
       </c>
       <c r="G14">
-        <v>0.85776704</v>
+        <v>0.687144475644944</v>
       </c>
       <c r="H14">
-        <v>0.84</v>
+        <v>0.663740088957648</v>
       </c>
       <c r="I14">
-        <v>0.83</v>
+        <v>0.595861535486366</v>
       </c>
       <c r="J14">
-        <v>0.98</v>
+        <v>0.98445175014504</v>
       </c>
       <c r="K14">
-        <v>0.85504852</v>
+        <v>0.68349292666443</v>
       </c>
       <c r="L14">
-        <v>0.84</v>
+        <v>0.660529878166699</v>
       </c>
       <c r="M14">
-        <v>0.83</v>
+        <v>0.592883388126088</v>
       </c>
       <c r="N14">
-        <v>1.41367389862828</v>
+        <v>3.76299227390448</v>
       </c>
       <c r="O14">
-        <v>100</v>
+        <v>25855</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1970,31 +1970,31 @@
         <v>183</v>
       </c>
       <c r="G15">
-        <v>0.886903345454948</v>
+        <v>0.918695198700106</v>
       </c>
       <c r="H15">
-        <v>0.8875</v>
+        <v>0.921325051759834</v>
       </c>
       <c r="I15">
-        <v>0.8375</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="J15">
-        <v>0.9625</v>
+        <v>0.979296066252588</v>
       </c>
       <c r="K15">
-        <v>0.8863959375</v>
+        <v>0.913942441797971</v>
       </c>
       <c r="L15">
-        <v>0.8875</v>
+        <v>0.917184265010352</v>
       </c>
       <c r="M15">
-        <v>0.8375</v>
+        <v>0.865424430641822</v>
       </c>
       <c r="N15">
-        <v>2.96136450659265</v>
+        <v>2.71686075827078</v>
       </c>
       <c r="O15">
-        <v>80</v>
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2017,31 +2017,31 @@
         <v>184</v>
       </c>
       <c r="G16">
-        <v>0.901229976345748</v>
+        <v>0.980735246382202</v>
       </c>
       <c r="H16">
-        <v>0.9</v>
+        <v>0.981962481962482</v>
       </c>
       <c r="I16">
-        <v>0.9</v>
+        <v>0.972582972582973</v>
       </c>
       <c r="J16">
-        <v>0.94</v>
+        <v>0.993506493506494</v>
       </c>
       <c r="K16">
-        <v>0.890504516715668</v>
+        <v>0.978836909080109</v>
       </c>
       <c r="L16">
-        <v>0.89</v>
+        <v>0.97979797979798</v>
       </c>
       <c r="M16">
-        <v>0.89</v>
+        <v>0.971139971139971</v>
       </c>
       <c r="N16">
-        <v>0.832904561192996</v>
+        <v>0.392901631328193</v>
       </c>
       <c r="O16">
-        <v>100</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -2064,31 +2064,31 @@
         <v>185</v>
       </c>
       <c r="G17">
-        <v>0.883150000000001</v>
+        <v>0.714870728490211</v>
       </c>
       <c r="H17">
-        <v>0.81</v>
+        <v>0.543167208128845</v>
       </c>
       <c r="I17">
-        <v>0.81</v>
+        <v>0.542337734153591</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0.997373332411696</v>
       </c>
       <c r="K17">
-        <v>0.883150000000001</v>
+        <v>0.713653424276364</v>
       </c>
       <c r="L17">
-        <v>0.81</v>
+        <v>0.542683348309947</v>
       </c>
       <c r="M17">
-        <v>0.81</v>
+        <v>0.541853874334693</v>
       </c>
       <c r="N17">
-        <v>0.779207486310554</v>
+        <v>1.75088485980889</v>
       </c>
       <c r="O17">
-        <v>100</v>
+        <v>14467</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -2111,31 +2111,31 @@
         <v>186</v>
       </c>
       <c r="G18">
-        <v>0.898057394897959</v>
+        <v>0.756981439515879</v>
       </c>
       <c r="H18">
-        <v>0.86734693877551</v>
+        <v>0.715008431703204</v>
       </c>
       <c r="I18">
-        <v>0.846938775510204</v>
+        <v>0.62681837555362</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0.995552508200063</v>
       </c>
       <c r="K18">
-        <v>0.898057394897959</v>
+        <v>0.754964213499465</v>
       </c>
       <c r="L18">
-        <v>0.86734693877551</v>
+        <v>0.7129329355299</v>
       </c>
       <c r="M18">
-        <v>0.846938775510204</v>
+        <v>0.625261753423642</v>
       </c>
       <c r="N18">
-        <v>2.11572875064339</v>
+        <v>3.47312087356067</v>
       </c>
       <c r="O18">
-        <v>98</v>
+        <v>53963</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -2158,31 +2158,31 @@
         <v>187</v>
       </c>
       <c r="G19">
-        <v>0.720966019999999</v>
+        <v>0.793219952982894</v>
       </c>
       <c r="H19">
-        <v>0.69</v>
+        <v>0.749483684427922</v>
       </c>
       <c r="I19">
-        <v>0.57</v>
+        <v>0.654171829822387</v>
       </c>
       <c r="J19">
-        <v>0.82</v>
+        <v>0.850371747211896</v>
       </c>
       <c r="K19">
-        <v>0.5604999</v>
+        <v>0.671152061251097</v>
       </c>
       <c r="L19">
-        <v>0.54</v>
+        <v>0.633828996282528</v>
       </c>
       <c r="M19">
-        <v>0.42</v>
+        <v>0.550185873605948</v>
       </c>
       <c r="N19">
-        <v>3.25386911001226</v>
+        <v>3.88955388634754</v>
       </c>
       <c r="O19">
-        <v>100</v>
+        <v>9684</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -2205,31 +2205,31 @@
         <v>188</v>
       </c>
       <c r="G20">
-        <v>0.81517435</v>
+        <v>0.846369024207205</v>
       </c>
       <c r="H20">
-        <v>0.68</v>
+        <v>0.809236947791165</v>
       </c>
       <c r="I20">
-        <v>0.64</v>
+        <v>0.764287920914427</v>
       </c>
       <c r="J20">
-        <v>0.99</v>
+        <v>0.962001853568119</v>
       </c>
       <c r="K20">
-        <v>0.80517435</v>
+        <v>0.810848285590959</v>
       </c>
       <c r="L20">
-        <v>0.67</v>
+        <v>0.774173617547112</v>
       </c>
       <c r="M20">
-        <v>0.63</v>
+        <v>0.729842446709917</v>
       </c>
       <c r="N20">
-        <v>1.46343998874787</v>
+        <v>2.35872624395286</v>
       </c>
       <c r="O20">
-        <v>100</v>
+        <v>6474</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -2252,31 +2252,31 @@
         <v>189</v>
       </c>
       <c r="G21">
-        <v>0.979099580689278</v>
+        <v>0.89008042557343</v>
       </c>
       <c r="H21">
-        <v>0.989690721649485</v>
+        <v>0.917797655768044</v>
       </c>
       <c r="I21">
-        <v>0.958762886597938</v>
+        <v>0.796113510178902</v>
       </c>
       <c r="J21">
-        <v>0.979381443298969</v>
+        <v>0.991517581739667</v>
       </c>
       <c r="K21">
-        <v>0.96720618556701</v>
+        <v>0.887579264206222</v>
       </c>
       <c r="L21">
-        <v>0.979381443298969</v>
+        <v>0.916255397902529</v>
       </c>
       <c r="M21">
-        <v>0.948453608247423</v>
+        <v>0.794725478099938</v>
       </c>
       <c r="N21">
-        <v>0.781188403078017</v>
+        <v>2.02289446764389</v>
       </c>
       <c r="O21">
-        <v>97</v>
+        <v>6484</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2299,31 +2299,31 @@
         <v>190</v>
       </c>
       <c r="G22">
-        <v>0.936163768640001</v>
+        <v>0.865226693462466</v>
       </c>
       <c r="H22">
-        <v>0.94</v>
+        <v>0.861130441506224</v>
       </c>
       <c r="I22">
-        <v>0.92</v>
+        <v>0.783074306038815</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0.94943168638367</v>
       </c>
       <c r="K22">
-        <v>0.936163768640001</v>
+        <v>0.823469122658927</v>
       </c>
       <c r="L22">
-        <v>0.94</v>
+        <v>0.821541792314235</v>
       </c>
       <c r="M22">
-        <v>0.92</v>
+        <v>0.747119771128122</v>
       </c>
       <c r="N22">
-        <v>2.45091598719725</v>
+        <v>4.46329462909989</v>
       </c>
       <c r="O22">
-        <v>100</v>
+        <v>25866</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2346,31 +2346,31 @@
         <v>173</v>
       </c>
       <c r="G23">
-        <v>0.846881410315518</v>
+        <v>0.785195546277385</v>
       </c>
       <c r="H23">
-        <v>0.804878048780488</v>
+        <v>0.754065040650406</v>
       </c>
       <c r="I23">
-        <v>0.75609756097561</v>
+        <v>0.705284552845528</v>
       </c>
       <c r="J23">
-        <v>0.98780487804878</v>
+        <v>0.983739837398374</v>
       </c>
       <c r="K23">
-        <v>0.846719023197928</v>
+        <v>0.782251653890084</v>
       </c>
       <c r="L23">
-        <v>0.804878048780488</v>
+        <v>0.752032520325203</v>
       </c>
       <c r="M23">
-        <v>0.75609756097561</v>
+        <v>0.703252032520325</v>
       </c>
       <c r="N23">
-        <v>2.88036585189155</v>
+        <v>2.66017761804901</v>
       </c>
       <c r="O23">
-        <v>82</v>
+        <v>492</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2393,31 +2393,31 @@
         <v>174</v>
       </c>
       <c r="G24">
-        <v>0.818170607070707</v>
+        <v>0.758716431988686</v>
       </c>
       <c r="H24">
-        <v>0.767676767676768</v>
+        <v>0.75499629903775</v>
       </c>
       <c r="I24">
-        <v>0.757575757575758</v>
+        <v>0.606217616580311</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0.975573649148779</v>
       </c>
       <c r="K24">
-        <v>0.818170607070707</v>
+        <v>0.747623804145617</v>
       </c>
       <c r="L24">
-        <v>0.767676767676768</v>
+        <v>0.745373797187269</v>
       </c>
       <c r="M24">
-        <v>0.757575757575758</v>
+        <v>0.59659511472983</v>
       </c>
       <c r="N24">
-        <v>2.50679196188142</v>
+        <v>4.20622313379339</v>
       </c>
       <c r="O24">
-        <v>99</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2440,31 +2440,31 @@
         <v>191</v>
       </c>
       <c r="G25">
-        <v>0.59755207025974</v>
+        <v>0.56938797026705</v>
       </c>
       <c r="H25">
-        <v>0.571428571428571</v>
+        <v>0.546511627906977</v>
       </c>
       <c r="I25">
-        <v>0.285714285714286</v>
+        <v>0.288372093023256</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0.993023255813953</v>
       </c>
       <c r="K25">
-        <v>0.59755207025974</v>
+        <v>0.567940498662456</v>
       </c>
       <c r="L25">
-        <v>0.571428571428571</v>
+        <v>0.544186046511628</v>
       </c>
       <c r="M25">
-        <v>0.285714285714286</v>
+        <v>0.288372093023256</v>
       </c>
       <c r="N25">
-        <v>4.38725542509089</v>
+        <v>4.27334109035607</v>
       </c>
       <c r="O25">
-        <v>77</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2487,31 +2487,31 @@
         <v>192</v>
       </c>
       <c r="G26">
-        <v>0.956333333333333</v>
+        <v>0.919644527510456</v>
       </c>
       <c r="H26">
-        <v>0.939393939393939</v>
+        <v>0.897897897897898</v>
       </c>
       <c r="I26">
-        <v>0.939393939393939</v>
+        <v>0.895645645645646</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>0.003003003003003</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>0.0013837987987988</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>0.0015015015015015</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>0.000750750750750751</v>
       </c>
       <c r="N26">
-        <v>0.574630315180638</v>
+        <v>1.701342905986</v>
       </c>
       <c r="O26">
-        <v>99</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2534,31 +2534,31 @@
         <v>193</v>
       </c>
       <c r="G27">
-        <v>0.826557430083275</v>
+        <v>0.752468480619308</v>
       </c>
       <c r="H27">
-        <v>0.848101265822785</v>
+        <v>0.764434180138568</v>
       </c>
       <c r="I27">
-        <v>0.822784810126582</v>
+        <v>0.745958429561201</v>
       </c>
       <c r="J27">
-        <v>0.936708860759494</v>
+        <v>0.884526558891455</v>
       </c>
       <c r="K27">
-        <v>0.799500316455696</v>
+        <v>0.670698239473439</v>
       </c>
       <c r="L27">
-        <v>0.822784810126582</v>
+        <v>0.678983833718245</v>
       </c>
       <c r="M27">
-        <v>0.79746835443038</v>
+        <v>0.662817551963048</v>
       </c>
       <c r="N27">
-        <v>4.3926226587326</v>
+        <v>4.37524539435632</v>
       </c>
       <c r="O27">
-        <v>79</v>
+        <v>433</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2581,31 +2581,31 @@
         <v>194</v>
       </c>
       <c r="G28">
-        <v>0.866778903128141</v>
+        <v>0.775624819334438</v>
       </c>
       <c r="H28">
-        <v>0.924050632911392</v>
+        <v>0.751605995717345</v>
       </c>
       <c r="I28">
-        <v>0.734177215189873</v>
+        <v>0.63169164882227</v>
       </c>
       <c r="J28">
-        <v>0.645569620253165</v>
+        <v>0.715203426124197</v>
       </c>
       <c r="K28">
-        <v>0.574201860759494</v>
+        <v>0.524066447537473</v>
       </c>
       <c r="L28">
-        <v>0.607594936708861</v>
+        <v>0.492505353319058</v>
       </c>
       <c r="M28">
-        <v>0.506329113924051</v>
+        <v>0.404710920770878</v>
       </c>
       <c r="N28">
-        <v>3.64151778468161</v>
+        <v>3.86885384896436</v>
       </c>
       <c r="O28">
-        <v>79</v>
+        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2628,31 +2628,31 @@
         <v>195</v>
       </c>
       <c r="G29">
-        <v>0.725891472699444</v>
+        <v>0.68275891660968</v>
       </c>
       <c r="H29">
-        <v>0.717171717171717</v>
+        <v>0.629722921914358</v>
       </c>
       <c r="I29">
-        <v>0.636363636363636</v>
+        <v>0.554156171284635</v>
       </c>
       <c r="J29">
-        <v>0.94949494949495</v>
+        <v>0.948362720403023</v>
       </c>
       <c r="K29">
-        <v>0.723746558559066</v>
+        <v>0.676023638844023</v>
       </c>
       <c r="L29">
-        <v>0.717171717171717</v>
+        <v>0.624685138539043</v>
       </c>
       <c r="M29">
-        <v>0.636363636363636</v>
+        <v>0.550377833753149</v>
       </c>
       <c r="N29">
-        <v>4.17302838105533</v>
+        <v>5.26257053419506</v>
       </c>
       <c r="O29">
-        <v>99</v>
+        <v>794</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2675,31 +2675,31 @@
         <v>196</v>
       </c>
       <c r="G30">
-        <v>0.165745175149446</v>
+        <v>0.208473048164785</v>
       </c>
       <c r="H30">
-        <v>0.03</v>
+        <v>0.137981118373275</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>0.037037037037037</v>
       </c>
       <c r="J30">
-        <v>0.86</v>
+        <v>0.781408859840232</v>
       </c>
       <c r="K30">
-        <v>0.142275718360826</v>
+        <v>0.168544742426045</v>
       </c>
       <c r="L30">
-        <v>0.01</v>
+        <v>0.10239651416122</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>0.0348583877995643</v>
       </c>
       <c r="N30">
-        <v>4.57474331406078</v>
+        <v>6.7698759592779</v>
       </c>
       <c r="O30">
-        <v>100</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2722,31 +2722,31 @@
         <v>197</v>
       </c>
       <c r="G31">
-        <v>0.144737980063163</v>
+        <v>0.197631614885952</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>0.0731354091238233</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>0.057929036929761</v>
       </c>
       <c r="J31">
-        <v>0.93</v>
+        <v>0.87400434467777</v>
       </c>
       <c r="K31">
-        <v>0.141497456668718</v>
+        <v>0.185333538748508</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>0.0724112961622013</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>0.057204923968139</v>
       </c>
       <c r="N31">
-        <v>3.35421192792486</v>
+        <v>5.80365809729613</v>
       </c>
       <c r="O31">
-        <v>100</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2769,31 +2769,31 @@
         <v>198</v>
       </c>
       <c r="G32">
-        <v>0.768737394399133</v>
+        <v>0.646003708164849</v>
       </c>
       <c r="H32">
-        <v>0.76</v>
+        <v>0.612554112554113</v>
       </c>
       <c r="I32">
-        <v>0.76</v>
+        <v>0.584415584415584</v>
       </c>
       <c r="J32">
-        <v>0.79</v>
+        <v>0.726551226551227</v>
       </c>
       <c r="K32">
-        <v>0.73198768656</v>
+        <v>0.612453019577016</v>
       </c>
       <c r="L32">
-        <v>0.73</v>
+        <v>0.601010101010101</v>
       </c>
       <c r="M32">
-        <v>0.73</v>
+        <v>0.573593073593074</v>
       </c>
       <c r="N32">
-        <v>2.45188003464093</v>
+        <v>4.16980328476335</v>
       </c>
       <c r="O32">
-        <v>100</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2816,31 +2816,31 @@
         <v>199</v>
       </c>
       <c r="G33">
-        <v>0.473913658989691</v>
+        <v>0.46957945238627</v>
       </c>
       <c r="H33">
-        <v>0.515463917525773</v>
+        <v>0.522354694485842</v>
       </c>
       <c r="I33">
-        <v>0.103092783505155</v>
+        <v>0.148286140089419</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0.959016393442623</v>
       </c>
       <c r="K33">
-        <v>0.473913658989691</v>
+        <v>0.467833108683255</v>
       </c>
       <c r="L33">
-        <v>0.515463917525773</v>
+        <v>0.522354694485842</v>
       </c>
       <c r="M33">
-        <v>0.103092783505155</v>
+        <v>0.148286140089419</v>
       </c>
       <c r="N33">
-        <v>2.91568435605371</v>
+        <v>4.77181555488247</v>
       </c>
       <c r="O33">
-        <v>97</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2863,31 +2863,31 @@
         <v>200</v>
       </c>
       <c r="G34">
-        <v>0.51199310364</v>
+        <v>0.572086059778161</v>
       </c>
       <c r="H34">
-        <v>0.42</v>
+        <v>0.498876404494382</v>
       </c>
       <c r="I34">
-        <v>0.27</v>
+        <v>0.32434456928839</v>
       </c>
       <c r="J34">
-        <v>0.98</v>
+        <v>0.939325842696629</v>
       </c>
       <c r="K34">
-        <v>0.49707310364</v>
+        <v>0.5587708907945</v>
       </c>
       <c r="L34">
-        <v>0.41</v>
+        <v>0.49063670411985</v>
       </c>
       <c r="M34">
-        <v>0.26</v>
+        <v>0.316104868913858</v>
       </c>
       <c r="N34">
-        <v>3.88569996742263</v>
+        <v>5.35698143814368</v>
       </c>
       <c r="O34">
-        <v>100</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2910,31 +2910,31 @@
         <v>201</v>
       </c>
       <c r="G35">
-        <v>0.942321714285714</v>
+        <v>0.904881970167898</v>
       </c>
       <c r="H35">
-        <v>0.928571428571429</v>
+        <v>0.887793783169067</v>
       </c>
       <c r="I35">
-        <v>0.928571428571429</v>
+        <v>0.854435178165277</v>
       </c>
       <c r="J35">
-        <v>0.989795918367347</v>
+        <v>0.976497346474602</v>
       </c>
       <c r="K35">
-        <v>0.940321714285714</v>
+        <v>0.891002744097803</v>
       </c>
       <c r="L35">
-        <v>0.928571428571429</v>
+        <v>0.872630780894617</v>
       </c>
       <c r="M35">
-        <v>0.928571428571429</v>
+        <v>0.843062926459439</v>
       </c>
       <c r="N35">
-        <v>1.65416003391818</v>
+        <v>2.9598765879773</v>
       </c>
       <c r="O35">
-        <v>98</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2957,31 +2957,31 @@
         <v>202</v>
       </c>
       <c r="G36">
-        <v>0.976280268817204</v>
+        <v>0.951718305920488</v>
       </c>
       <c r="H36">
-        <v>0.989247311827957</v>
+        <v>0.961392884178653</v>
       </c>
       <c r="I36">
-        <v>0.935483870967742</v>
+        <v>0.905374716124148</v>
       </c>
       <c r="J36">
-        <v>0.989247311827957</v>
+        <v>0.957607872823618</v>
       </c>
       <c r="K36">
-        <v>0.965527580645161</v>
+        <v>0.924889518045956</v>
       </c>
       <c r="L36">
-        <v>0.978494623655914</v>
+        <v>0.934897804693414</v>
       </c>
       <c r="M36">
-        <v>0.924731182795699</v>
+        <v>0.884178652535958</v>
       </c>
       <c r="N36">
-        <v>0.957268500730921</v>
+        <v>2.04604471326368</v>
       </c>
       <c r="O36">
-        <v>93</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -3004,31 +3004,31 @@
         <v>203</v>
       </c>
       <c r="G37">
-        <v>0.994868686868687</v>
+        <v>0.969835137110154</v>
       </c>
       <c r="H37">
-        <v>0.98989898989899</v>
+        <v>0.969594594594595</v>
       </c>
       <c r="I37">
-        <v>0.98989898989899</v>
+        <v>0.961993243243243</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0.97972972972973</v>
       </c>
       <c r="K37">
-        <v>0.994868686868687</v>
+        <v>0.96893002066821</v>
       </c>
       <c r="L37">
-        <v>0.98989898989899</v>
+        <v>0.96875</v>
       </c>
       <c r="M37">
-        <v>0.98989898989899</v>
+        <v>0.961148648648649</v>
       </c>
       <c r="N37">
-        <v>0.161440542541821</v>
+        <v>0.597196805495579</v>
       </c>
       <c r="O37">
-        <v>99</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -3051,31 +3051,31 @@
         <v>204</v>
       </c>
       <c r="G38">
-        <v>0.949422765371773</v>
+        <v>0.921880736749579</v>
       </c>
       <c r="H38">
-        <v>0.939393939393939</v>
+        <v>0.904109589041096</v>
       </c>
       <c r="I38">
-        <v>0.939393939393939</v>
+        <v>0.901826484018265</v>
       </c>
       <c r="J38">
-        <v>0.95959595959596</v>
+        <v>0.970319634703196</v>
       </c>
       <c r="K38">
-        <v>0.928909090909091</v>
+        <v>0.913149516758586</v>
       </c>
       <c r="L38">
-        <v>0.919191919191919</v>
+        <v>0.897260273972603</v>
       </c>
       <c r="M38">
-        <v>0.919191919191919</v>
+        <v>0.894977168949772</v>
       </c>
       <c r="N38">
-        <v>0.801188403078017</v>
+        <v>1.22978373627946</v>
       </c>
       <c r="O38">
-        <v>99</v>
+        <v>438</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -3098,31 +3098,31 @@
         <v>205</v>
       </c>
       <c r="G39">
-        <v>0.683614450379519</v>
+        <v>0.714339133620212</v>
       </c>
       <c r="H39">
-        <v>0.826530612244898</v>
+        <v>0.876433121019108</v>
       </c>
       <c r="I39">
-        <v>0.438775510204082</v>
+        <v>0.494267515923567</v>
       </c>
       <c r="J39">
-        <v>0.938775510204082</v>
+        <v>0.910828025477707</v>
       </c>
       <c r="K39">
-        <v>0.665075436142857</v>
+        <v>0.664266995771549</v>
       </c>
       <c r="L39">
-        <v>0.795918367346939</v>
+        <v>0.817834394904459</v>
       </c>
       <c r="M39">
-        <v>0.438775510204082</v>
+        <v>0.453503184713376</v>
       </c>
       <c r="N39">
-        <v>3.77709698337163</v>
+        <v>4.57742836429659</v>
       </c>
       <c r="O39">
-        <v>98</v>
+        <v>785</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -3145,31 +3145,31 @@
         <v>206</v>
       </c>
       <c r="G40">
-        <v>0.416345208126891</v>
+        <v>0.392320547838117</v>
       </c>
       <c r="H40">
-        <v>0.285714285714286</v>
+        <v>0.267175572519084</v>
       </c>
       <c r="I40">
-        <v>0.23469387755102</v>
+        <v>0.225190839694656</v>
       </c>
       <c r="J40">
-        <v>0.989795918367347</v>
+        <v>0.973282442748092</v>
       </c>
       <c r="K40">
-        <v>0.416258699064816</v>
+        <v>0.391271304643025</v>
       </c>
       <c r="L40">
-        <v>0.285714285714286</v>
+        <v>0.267175572519084</v>
       </c>
       <c r="M40">
-        <v>0.23469387755102</v>
+        <v>0.225190839694656</v>
       </c>
       <c r="N40">
-        <v>4.29944823457962</v>
+        <v>5.24062805296641</v>
       </c>
       <c r="O40">
-        <v>98</v>
+        <v>786</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -3192,31 +3192,31 @@
         <v>207</v>
       </c>
       <c r="G41">
-        <v>0.782581158141961</v>
+        <v>0.736367623186279</v>
       </c>
       <c r="H41">
-        <v>0.775510204081633</v>
+        <v>0.733055265901981</v>
       </c>
       <c r="I41">
-        <v>0.714285714285714</v>
+        <v>0.631908237747654</v>
       </c>
       <c r="J41">
-        <v>0.918367346938776</v>
+        <v>0.949947862356621</v>
       </c>
       <c r="K41">
-        <v>0.780772797016735</v>
+        <v>0.734285186363118</v>
       </c>
       <c r="L41">
-        <v>0.775510204081633</v>
+        <v>0.732012513034411</v>
       </c>
       <c r="M41">
-        <v>0.714285714285714</v>
+        <v>0.630865484880083</v>
       </c>
       <c r="N41">
-        <v>2.85161796685751</v>
+        <v>3.92337309848527</v>
       </c>
       <c r="O41">
-        <v>98</v>
+        <v>959</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -3239,31 +3239,31 @@
         <v>208</v>
       </c>
       <c r="G42">
-        <v>0.725891472699444</v>
+        <v>0.68275891660968</v>
       </c>
       <c r="H42">
-        <v>0.717171717171717</v>
+        <v>0.629722921914358</v>
       </c>
       <c r="I42">
-        <v>0.636363636363636</v>
+        <v>0.554156171284635</v>
       </c>
       <c r="J42">
-        <v>0.94949494949495</v>
+        <v>0.948362720403023</v>
       </c>
       <c r="K42">
-        <v>0.723746558559066</v>
+        <v>0.676023638844023</v>
       </c>
       <c r="L42">
-        <v>0.717171717171717</v>
+        <v>0.624685138539043</v>
       </c>
       <c r="M42">
-        <v>0.636363636363636</v>
+        <v>0.550377833753149</v>
       </c>
       <c r="N42">
-        <v>4.17302838105533</v>
+        <v>5.26257053419506</v>
       </c>
       <c r="O42">
-        <v>99</v>
+        <v>794</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -3286,31 +3286,31 @@
         <v>209</v>
       </c>
       <c r="G43">
-        <v>0.786181014380012</v>
+        <v>0.737540893500211</v>
       </c>
       <c r="H43">
-        <v>0.75</v>
+        <v>0.680616740088106</v>
       </c>
       <c r="I43">
-        <v>0.71</v>
+        <v>0.627753303964758</v>
       </c>
       <c r="J43">
-        <v>0.95</v>
+        <v>0.963656387665198</v>
       </c>
       <c r="K43">
-        <v>0.78531906235732</v>
+        <v>0.736653247340704</v>
       </c>
       <c r="L43">
-        <v>0.75</v>
+        <v>0.680616740088106</v>
       </c>
       <c r="M43">
-        <v>0.71</v>
+        <v>0.627753303964758</v>
       </c>
       <c r="N43">
-        <v>2.96808949947512</v>
+        <v>4.37385317057862</v>
       </c>
       <c r="O43">
-        <v>100</v>
+        <v>908</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -3333,31 +3333,31 @@
         <v>210</v>
       </c>
       <c r="G44">
-        <v>0.875920646521739</v>
+        <v>0.819037711693684</v>
       </c>
       <c r="H44">
-        <v>0.869565217391304</v>
+        <v>0.800204918032787</v>
       </c>
       <c r="I44">
-        <v>0.858695652173913</v>
+        <v>0.780737704918033</v>
       </c>
       <c r="J44">
-        <v>0.891304347826087</v>
+        <v>0.857581967213115</v>
       </c>
       <c r="K44">
-        <v>0.81393723347826</v>
+        <v>0.723709724050175</v>
       </c>
       <c r="L44">
-        <v>0.815217391304348</v>
+        <v>0.711065573770492</v>
       </c>
       <c r="M44">
-        <v>0.804347826086957</v>
+        <v>0.694672131147541</v>
       </c>
       <c r="N44">
-        <v>3.22124061559695</v>
+        <v>4.14157489871247</v>
       </c>
       <c r="O44">
-        <v>92</v>
+        <v>976</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -3380,31 +3380,31 @@
         <v>211</v>
       </c>
       <c r="G45">
-        <v>0.107882076264448</v>
+        <v>0.143841820388234</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>0.0319744204636291</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>0.0279776179056755</v>
       </c>
       <c r="J45">
-        <v>0.810526315789474</v>
+        <v>0.830535571542766</v>
       </c>
       <c r="K45">
-        <v>0.0970451821684476</v>
+        <v>0.133189716232595</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>0.0319744204636291</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>0.0279776179056755</v>
       </c>
       <c r="N45">
-        <v>4.11547152389298</v>
+        <v>5.68106698847909</v>
       </c>
       <c r="O45">
-        <v>95</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -3427,31 +3427,31 @@
         <v>212</v>
       </c>
       <c r="G46">
-        <v>0.172113897150029</v>
+        <v>0.194451824357085</v>
       </c>
       <c r="H46">
-        <v>0.0309278350515464</v>
+        <v>0.0646964856230032</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>0.0335463258785942</v>
       </c>
       <c r="J46">
-        <v>0.907216494845361</v>
+        <v>0.907348242811502</v>
       </c>
       <c r="K46">
-        <v>0.158493203116326</v>
+        <v>0.18276888577699</v>
       </c>
       <c r="L46">
-        <v>0.0103092783505155</v>
+        <v>0.0575079872204473</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>0.0335463258785942</v>
       </c>
       <c r="N46">
-        <v>4.16858967204679</v>
+        <v>6.18484081253769</v>
       </c>
       <c r="O46">
-        <v>97</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -3474,31 +3474,31 @@
         <v>213</v>
       </c>
       <c r="G47">
-        <v>0.50776948358</v>
+        <v>0.439299766986648</v>
       </c>
       <c r="H47">
-        <v>0.34</v>
+        <v>0.261730205278592</v>
       </c>
       <c r="I47">
-        <v>0.23</v>
+        <v>0.211143695014663</v>
       </c>
       <c r="J47">
-        <v>0.99</v>
+        <v>0.943548387096774</v>
       </c>
       <c r="K47">
-        <v>0.50587528358</v>
+        <v>0.432141112062887</v>
       </c>
       <c r="L47">
-        <v>0.34</v>
+        <v>0.258797653958944</v>
       </c>
       <c r="M47">
-        <v>0.23</v>
+        <v>0.208944281524927</v>
       </c>
       <c r="N47">
-        <v>3.61085394031325</v>
+        <v>4.8697879664293</v>
       </c>
       <c r="O47">
-        <v>100</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3521,31 +3521,31 @@
         <v>214</v>
       </c>
       <c r="G48">
-        <v>0.59975404</v>
+        <v>0.61615149256694</v>
       </c>
       <c r="H48">
-        <v>0.55</v>
+        <v>0.570909090909091</v>
       </c>
       <c r="I48">
-        <v>0.51</v>
+        <v>0.524363636363636</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>0.960727272727273</v>
       </c>
       <c r="K48">
-        <v>0.59975404</v>
+        <v>0.606258704814326</v>
       </c>
       <c r="L48">
-        <v>0.55</v>
+        <v>0.562909090909091</v>
       </c>
       <c r="M48">
-        <v>0.51</v>
+        <v>0.516363636363636</v>
       </c>
       <c r="N48">
-        <v>3.5714352439539</v>
+        <v>5.68356546928615</v>
       </c>
       <c r="O48">
-        <v>100</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3568,31 +3568,31 @@
         <v>215</v>
       </c>
       <c r="G49">
-        <v>0.0373838972492669</v>
+        <v>0.0650701265600372</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>0.0306122448979592</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>0.0269679300291545</v>
       </c>
       <c r="J49">
-        <v>0.808080808080808</v>
+        <v>0.727405247813411</v>
       </c>
       <c r="K49">
-        <v>0.035239158819386</v>
+        <v>0.0616197688096233</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>0.0306122448979592</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>0.0269679300291545</v>
       </c>
       <c r="N49">
-        <v>4.30603566002801</v>
+        <v>5.88921427859597</v>
       </c>
       <c r="O49">
-        <v>99</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="50" spans="1:15">
@@ -3615,31 +3615,31 @@
         <v>216</v>
       </c>
       <c r="G50">
-        <v>0.733768290482445</v>
+        <v>0.638495441258635</v>
       </c>
       <c r="H50">
-        <v>0.680412371134021</v>
+        <v>0.583394562821455</v>
       </c>
       <c r="I50">
-        <v>0.680412371134021</v>
+        <v>0.567229977957384</v>
       </c>
       <c r="J50">
-        <v>0.938144329896907</v>
+        <v>0.859662013225569</v>
       </c>
       <c r="K50">
-        <v>0.731532824742268</v>
+        <v>0.630469241311005</v>
       </c>
       <c r="L50">
-        <v>0.680412371134021</v>
+        <v>0.582659808963997</v>
       </c>
       <c r="M50">
-        <v>0.680412371134021</v>
+        <v>0.566495224099926</v>
       </c>
       <c r="N50">
-        <v>2.09155687497472</v>
+        <v>3.93361586002584</v>
       </c>
       <c r="O50">
-        <v>97</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="51" spans="1:15">
@@ -3662,31 +3662,31 @@
         <v>217</v>
       </c>
       <c r="G51">
-        <v>0.953513435</v>
+        <v>0.909367915840495</v>
       </c>
       <c r="H51">
-        <v>0.959183673469388</v>
+        <v>0.914307004470939</v>
       </c>
       <c r="I51">
-        <v>0.897959183673469</v>
+        <v>0.842771982116244</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>0.00521609538002981</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>0.00448968310550119</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>0.00447093889716841</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>0.00447093889716841</v>
       </c>
       <c r="N51">
-        <v>0.839556365373903</v>
+        <v>2.30132169775563</v>
       </c>
       <c r="O51">
-        <v>98</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3709,31 +3709,31 @@
         <v>218</v>
       </c>
       <c r="G52">
-        <v>0.93653245372449</v>
+        <v>0.917032598163039</v>
       </c>
       <c r="H52">
-        <v>0.928571428571429</v>
+        <v>0.898484848484848</v>
       </c>
       <c r="I52">
-        <v>0.897959183673469</v>
+        <v>0.862121212121212</v>
       </c>
       <c r="J52">
-        <v>0.979591836734694</v>
+        <v>0.964393939393939</v>
       </c>
       <c r="K52">
-        <v>0.93365306122449</v>
+        <v>0.900072284045455</v>
       </c>
       <c r="L52">
-        <v>0.928571428571429</v>
+        <v>0.88030303030303</v>
       </c>
       <c r="M52">
-        <v>0.897959183673469</v>
+        <v>0.853787878787879</v>
       </c>
       <c r="N52">
-        <v>1.93234589040767</v>
+        <v>3.0777750939932</v>
       </c>
       <c r="O52">
-        <v>98</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -3756,31 +3756,31 @@
         <v>219</v>
       </c>
       <c r="G53">
-        <v>0.946033877551021</v>
+        <v>0.897009395163388</v>
       </c>
       <c r="H53">
-        <v>0.928571428571429</v>
+        <v>0.882923191648024</v>
       </c>
       <c r="I53">
-        <v>0.918367346938776</v>
+        <v>0.84862043251305</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>0.979865771812081</v>
       </c>
       <c r="K53">
-        <v>0.946033877551021</v>
+        <v>0.885999285033556</v>
       </c>
       <c r="L53">
-        <v>0.928571428571429</v>
+        <v>0.871737509321402</v>
       </c>
       <c r="M53">
-        <v>0.918367346938776</v>
+        <v>0.838926174496644</v>
       </c>
       <c r="N53">
-        <v>0.839556365373903</v>
+        <v>2.29987765443434</v>
       </c>
       <c r="O53">
-        <v>98</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -3803,31 +3803,31 @@
         <v>220</v>
       </c>
       <c r="G54">
-        <v>0.946033877551021</v>
+        <v>0.897009395163388</v>
       </c>
       <c r="H54">
-        <v>0.928571428571429</v>
+        <v>0.882923191648024</v>
       </c>
       <c r="I54">
-        <v>0.918367346938776</v>
+        <v>0.84862043251305</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>0.979865771812081</v>
       </c>
       <c r="K54">
-        <v>0.946033877551021</v>
+        <v>0.885999285033556</v>
       </c>
       <c r="L54">
-        <v>0.928571428571429</v>
+        <v>0.871737509321402</v>
       </c>
       <c r="M54">
-        <v>0.918367346938776</v>
+        <v>0.838926174496644</v>
       </c>
       <c r="N54">
-        <v>0.839556365373903</v>
+        <v>2.29987765443434</v>
       </c>
       <c r="O54">
-        <v>98</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -3850,31 +3850,31 @@
         <v>221</v>
       </c>
       <c r="G55">
-        <v>0.564680883261225</v>
+        <v>0.542700519285638</v>
       </c>
       <c r="H55">
-        <v>0.918367346938776</v>
+        <v>0.874720357941834</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>0.00149142431021626</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>0.979865771812081</v>
       </c>
       <c r="K55">
-        <v>0.564680883261225</v>
+        <v>0.536117293838912</v>
       </c>
       <c r="L55">
-        <v>0.918367346938776</v>
+        <v>0.865026099925429</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>0.00149142431021626</v>
       </c>
       <c r="N55">
-        <v>0.839556365373903</v>
+        <v>2.30132169775563</v>
       </c>
       <c r="O55">
-        <v>98</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="56" spans="1:15">
@@ -3897,31 +3897,31 @@
         <v>222</v>
       </c>
       <c r="G56">
-        <v>0.929129210285715</v>
+        <v>0.892623220079211</v>
       </c>
       <c r="H56">
-        <v>0.928571428571429</v>
+        <v>0.887793783169067</v>
       </c>
       <c r="I56">
-        <v>0.928571428571429</v>
+        <v>0.854435178165277</v>
       </c>
       <c r="J56">
-        <v>0.989795918367347</v>
+        <v>0.976497346474602</v>
       </c>
       <c r="K56">
-        <v>0.927157210285715</v>
+        <v>0.878937640967777</v>
       </c>
       <c r="L56">
-        <v>0.928571428571429</v>
+        <v>0.872630780894617</v>
       </c>
       <c r="M56">
-        <v>0.928571428571429</v>
+        <v>0.843062926459439</v>
       </c>
       <c r="N56">
-        <v>1.65416003391818</v>
+        <v>2.9598765879773</v>
       </c>
       <c r="O56">
-        <v>98</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="57" spans="1:15">
@@ -3944,31 +3944,31 @@
         <v>223</v>
       </c>
       <c r="G57">
-        <v>0.0966507469568817</v>
+        <v>0.0893428008858718</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>0.000750750750750751</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>0.000750750750750751</v>
       </c>
       <c r="J57">
-        <v>0.979591836734694</v>
+        <v>0.905405405405405</v>
       </c>
       <c r="K57">
-        <v>0.0919394424025449</v>
+        <v>0.0832879207233102</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>0.000750750750750751</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>0.000750750750750751</v>
       </c>
       <c r="N57">
-        <v>1.8641497599239</v>
+        <v>3.21096109494894</v>
       </c>
       <c r="O57">
-        <v>98</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -3991,31 +3991,31 @@
         <v>224</v>
       </c>
       <c r="G58">
-        <v>0.985347150537634</v>
+        <v>0.902762031758975</v>
       </c>
       <c r="H58">
-        <v>0.978494623655914</v>
+        <v>0.89340490797546</v>
       </c>
       <c r="I58">
-        <v>0.978494623655914</v>
+        <v>0.835122699386503</v>
       </c>
       <c r="J58">
-        <v>1</v>
+        <v>0.97239263803681</v>
       </c>
       <c r="K58">
-        <v>0.985347150537634</v>
+        <v>0.895087798820034</v>
       </c>
       <c r="L58">
-        <v>0.978494623655914</v>
+        <v>0.888803680981595</v>
       </c>
       <c r="M58">
-        <v>0.978494623655914</v>
+        <v>0.830521472392638</v>
       </c>
       <c r="N58">
-        <v>0.99977748931331</v>
+        <v>2.88355234031107</v>
       </c>
       <c r="O58">
-        <v>93</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -4038,31 +4038,31 @@
         <v>225</v>
       </c>
       <c r="G59">
-        <v>0.976280268817204</v>
+        <v>0.951718305920488</v>
       </c>
       <c r="H59">
-        <v>0.989247311827957</v>
+        <v>0.961392884178653</v>
       </c>
       <c r="I59">
-        <v>0.935483870967742</v>
+        <v>0.905374716124148</v>
       </c>
       <c r="J59">
-        <v>0.989247311827957</v>
+        <v>0.957607872823618</v>
       </c>
       <c r="K59">
-        <v>0.965527580645161</v>
+        <v>0.924889518045956</v>
       </c>
       <c r="L59">
-        <v>0.978494623655914</v>
+        <v>0.934897804693414</v>
       </c>
       <c r="M59">
-        <v>0.924731182795699</v>
+        <v>0.884178652535958</v>
       </c>
       <c r="N59">
-        <v>0.957268500730921</v>
+        <v>2.04604471326368</v>
       </c>
       <c r="O59">
-        <v>93</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -4085,13 +4085,13 @@
         <v>226</v>
       </c>
       <c r="G60">
-        <v>0.894842098923772</v>
+        <v>0.692249585715603</v>
       </c>
       <c r="H60">
-        <v>0.968421052631579</v>
+        <v>0.700526711813394</v>
       </c>
       <c r="I60">
-        <v>0.894736842105263</v>
+        <v>0.63882618510158</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>2.14914097322882</v>
+        <v>4.3307332875547</v>
       </c>
       <c r="O60">
-        <v>95</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="61" spans="1:15">
@@ -4132,31 +4132,31 @@
         <v>227</v>
       </c>
       <c r="G61">
-        <v>0.903902205375612</v>
+        <v>0.738356094035053</v>
       </c>
       <c r="H61">
-        <v>0.89010989010989</v>
+        <v>0.755968169761273</v>
       </c>
       <c r="I61">
-        <v>0.857142857142857</v>
+        <v>0.625994694960212</v>
       </c>
       <c r="J61">
-        <v>0.989010989010989</v>
+        <v>0.981432360742706</v>
       </c>
       <c r="K61">
-        <v>0.903330590372418</v>
+        <v>0.735876984821936</v>
       </c>
       <c r="L61">
-        <v>0.89010989010989</v>
+        <v>0.753315649867374</v>
       </c>
       <c r="M61">
-        <v>0.857142857142857</v>
+        <v>0.625994694960212</v>
       </c>
       <c r="N61">
-        <v>3.18711682690503</v>
+        <v>3.79020057310525</v>
       </c>
       <c r="O61">
-        <v>91</v>
+        <v>377</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -4179,31 +4179,31 @@
         <v>228</v>
       </c>
       <c r="G62">
-        <v>0.596799337387566</v>
+        <v>0.566835956792768</v>
       </c>
       <c r="H62">
-        <v>0.576923076923077</v>
+        <v>0.543778801843318</v>
       </c>
       <c r="I62">
-        <v>0.282051282051282</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>0.993087557603687</v>
       </c>
       <c r="K62">
-        <v>0.596799337387566</v>
+        <v>0.56540182594029</v>
       </c>
       <c r="L62">
-        <v>0.576923076923077</v>
+        <v>0.54147465437788</v>
       </c>
       <c r="M62">
-        <v>0.282051282051282</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="N62">
-        <v>4.35752490868933</v>
+        <v>4.28905468307688</v>
       </c>
       <c r="O62">
-        <v>78</v>
+        <v>434</v>
       </c>
     </row>
     <row r="63" spans="1:15">
@@ -4226,31 +4226,31 @@
         <v>229</v>
       </c>
       <c r="G63">
-        <v>0.95149015</v>
+        <v>0.934480962702387</v>
       </c>
       <c r="H63">
-        <v>0.95</v>
+        <v>0.925373134328358</v>
       </c>
       <c r="I63">
-        <v>0.9375</v>
+        <v>0.904051172707889</v>
       </c>
       <c r="J63">
-        <v>0.975</v>
+        <v>0.987206823027719</v>
       </c>
       <c r="K63">
-        <v>0.92649015</v>
+        <v>0.928011488035996</v>
       </c>
       <c r="L63">
-        <v>0.925</v>
+        <v>0.918976545842217</v>
       </c>
       <c r="M63">
-        <v>0.9125</v>
+        <v>0.897654584221748</v>
       </c>
       <c r="N63">
-        <v>2.87550230895619</v>
+        <v>2.82799410341281</v>
       </c>
       <c r="O63">
-        <v>80</v>
+        <v>469</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -4273,31 +4273,31 @@
         <v>230</v>
       </c>
       <c r="G64">
-        <v>0.886903345454948</v>
+        <v>0.918695198700106</v>
       </c>
       <c r="H64">
-        <v>0.8875</v>
+        <v>0.921325051759834</v>
       </c>
       <c r="I64">
-        <v>0.8375</v>
+        <v>0.869565217391304</v>
       </c>
       <c r="J64">
-        <v>0.9625</v>
+        <v>0.979296066252588</v>
       </c>
       <c r="K64">
-        <v>0.8863959375</v>
+        <v>0.913942441797971</v>
       </c>
       <c r="L64">
-        <v>0.8875</v>
+        <v>0.917184265010352</v>
       </c>
       <c r="M64">
-        <v>0.8375</v>
+        <v>0.865424430641822</v>
       </c>
       <c r="N64">
-        <v>2.96136450659265</v>
+        <v>2.71686075827078</v>
       </c>
       <c r="O64">
-        <v>80</v>
+        <v>483</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -4320,31 +4320,31 @@
         <v>231</v>
       </c>
       <c r="G65">
-        <v>0.856686288364299</v>
+        <v>0.786813993378019</v>
       </c>
       <c r="H65">
-        <v>0.817073170731707</v>
+        <v>0.756147540983607</v>
       </c>
       <c r="I65">
-        <v>0.768292682926829</v>
+        <v>0.706967213114754</v>
       </c>
       <c r="J65">
-        <v>0.98780487804878</v>
+        <v>0.983606557377049</v>
       </c>
       <c r="K65">
-        <v>0.856523901246709</v>
+        <v>0.783845970725248</v>
       </c>
       <c r="L65">
-        <v>0.817073170731707</v>
+        <v>0.754098360655738</v>
       </c>
       <c r="M65">
-        <v>0.768292682926829</v>
+        <v>0.704918032786885</v>
       </c>
       <c r="N65">
-        <v>2.83993530776983</v>
+        <v>2.62871100998389</v>
       </c>
       <c r="O65">
-        <v>82</v>
+        <v>488</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -4367,31 +4367,31 @@
         <v>181</v>
       </c>
       <c r="G66">
-        <v>0.903902205375612</v>
+        <v>0.744456599614546</v>
       </c>
       <c r="H66">
-        <v>0.89010989010989</v>
+        <v>0.761658031088083</v>
       </c>
       <c r="I66">
-        <v>0.857142857142857</v>
+        <v>0.634715025906736</v>
       </c>
       <c r="J66">
-        <v>0.989010989010989</v>
+        <v>0.981865284974093</v>
       </c>
       <c r="K66">
-        <v>0.903330590372417</v>
+        <v>0.742035293465984</v>
       </c>
       <c r="L66">
-        <v>0.89010989010989</v>
+        <v>0.759067357512953</v>
       </c>
       <c r="M66">
-        <v>0.857142857142857</v>
+        <v>0.634715025906736</v>
       </c>
       <c r="N66">
-        <v>3.24860919756886</v>
+        <v>3.74626818958162</v>
       </c>
       <c r="O66">
-        <v>91</v>
+        <v>386</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -4414,31 +4414,31 @@
         <v>232</v>
       </c>
       <c r="G67">
-        <v>0.506564726769098</v>
+        <v>0.474204246230262</v>
       </c>
       <c r="H67">
-        <v>0.746987951807229</v>
+        <v>0.703853955375254</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0.975903614457831</v>
+        <v>0.979716024340771</v>
       </c>
       <c r="K67">
-        <v>0.506093141456014</v>
+        <v>0.472203795668146</v>
       </c>
       <c r="L67">
-        <v>0.746987951807229</v>
+        <v>0.701825557809331</v>
       </c>
       <c r="M67">
         <v>0</v>
       </c>
       <c r="N67">
-        <v>2.88036585189155</v>
+        <v>2.66017761804901</v>
       </c>
       <c r="O67">
-        <v>83</v>
+        <v>493</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -4461,31 +4461,31 @@
         <v>233</v>
       </c>
       <c r="G68">
-        <v>0.725891472699444</v>
+        <v>0.68319354030972</v>
       </c>
       <c r="H68">
-        <v>0.717171717171717</v>
+        <v>0.631710362047441</v>
       </c>
       <c r="I68">
-        <v>0.636363636363636</v>
+        <v>0.553058676654182</v>
       </c>
       <c r="J68">
-        <v>0.94949494949495</v>
+        <v>0.948813982521848</v>
       </c>
       <c r="K68">
-        <v>0.723746558559066</v>
+        <v>0.676517122649381</v>
       </c>
       <c r="L68">
-        <v>0.717171717171717</v>
+        <v>0.626716604244694</v>
       </c>
       <c r="M68">
-        <v>0.636363636363636</v>
+        <v>0.549313358302122</v>
       </c>
       <c r="N68">
-        <v>4.17302838105533</v>
+        <v>5.27346382403279</v>
       </c>
       <c r="O68">
-        <v>99</v>
+        <v>801</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -4508,31 +4508,31 @@
         <v>234</v>
       </c>
       <c r="G69">
-        <v>0.942321714285714</v>
+        <v>0.904881970167898</v>
       </c>
       <c r="H69">
-        <v>0.928571428571429</v>
+        <v>0.887793783169067</v>
       </c>
       <c r="I69">
-        <v>0.928571428571429</v>
+        <v>0.854435178165277</v>
       </c>
       <c r="J69">
-        <v>0.989795918367347</v>
+        <v>0.976497346474602</v>
       </c>
       <c r="K69">
-        <v>0.940321714285714</v>
+        <v>0.891002744097803</v>
       </c>
       <c r="L69">
-        <v>0.928571428571429</v>
+        <v>0.872630780894617</v>
       </c>
       <c r="M69">
-        <v>0.928571428571429</v>
+        <v>0.843062926459439</v>
       </c>
       <c r="N69">
-        <v>1.65416003391818</v>
+        <v>2.9598765879773</v>
       </c>
       <c r="O69">
-        <v>98</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -4555,31 +4555,31 @@
         <v>235</v>
       </c>
       <c r="G70">
-        <v>0.832445821964808</v>
+        <v>0.805340480933154</v>
       </c>
       <c r="H70">
-        <v>0.777777777777778</v>
+        <v>0.767234988880652</v>
       </c>
       <c r="I70">
-        <v>0.757575757575758</v>
+        <v>0.680504077094144</v>
       </c>
       <c r="J70">
-        <v>0.98989898989899</v>
+        <v>0.985915492957746</v>
       </c>
       <c r="K70">
-        <v>0.826839761358747</v>
+        <v>0.801707363429532</v>
       </c>
       <c r="L70">
-        <v>0.767676767676768</v>
+        <v>0.764269829503336</v>
       </c>
       <c r="M70">
-        <v>0.757575757575758</v>
+        <v>0.679021497405486</v>
       </c>
       <c r="N70">
-        <v>2.56407135330461</v>
+        <v>4.18899116697892</v>
       </c>
       <c r="O70">
-        <v>99</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -4602,31 +4602,31 @@
         <v>236</v>
       </c>
       <c r="G71">
-        <v>0.700157707070707</v>
+        <v>0.780612967443077</v>
       </c>
       <c r="H71">
-        <v>0.646464646464647</v>
+        <v>0.740740740740741</v>
       </c>
       <c r="I71">
-        <v>0.646464646464647</v>
+        <v>0.727891156462585</v>
       </c>
       <c r="J71">
-        <v>0.97979797979798</v>
+        <v>0.963718820861678</v>
       </c>
       <c r="K71">
-        <v>0.687349626262626</v>
+        <v>0.771751343373468</v>
       </c>
       <c r="L71">
-        <v>0.636363636363636</v>
+        <v>0.73318216175359</v>
       </c>
       <c r="M71">
-        <v>0.636363636363636</v>
+        <v>0.72108843537415</v>
       </c>
       <c r="N71">
-        <v>2.50504452683873</v>
+        <v>3.2988062868948</v>
       </c>
       <c r="O71">
-        <v>99</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -4649,31 +4649,31 @@
         <v>204</v>
       </c>
       <c r="G72">
-        <v>0.949422765371773</v>
+        <v>0.921880736749579</v>
       </c>
       <c r="H72">
-        <v>0.939393939393939</v>
+        <v>0.904109589041096</v>
       </c>
       <c r="I72">
-        <v>0.939393939393939</v>
+        <v>0.901826484018265</v>
       </c>
       <c r="J72">
-        <v>0.95959595959596</v>
+        <v>0.970319634703196</v>
       </c>
       <c r="K72">
-        <v>0.928909090909091</v>
+        <v>0.913149516758586</v>
       </c>
       <c r="L72">
-        <v>0.919191919191919</v>
+        <v>0.897260273972603</v>
       </c>
       <c r="M72">
-        <v>0.919191919191919</v>
+        <v>0.894977168949772</v>
       </c>
       <c r="N72">
-        <v>0.801188403078017</v>
+        <v>1.22978373627946</v>
       </c>
       <c r="O72">
-        <v>99</v>
+        <v>438</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -4696,31 +4696,31 @@
         <v>181</v>
       </c>
       <c r="G73">
-        <v>0.903902205375612</v>
+        <v>0.744456599614546</v>
       </c>
       <c r="H73">
-        <v>0.89010989010989</v>
+        <v>0.761658031088083</v>
       </c>
       <c r="I73">
-        <v>0.857142857142857</v>
+        <v>0.634715025906736</v>
       </c>
       <c r="J73">
-        <v>0.989010989010989</v>
+        <v>0.981865284974093</v>
       </c>
       <c r="K73">
-        <v>0.903330590372417</v>
+        <v>0.742035293465984</v>
       </c>
       <c r="L73">
-        <v>0.89010989010989</v>
+        <v>0.759067357512953</v>
       </c>
       <c r="M73">
-        <v>0.857142857142857</v>
+        <v>0.634715025906736</v>
       </c>
       <c r="N73">
-        <v>3.24860919756886</v>
+        <v>3.74626818958162</v>
       </c>
       <c r="O73">
-        <v>91</v>
+        <v>386</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4743,31 +4743,31 @@
         <v>237</v>
       </c>
       <c r="G74">
-        <v>0.746405242424243</v>
+        <v>0.776270450335787</v>
       </c>
       <c r="H74">
-        <v>0.606060606060606</v>
+        <v>0.696307460437076</v>
       </c>
       <c r="I74">
-        <v>0.606060606060606</v>
+        <v>0.688018085908063</v>
       </c>
       <c r="J74">
-        <v>0.98989898989899</v>
+        <v>0.963828183873399</v>
       </c>
       <c r="K74">
-        <v>0.736304232323232</v>
+        <v>0.769498758775698</v>
       </c>
       <c r="L74">
-        <v>0.595959595959596</v>
+        <v>0.691032403918613</v>
       </c>
       <c r="M74">
-        <v>0.595959595959596</v>
+        <v>0.682743029389601</v>
       </c>
       <c r="N74">
-        <v>2.15668984825046</v>
+        <v>2.61531160191328</v>
       </c>
       <c r="O74">
-        <v>99</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -4790,31 +4790,31 @@
         <v>238</v>
       </c>
       <c r="G75">
-        <v>0.949422765371773</v>
+        <v>0.921880736749579</v>
       </c>
       <c r="H75">
-        <v>0.939393939393939</v>
+        <v>0.904109589041096</v>
       </c>
       <c r="I75">
-        <v>0.939393939393939</v>
+        <v>0.901826484018265</v>
       </c>
       <c r="J75">
-        <v>0.95959595959596</v>
+        <v>0.970319634703196</v>
       </c>
       <c r="K75">
-        <v>0.928909090909091</v>
+        <v>0.913149516758586</v>
       </c>
       <c r="L75">
-        <v>0.919191919191919</v>
+        <v>0.897260273972603</v>
       </c>
       <c r="M75">
-        <v>0.919191919191919</v>
+        <v>0.894977168949772</v>
       </c>
       <c r="N75">
-        <v>0.801188403078017</v>
+        <v>1.22978373627946</v>
       </c>
       <c r="O75">
-        <v>99</v>
+        <v>438</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -4837,31 +4837,31 @@
         <v>239</v>
       </c>
       <c r="G76">
-        <v>0.639630013115868</v>
+        <v>0.718186969255358</v>
       </c>
       <c r="H76">
-        <v>0.67</v>
+        <v>0.824299065420561</v>
       </c>
       <c r="I76">
-        <v>0.47</v>
+        <v>0.480373831775701</v>
       </c>
       <c r="J76">
-        <v>0.72</v>
+        <v>0.867289719626168</v>
       </c>
       <c r="K76">
-        <v>0.595283098187586</v>
+        <v>0.669959961857976</v>
       </c>
       <c r="L76">
-        <v>0.63</v>
+        <v>0.770093457943925</v>
       </c>
       <c r="M76">
-        <v>0.45</v>
+        <v>0.457943925233645</v>
       </c>
       <c r="N76">
-        <v>2.87394225565193</v>
+        <v>3.96036636906972</v>
       </c>
       <c r="O76">
-        <v>100</v>
+        <v>535</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -4884,31 +4884,31 @@
         <v>240</v>
       </c>
       <c r="G77">
-        <v>0.840479196371772</v>
+        <v>0.817241058173239</v>
       </c>
       <c r="H77">
-        <v>0.842696629213483</v>
+        <v>0.807017543859649</v>
       </c>
       <c r="I77">
-        <v>0.741573033707865</v>
+        <v>0.72280701754386</v>
       </c>
       <c r="J77">
-        <v>0.955056179775281</v>
+        <v>0.968421052631579</v>
       </c>
       <c r="K77">
-        <v>0.825365393258427</v>
+        <v>0.806832540730768</v>
       </c>
       <c r="L77">
-        <v>0.820224719101124</v>
+        <v>0.796491228070175</v>
       </c>
       <c r="M77">
-        <v>0.741573033707865</v>
+        <v>0.715789473684211</v>
       </c>
       <c r="N77">
-        <v>2.64736338405209</v>
+        <v>2.93200291828835</v>
       </c>
       <c r="O77">
-        <v>89</v>
+        <v>570</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4931,31 +4931,31 @@
         <v>241</v>
       </c>
       <c r="G78">
-        <v>0.791261014380012</v>
+        <v>0.740400794026266</v>
       </c>
       <c r="H78">
-        <v>0.76</v>
+        <v>0.685124864277959</v>
       </c>
       <c r="I78">
-        <v>0.72</v>
+        <v>0.630836047774158</v>
       </c>
       <c r="J78">
-        <v>0.95</v>
+        <v>0.964169381107492</v>
       </c>
       <c r="K78">
-        <v>0.79039906235732</v>
+        <v>0.739525677074221</v>
       </c>
       <c r="L78">
-        <v>0.76</v>
+        <v>0.685124864277959</v>
       </c>
       <c r="M78">
-        <v>0.72</v>
+        <v>0.630836047774158</v>
       </c>
       <c r="N78">
-        <v>2.92460434401915</v>
+        <v>4.36426268842462</v>
       </c>
       <c r="O78">
-        <v>100</v>
+        <v>921</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4978,31 +4978,31 @@
         <v>242</v>
       </c>
       <c r="G79">
-        <v>0.768737394399133</v>
+        <v>0.646003708164849</v>
       </c>
       <c r="H79">
-        <v>0.76</v>
+        <v>0.612554112554113</v>
       </c>
       <c r="I79">
-        <v>0.76</v>
+        <v>0.584415584415584</v>
       </c>
       <c r="J79">
-        <v>0.79</v>
+        <v>0.726551226551227</v>
       </c>
       <c r="K79">
-        <v>0.73198768656</v>
+        <v>0.612453019577016</v>
       </c>
       <c r="L79">
-        <v>0.73</v>
+        <v>0.601010101010101</v>
       </c>
       <c r="M79">
-        <v>0.73</v>
+        <v>0.573593073593074</v>
       </c>
       <c r="N79">
-        <v>2.45188003464093</v>
+        <v>4.16980328476335</v>
       </c>
       <c r="O79">
-        <v>100</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -5025,31 +5025,31 @@
         <v>243</v>
       </c>
       <c r="G80">
-        <v>0.375204654703082</v>
+        <v>0.263185907176932</v>
       </c>
       <c r="H80">
-        <v>0.31</v>
+        <v>0.173652694610778</v>
       </c>
       <c r="I80">
-        <v>0.29</v>
+        <v>0.163173652694611</v>
       </c>
       <c r="J80">
-        <v>0.82</v>
+        <v>0.706586826347305</v>
       </c>
       <c r="K80">
-        <v>0.35528059435</v>
+        <v>0.233713168416198</v>
       </c>
       <c r="L80">
-        <v>0.31</v>
+        <v>0.173652694610778</v>
       </c>
       <c r="M80">
-        <v>0.29</v>
+        <v>0.163173652694611</v>
       </c>
       <c r="N80">
-        <v>3.77795539887046</v>
+        <v>5.02576326773487</v>
       </c>
       <c r="O80">
-        <v>100</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -5072,31 +5072,31 @@
         <v>244</v>
       </c>
       <c r="G81">
-        <v>0.946033877551021</v>
+        <v>0.897009395163388</v>
       </c>
       <c r="H81">
-        <v>0.928571428571429</v>
+        <v>0.882923191648024</v>
       </c>
       <c r="I81">
-        <v>0.918367346938776</v>
+        <v>0.84862043251305</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>0.979865771812081</v>
       </c>
       <c r="K81">
-        <v>0.946033877551021</v>
+        <v>0.885999285033556</v>
       </c>
       <c r="L81">
-        <v>0.928571428571429</v>
+        <v>0.871737509321402</v>
       </c>
       <c r="M81">
-        <v>0.918367346938776</v>
+        <v>0.838926174496644</v>
       </c>
       <c r="N81">
-        <v>0.839556365373903</v>
+        <v>2.29987765443434</v>
       </c>
       <c r="O81">
-        <v>98</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -5119,31 +5119,31 @@
         <v>245</v>
       </c>
       <c r="G82">
-        <v>0.97050252688172</v>
+        <v>0.91754948485884</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0.920091324200913</v>
       </c>
       <c r="I82">
-        <v>0.924731182795699</v>
+        <v>0.837138508371385</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>0.960426179604262</v>
       </c>
       <c r="K82">
-        <v>0.97050252688172</v>
+        <v>0.898798781628615</v>
       </c>
       <c r="L82">
-        <v>1</v>
+        <v>0.904870624048706</v>
       </c>
       <c r="M82">
-        <v>0.924731182795699</v>
+        <v>0.824961948249619</v>
       </c>
       <c r="N82">
-        <v>0.957268500730921</v>
+        <v>2.13840092526582</v>
       </c>
       <c r="O82">
-        <v>93</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -5166,7 +5166,7 @@
         <v>246</v>
       </c>
       <c r="G83">
-        <v>0.340931926532107</v>
+        <v>0.334150379745046</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -5175,10 +5175,10 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>0.797979797979798</v>
+        <v>0.812223858615611</v>
       </c>
       <c r="K83">
-        <v>0.327631424242425</v>
+        <v>0.31857371729553</v>
       </c>
       <c r="L83">
         <v>0</v>
@@ -5187,10 +5187,10 @@
         <v>0</v>
       </c>
       <c r="N83">
-        <v>1.24175447165502</v>
+        <v>2.86020466792871</v>
       </c>
       <c r="O83">
-        <v>99</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -5213,31 +5213,31 @@
         <v>247</v>
       </c>
       <c r="G84">
-        <v>0.815908609889684</v>
+        <v>0.743505212379465</v>
       </c>
       <c r="H84">
-        <v>0.873684210526316</v>
+        <v>0.792</v>
       </c>
       <c r="I84">
-        <v>0.705263157894737</v>
+        <v>0.5856</v>
       </c>
       <c r="J84">
-        <v>0.978947368421053</v>
+        <v>0.968</v>
       </c>
       <c r="K84">
-        <v>0.799769346731789</v>
+        <v>0.724623064030499</v>
       </c>
       <c r="L84">
-        <v>0.852631578947368</v>
+        <v>0.7696</v>
       </c>
       <c r="M84">
-        <v>0.694736842105263</v>
+        <v>0.572</v>
       </c>
       <c r="N84">
-        <v>2.23759127386008</v>
+        <v>3.59764397297095</v>
       </c>
       <c r="O84">
-        <v>95</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -5260,31 +5260,31 @@
         <v>248</v>
       </c>
       <c r="G85">
-        <v>0.172169884195465</v>
+        <v>0.180556434183738</v>
       </c>
       <c r="H85">
-        <v>0.09</v>
+        <v>0.104619712214649</v>
       </c>
       <c r="I85">
-        <v>0.04</v>
+        <v>0.070828374625843</v>
       </c>
       <c r="J85">
-        <v>0.71</v>
+        <v>0.64874319304699</v>
       </c>
       <c r="K85">
-        <v>0.166365986653723</v>
+        <v>0.167501101151977</v>
       </c>
       <c r="L85">
-        <v>0.09</v>
+        <v>0.104223015615421</v>
       </c>
       <c r="M85">
-        <v>0.04</v>
+        <v>0.0705398680082224</v>
       </c>
       <c r="N85">
-        <v>4.24276208342498</v>
+        <v>8.78588081129575</v>
       </c>
       <c r="O85">
-        <v>100</v>
+        <v>27729</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -5307,31 +5307,31 @@
         <v>249</v>
       </c>
       <c r="G86">
-        <v>0.95659</v>
+        <v>0.948232382195162</v>
       </c>
       <c r="H86">
-        <v>0.98</v>
+        <v>0.95532322830373</v>
       </c>
       <c r="I86">
-        <v>0.91</v>
+        <v>0.909054733567268</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>0.999167962956264</v>
       </c>
       <c r="K86">
-        <v>0.95659</v>
+        <v>0.947507931488439</v>
       </c>
       <c r="L86">
-        <v>0.98</v>
+        <v>0.954599717830916</v>
       </c>
       <c r="M86">
-        <v>0.91</v>
+        <v>0.908331223094454</v>
       </c>
       <c r="N86">
-        <v>0.941172095986552</v>
+        <v>1.57065421239004</v>
       </c>
       <c r="O86">
-        <v>100</v>
+        <v>27643</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -5354,31 +5354,31 @@
         <v>250</v>
       </c>
       <c r="G87">
-        <v>0.629983099999999</v>
+        <v>0.881403384823776</v>
       </c>
       <c r="H87">
-        <v>0.56</v>
+        <v>0.85843323111235</v>
       </c>
       <c r="I87">
-        <v>0.54</v>
+        <v>0.841650404237524</v>
       </c>
       <c r="J87">
-        <v>1</v>
+        <v>0.96303317535545</v>
       </c>
       <c r="K87">
-        <v>0.629983099999999</v>
+        <v>0.852732665020407</v>
       </c>
       <c r="L87">
-        <v>0.56</v>
+        <v>0.832785057150822</v>
       </c>
       <c r="M87">
-        <v>0.54</v>
+        <v>0.816615556175077</v>
       </c>
       <c r="N87">
-        <v>1.58095429422159</v>
+        <v>2.55131653128207</v>
       </c>
       <c r="O87">
-        <v>100</v>
+        <v>17935</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -5401,31 +5401,31 @@
         <v>251</v>
       </c>
       <c r="G88">
-        <v>0.1638901097</v>
+        <v>0.16047795451794</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>0.0214856762158561</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>0.019653564290473</v>
       </c>
       <c r="J88">
-        <v>0.98</v>
+        <v>0.881578947368421</v>
       </c>
       <c r="K88">
-        <v>0.1628786762</v>
+        <v>0.148665719315002</v>
       </c>
       <c r="L88">
-        <v>0</v>
+        <v>0.019653564290473</v>
       </c>
       <c r="M88">
-        <v>0</v>
+        <v>0.0178214523650899</v>
       </c>
       <c r="N88">
-        <v>2.56927510131555</v>
+        <v>6.65687768109007</v>
       </c>
       <c r="O88">
-        <v>100</v>
+        <v>6004</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -5448,31 +5448,31 @@
         <v>185</v>
       </c>
       <c r="G89">
-        <v>0.883150000000001</v>
+        <v>0.714870728490211</v>
       </c>
       <c r="H89">
-        <v>0.81</v>
+        <v>0.543167208128845</v>
       </c>
       <c r="I89">
-        <v>0.81</v>
+        <v>0.542337734153591</v>
       </c>
       <c r="J89">
-        <v>1</v>
+        <v>0.997373332411696</v>
       </c>
       <c r="K89">
-        <v>0.883150000000001</v>
+        <v>0.713653424276364</v>
       </c>
       <c r="L89">
-        <v>0.81</v>
+        <v>0.542683348309947</v>
       </c>
       <c r="M89">
-        <v>0.81</v>
+        <v>0.541853874334693</v>
       </c>
       <c r="N89">
-        <v>0.779207486310554</v>
+        <v>1.75088485980889</v>
       </c>
       <c r="O89">
-        <v>100</v>
+        <v>14467</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -5495,31 +5495,31 @@
         <v>252</v>
       </c>
       <c r="G90">
-        <v>0.83634671029127</v>
+        <v>0.813480081125463</v>
       </c>
       <c r="H90">
-        <v>0.855421686746988</v>
+        <v>0.800751879699248</v>
       </c>
       <c r="I90">
-        <v>0.734939759036145</v>
+        <v>0.719924812030075</v>
       </c>
       <c r="J90">
-        <v>0.951807228915663</v>
+        <v>0.969924812030075</v>
       </c>
       <c r="K90">
-        <v>0.826355662650602</v>
+        <v>0.805251030482214</v>
       </c>
       <c r="L90">
-        <v>0.843373493975904</v>
+        <v>0.793233082706767</v>
       </c>
       <c r="M90">
-        <v>0.734939759036145</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="N90">
-        <v>3.03149709804776</v>
+        <v>2.91432539124929</v>
       </c>
       <c r="O90">
-        <v>83</v>
+        <v>532</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -5542,31 +5542,31 @@
         <v>253</v>
       </c>
       <c r="G91">
-        <v>0.786181014380012</v>
+        <v>0.738265494844509</v>
       </c>
       <c r="H91">
-        <v>0.75</v>
+        <v>0.682017543859649</v>
       </c>
       <c r="I91">
-        <v>0.71</v>
+        <v>0.628289473684211</v>
       </c>
       <c r="J91">
-        <v>0.95</v>
+        <v>0.963815789473684</v>
       </c>
       <c r="K91">
-        <v>0.78531906235732</v>
+        <v>0.737381741869911</v>
       </c>
       <c r="L91">
-        <v>0.75</v>
+        <v>0.682017543859649</v>
       </c>
       <c r="M91">
-        <v>0.71</v>
+        <v>0.628289473684211</v>
       </c>
       <c r="N91">
-        <v>2.99644575426893</v>
+        <v>4.38155666293078</v>
       </c>
       <c r="O91">
-        <v>100</v>
+        <v>912</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -5589,31 +5589,31 @@
         <v>254</v>
       </c>
       <c r="G92">
-        <v>0.48026976834864</v>
+        <v>0.298243722222404</v>
       </c>
       <c r="H92">
-        <v>0.414141414141414</v>
+        <v>0.209420289855072</v>
       </c>
       <c r="I92">
-        <v>0.414141414141414</v>
+        <v>0.209420289855072</v>
       </c>
       <c r="J92">
-        <v>0.505050505050505</v>
+        <v>0.357246376811594</v>
       </c>
       <c r="K92">
-        <v>0.369685338181818</v>
+        <v>0.214035651478725</v>
       </c>
       <c r="L92">
-        <v>0.353535353535354</v>
+        <v>0.192753623188406</v>
       </c>
       <c r="M92">
-        <v>0.353535353535354</v>
+        <v>0.192753623188406</v>
       </c>
       <c r="N92">
-        <v>4.32159351100563</v>
+        <v>6.17265819570612</v>
       </c>
       <c r="O92">
-        <v>99</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -5636,31 +5636,31 @@
         <v>255</v>
       </c>
       <c r="G93">
-        <v>0.61811433636598</v>
+        <v>0.490949236498138</v>
       </c>
       <c r="H93">
-        <v>0.44</v>
+        <v>0.337436640115858</v>
       </c>
       <c r="I93">
-        <v>0.43</v>
+        <v>0.306299782766112</v>
       </c>
       <c r="J93">
-        <v>0.97</v>
+        <v>0.876900796524258</v>
       </c>
       <c r="K93">
-        <v>0.61345596325882</v>
+        <v>0.446051182000244</v>
       </c>
       <c r="L93">
-        <v>0.44</v>
+        <v>0.301230992034757</v>
       </c>
       <c r="M93">
-        <v>0.43</v>
+        <v>0.289645184648805</v>
       </c>
       <c r="N93">
-        <v>3.29421192792486</v>
+        <v>5.81232753140697</v>
       </c>
       <c r="O93">
-        <v>100</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -5683,31 +5683,31 @@
         <v>256</v>
       </c>
       <c r="G94">
-        <v>0.686803082648617</v>
+        <v>0.535536642206762</v>
       </c>
       <c r="H94">
-        <v>0.7</v>
+        <v>0.48766328011611</v>
       </c>
       <c r="I94">
-        <v>0.48</v>
+        <v>0.310595065312046</v>
       </c>
       <c r="J94">
-        <v>0.86</v>
+        <v>0.863570391872279</v>
       </c>
       <c r="K94">
-        <v>0.629635242648617</v>
+        <v>0.47502714251776</v>
       </c>
       <c r="L94">
-        <v>0.63</v>
+        <v>0.438316400580552</v>
       </c>
       <c r="M94">
-        <v>0.48</v>
+        <v>0.277213352685051</v>
       </c>
       <c r="N94">
-        <v>3.06214044633627</v>
+        <v>5.68995408300113</v>
       </c>
       <c r="O94">
-        <v>100</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="95" spans="1:15">
@@ -5730,31 +5730,31 @@
         <v>234</v>
       </c>
       <c r="G95">
-        <v>0.942321714285714</v>
+        <v>0.904881970167898</v>
       </c>
       <c r="H95">
-        <v>0.928571428571429</v>
+        <v>0.887793783169067</v>
       </c>
       <c r="I95">
-        <v>0.928571428571429</v>
+        <v>0.854435178165277</v>
       </c>
       <c r="J95">
-        <v>0.989795918367347</v>
+        <v>0.976497346474602</v>
       </c>
       <c r="K95">
-        <v>0.940321714285714</v>
+        <v>0.891002744097803</v>
       </c>
       <c r="L95">
-        <v>0.928571428571429</v>
+        <v>0.872630780894617</v>
       </c>
       <c r="M95">
-        <v>0.928571428571429</v>
+        <v>0.843062926459439</v>
       </c>
       <c r="N95">
-        <v>1.65416003391818</v>
+        <v>2.9598765879773</v>
       </c>
       <c r="O95">
-        <v>98</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -5777,31 +5777,31 @@
         <v>257</v>
       </c>
       <c r="G96">
-        <v>0.954981262626263</v>
+        <v>0.901748316806728</v>
       </c>
       <c r="H96">
-        <v>0.939393939393939</v>
+        <v>0.898050974512744</v>
       </c>
       <c r="I96">
-        <v>0.939393939393939</v>
+        <v>0.850824587706147</v>
       </c>
       <c r="J96">
-        <v>1</v>
+        <v>0.986506746626687</v>
       </c>
       <c r="K96">
-        <v>0.954981262626263</v>
+        <v>0.896450784312852</v>
       </c>
       <c r="L96">
-        <v>0.939393939393939</v>
+        <v>0.892803598200899</v>
       </c>
       <c r="M96">
-        <v>0.939393939393939</v>
+        <v>0.845577211394303</v>
       </c>
       <c r="N96">
-        <v>0.494889620422621</v>
+        <v>1.46977716700958</v>
       </c>
       <c r="O96">
-        <v>99</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -5824,31 +5824,31 @@
         <v>258</v>
       </c>
       <c r="G97">
-        <v>0.92471935</v>
+        <v>0.687022899788569</v>
       </c>
       <c r="H97">
-        <v>0.89</v>
+        <v>0.600680272108844</v>
       </c>
       <c r="I97">
-        <v>0.89</v>
+        <v>0.595068027210884</v>
       </c>
       <c r="J97">
-        <v>0.97</v>
+        <v>0.884353741496599</v>
       </c>
       <c r="K97">
-        <v>0.89471935</v>
+        <v>0.660190588894697</v>
       </c>
       <c r="L97">
-        <v>0.86</v>
+        <v>0.590646258503401</v>
       </c>
       <c r="M97">
-        <v>0.86</v>
+        <v>0.585034013605442</v>
       </c>
       <c r="N97">
-        <v>1.64846969903622</v>
+        <v>4.83247190089833</v>
       </c>
       <c r="O97">
-        <v>100</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="98" spans="1:15">
@@ -5871,31 +5871,31 @@
         <v>259</v>
       </c>
       <c r="G98">
-        <v>0.92528105</v>
+        <v>0.847972808222899</v>
       </c>
       <c r="H98">
-        <v>0.95</v>
+        <v>0.832082093198881</v>
       </c>
       <c r="I98">
-        <v>0.86</v>
+        <v>0.765048198658434</v>
       </c>
       <c r="J98">
-        <v>1</v>
+        <v>0.995291190973302</v>
       </c>
       <c r="K98">
-        <v>0.92528105</v>
+        <v>0.846610295985493</v>
       </c>
       <c r="L98">
-        <v>0.95</v>
+        <v>0.830860468215539</v>
       </c>
       <c r="M98">
-        <v>0.86</v>
+        <v>0.763893207765093</v>
       </c>
       <c r="N98">
-        <v>1.0982131498962</v>
+        <v>2.20598040702089</v>
       </c>
       <c r="O98">
-        <v>100</v>
+        <v>45022</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -5918,31 +5918,31 @@
         <v>260</v>
       </c>
       <c r="G99">
-        <v>0.528854239666746</v>
+        <v>0.38311679927663</v>
       </c>
       <c r="H99">
-        <v>0.44</v>
+        <v>0.286963971682374</v>
       </c>
       <c r="I99">
-        <v>0.43</v>
+        <v>0.252964783334085</v>
       </c>
       <c r="J99">
-        <v>0.9</v>
+        <v>0.80885602200478</v>
       </c>
       <c r="K99">
-        <v>0.504066156</v>
+        <v>0.325321233270956</v>
       </c>
       <c r="L99">
-        <v>0.42</v>
+        <v>0.249763268250891</v>
       </c>
       <c r="M99">
-        <v>0.41</v>
+        <v>0.219867430220499</v>
       </c>
       <c r="N99">
-        <v>2.70667767436754</v>
+        <v>5.04730808303746</v>
       </c>
       <c r="O99">
-        <v>100</v>
+        <v>22177</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -5965,31 +5965,31 @@
         <v>261</v>
       </c>
       <c r="G100">
-        <v>0.70858412</v>
+        <v>0.827425735478882</v>
       </c>
       <c r="H100">
-        <v>0.64</v>
+        <v>0.772345679012346</v>
       </c>
       <c r="I100">
-        <v>0.59</v>
+        <v>0.728395061728395</v>
       </c>
       <c r="J100">
-        <v>1</v>
+        <v>0.993827160493827</v>
       </c>
       <c r="K100">
-        <v>0.70858412</v>
+        <v>0.823339320761595</v>
       </c>
       <c r="L100">
-        <v>0.64</v>
+        <v>0.768641975308642</v>
       </c>
       <c r="M100">
-        <v>0.59</v>
+        <v>0.724938271604938</v>
       </c>
       <c r="N100">
-        <v>2.06804654984921</v>
+        <v>2.75139254135397</v>
       </c>
       <c r="O100">
-        <v>100</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -6012,31 +6012,31 @@
         <v>262</v>
       </c>
       <c r="G101">
-        <v>0.91274290909091</v>
+        <v>0.858098149179911</v>
       </c>
       <c r="H101">
-        <v>0.95959595959596</v>
+        <v>0.8916515973478</v>
       </c>
       <c r="I101">
-        <v>0.848484848484849</v>
+        <v>0.760699216395419</v>
       </c>
       <c r="J101">
-        <v>0.94949494949495</v>
+        <v>0.954490657022303</v>
       </c>
       <c r="K101">
-        <v>0.862237858585859</v>
+        <v>0.823969564435241</v>
       </c>
       <c r="L101">
-        <v>0.909090909090909</v>
+        <v>0.857444243520193</v>
       </c>
       <c r="M101">
-        <v>0.797979797979798</v>
+        <v>0.730409885473177</v>
       </c>
       <c r="N101">
-        <v>1.97846966783352</v>
+        <v>2.80205958033291</v>
       </c>
       <c r="O101">
-        <v>99</v>
+        <v>6636</v>
       </c>
     </row>
     <row r="102" spans="1:15">
@@ -6059,31 +6059,31 @@
         <v>263</v>
       </c>
       <c r="G102">
-        <v>0.96334</v>
+        <v>0.969100078962171</v>
       </c>
       <c r="H102">
-        <v>0.96</v>
+        <v>0.992471538744032</v>
       </c>
       <c r="I102">
-        <v>0.93</v>
+        <v>0.928387807565185</v>
       </c>
       <c r="J102">
-        <v>1</v>
+        <v>0.916819684171869</v>
       </c>
       <c r="K102">
-        <v>0.96334</v>
+        <v>0.889617550350348</v>
       </c>
       <c r="L102">
-        <v>0.96</v>
+        <v>0.910760190965846</v>
       </c>
       <c r="M102">
-        <v>0.93</v>
+        <v>0.853286816011752</v>
       </c>
       <c r="N102">
-        <v>1.24502458673514</v>
+        <v>1.89245037761505</v>
       </c>
       <c r="O102">
-        <v>100</v>
+        <v>5446</v>
       </c>
     </row>
     <row r="103" spans="1:15">
@@ -6106,31 +6106,31 @@
         <v>264</v>
       </c>
       <c r="G103">
-        <v>0.0765520974346469</v>
+        <v>0.0765854766115452</v>
       </c>
       <c r="H103">
-        <v>0.01</v>
+        <v>0.0107833163784334</v>
       </c>
       <c r="I103">
         <v>0</v>
       </c>
       <c r="J103">
-        <v>0.83</v>
+        <v>0.558901322482197</v>
       </c>
       <c r="K103">
-        <v>0.06786736268</v>
+        <v>0.0572585895034583</v>
       </c>
       <c r="L103">
-        <v>0</v>
+        <v>0.00996948118006104</v>
       </c>
       <c r="M103">
         <v>0</v>
       </c>
       <c r="N103">
-        <v>2.80743190745793</v>
+        <v>6.93185922183479</v>
       </c>
       <c r="O103">
-        <v>100</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="104" spans="1:15">
@@ -6153,31 +6153,31 @@
         <v>171</v>
       </c>
       <c r="G104">
-        <v>0.716449987042878</v>
+        <v>0.682982303783994</v>
       </c>
       <c r="H104">
-        <v>0.707070707070707</v>
+        <v>0.628352490421456</v>
       </c>
       <c r="I104">
-        <v>0.626262626262626</v>
+        <v>0.554278416347382</v>
       </c>
       <c r="J104">
-        <v>0.94949494949495</v>
+        <v>0.947637292464879</v>
       </c>
       <c r="K104">
-        <v>0.7143050729025</v>
+        <v>0.6761524052579</v>
       </c>
       <c r="L104">
-        <v>0.707070707070707</v>
+        <v>0.623243933588761</v>
       </c>
       <c r="M104">
-        <v>0.626262626262626</v>
+        <v>0.550446998722861</v>
       </c>
       <c r="N104">
-        <v>4.231716678372</v>
+        <v>5.2490487877587</v>
       </c>
       <c r="O104">
-        <v>99</v>
+        <v>783</v>
       </c>
     </row>
     <row r="105" spans="1:15">
@@ -6200,31 +6200,31 @@
         <v>172</v>
       </c>
       <c r="G105">
-        <v>0.578449344742268</v>
+        <v>0.431888086386928</v>
       </c>
       <c r="H105">
-        <v>0.381443298969072</v>
+        <v>0.226765799256506</v>
       </c>
       <c r="I105">
-        <v>0.371134020618557</v>
+        <v>0.214126394052045</v>
       </c>
       <c r="J105">
-        <v>1</v>
+        <v>0.896654275092937</v>
       </c>
       <c r="K105">
-        <v>0.578449344742268</v>
+        <v>0.422759057283416</v>
       </c>
       <c r="L105">
-        <v>0.381443298969072</v>
+        <v>0.226022304832714</v>
       </c>
       <c r="M105">
-        <v>0.371134020618557</v>
+        <v>0.214126394052045</v>
       </c>
       <c r="N105">
-        <v>2.91568435605371</v>
+        <v>4.60505589831112</v>
       </c>
       <c r="O105">
-        <v>97</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="106" spans="1:15">
@@ -6247,31 +6247,31 @@
         <v>265</v>
       </c>
       <c r="G106">
-        <v>0.81993607524</v>
+        <v>0.812976798028744</v>
       </c>
       <c r="H106">
-        <v>0.84</v>
+        <v>0.818846661071814</v>
       </c>
       <c r="I106">
-        <v>0.71</v>
+        <v>0.685349478479799</v>
       </c>
       <c r="J106">
-        <v>1</v>
+        <v>0.999220716940415</v>
       </c>
       <c r="K106">
-        <v>0.81993607524</v>
+        <v>0.812528964844476</v>
       </c>
       <c r="L106">
-        <v>0.84</v>
+        <v>0.818367102265915</v>
       </c>
       <c r="M106">
-        <v>0.71</v>
+        <v>0.685109699076849</v>
       </c>
       <c r="N106">
-        <v>1.55170500674649</v>
+        <v>2.4702253659487</v>
       </c>
       <c r="O106">
-        <v>100</v>
+        <v>16682</v>
       </c>
     </row>
     <row r="107" spans="1:15">
@@ -6294,31 +6294,31 @@
         <v>266</v>
       </c>
       <c r="G107">
-        <v>0.280742100000001</v>
+        <v>0.520028167932728</v>
       </c>
       <c r="H107">
-        <v>0.15</v>
+        <v>0.477472136589993</v>
       </c>
       <c r="I107">
-        <v>0.1</v>
+        <v>0.321318472847996</v>
       </c>
       <c r="J107">
-        <v>0.97</v>
+        <v>0.829025373488262</v>
       </c>
       <c r="K107">
-        <v>0.250742100000001</v>
+        <v>0.434627112244327</v>
       </c>
       <c r="L107">
-        <v>0.12</v>
+        <v>0.404315864358549</v>
       </c>
       <c r="M107">
-        <v>0.07</v>
+        <v>0.260137538534503</v>
       </c>
       <c r="N107">
-        <v>1.48147885771627</v>
+        <v>4.63821755315855</v>
       </c>
       <c r="O107">
-        <v>100</v>
+        <v>8434</v>
       </c>
     </row>
     <row r="108" spans="1:15">
@@ -6341,31 +6341,31 @@
         <v>267</v>
       </c>
       <c r="G108">
-        <v>0.773191990375401</v>
+        <v>0.767660136615799</v>
       </c>
       <c r="H108">
-        <v>0.93</v>
+        <v>0.847365829640571</v>
       </c>
       <c r="I108">
-        <v>0.67</v>
+        <v>0.721811915312654</v>
       </c>
       <c r="J108">
-        <v>0.78</v>
+        <v>0.891186607582472</v>
       </c>
       <c r="K108">
-        <v>0.6516640903754</v>
+        <v>0.702015763973278</v>
       </c>
       <c r="L108">
-        <v>0.71</v>
+        <v>0.772033481043821</v>
       </c>
       <c r="M108">
-        <v>0.65</v>
+        <v>0.670113244707041</v>
       </c>
       <c r="N108">
-        <v>2.30321415549641</v>
+        <v>2.90268267669181</v>
       </c>
       <c r="O108">
-        <v>100</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="109" spans="1:15">
@@ -6388,31 +6388,31 @@
         <v>268</v>
       </c>
       <c r="G109">
-        <v>0.560398522003313</v>
+        <v>0.656905762862087</v>
       </c>
       <c r="H109">
-        <v>0.676767676767677</v>
+        <v>0.708254414370379</v>
       </c>
       <c r="I109">
-        <v>0.161616161616162</v>
+        <v>0.298222032137838</v>
       </c>
       <c r="J109">
-        <v>0.878787878787879</v>
+        <v>0.905113948799413</v>
       </c>
       <c r="K109">
-        <v>0.487320847316444</v>
+        <v>0.584931780231227</v>
       </c>
       <c r="L109">
-        <v>0.565656565656566</v>
+        <v>0.630475957719802</v>
       </c>
       <c r="M109">
-        <v>0.161616161616162</v>
+        <v>0.250320767397813</v>
       </c>
       <c r="N109">
-        <v>3.9043367109321</v>
+        <v>5.55527862724779</v>
       </c>
       <c r="O109">
-        <v>99</v>
+        <v>16367</v>
       </c>
     </row>
     <row r="110" spans="1:15">
@@ -6435,31 +6435,31 @@
         <v>171</v>
       </c>
       <c r="G110">
-        <v>0.716449987042878</v>
+        <v>0.682982303783994</v>
       </c>
       <c r="H110">
-        <v>0.707070707070707</v>
+        <v>0.628352490421456</v>
       </c>
       <c r="I110">
-        <v>0.626262626262626</v>
+        <v>0.554278416347382</v>
       </c>
       <c r="J110">
-        <v>0.94949494949495</v>
+        <v>0.947637292464879</v>
       </c>
       <c r="K110">
-        <v>0.7143050729025</v>
+        <v>0.6761524052579</v>
       </c>
       <c r="L110">
-        <v>0.707070707070707</v>
+        <v>0.623243933588761</v>
       </c>
       <c r="M110">
-        <v>0.626262626262626</v>
+        <v>0.550446998722861</v>
       </c>
       <c r="N110">
-        <v>4.231716678372</v>
+        <v>5.2490487877587</v>
       </c>
       <c r="O110">
-        <v>99</v>
+        <v>783</v>
       </c>
     </row>
     <row r="111" spans="1:15">
@@ -6482,31 +6482,31 @@
         <v>172</v>
       </c>
       <c r="G111">
-        <v>0.578449344742268</v>
+        <v>0.431888086386928</v>
       </c>
       <c r="H111">
-        <v>0.381443298969072</v>
+        <v>0.226765799256506</v>
       </c>
       <c r="I111">
-        <v>0.371134020618557</v>
+        <v>0.214126394052045</v>
       </c>
       <c r="J111">
-        <v>1</v>
+        <v>0.896654275092937</v>
       </c>
       <c r="K111">
-        <v>0.578449344742268</v>
+        <v>0.422759057283416</v>
       </c>
       <c r="L111">
-        <v>0.381443298969072</v>
+        <v>0.226022304832714</v>
       </c>
       <c r="M111">
-        <v>0.371134020618557</v>
+        <v>0.214126394052045</v>
       </c>
       <c r="N111">
-        <v>2.91568435605371</v>
+        <v>4.60505589831112</v>
       </c>
       <c r="O111">
-        <v>97</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="112" spans="1:15">
@@ -6529,31 +6529,31 @@
         <v>173</v>
       </c>
       <c r="G112">
-        <v>0.846881410315518</v>
+        <v>0.785195546277385</v>
       </c>
       <c r="H112">
-        <v>0.804878048780488</v>
+        <v>0.754065040650406</v>
       </c>
       <c r="I112">
-        <v>0.75609756097561</v>
+        <v>0.705284552845528</v>
       </c>
       <c r="J112">
-        <v>0.98780487804878</v>
+        <v>0.983739837398374</v>
       </c>
       <c r="K112">
-        <v>0.846719023197928</v>
+        <v>0.782251653890084</v>
       </c>
       <c r="L112">
-        <v>0.804878048780488</v>
+        <v>0.752032520325203</v>
       </c>
       <c r="M112">
-        <v>0.75609756097561</v>
+        <v>0.703252032520325</v>
       </c>
       <c r="N112">
-        <v>2.88036585189155</v>
+        <v>2.66017761804901</v>
       </c>
       <c r="O112">
-        <v>82</v>
+        <v>492</v>
       </c>
     </row>
     <row r="113" spans="1:15">
@@ -6576,31 +6576,31 @@
         <v>174</v>
       </c>
       <c r="G113">
-        <v>0.818170607070707</v>
+        <v>0.758716431988686</v>
       </c>
       <c r="H113">
-        <v>0.767676767676768</v>
+        <v>0.75499629903775</v>
       </c>
       <c r="I113">
-        <v>0.757575757575758</v>
+        <v>0.606217616580311</v>
       </c>
       <c r="J113">
-        <v>1</v>
+        <v>0.975573649148779</v>
       </c>
       <c r="K113">
-        <v>0.818170607070707</v>
+        <v>0.747623804145617</v>
       </c>
       <c r="L113">
-        <v>0.767676767676768</v>
+        <v>0.745373797187269</v>
       </c>
       <c r="M113">
-        <v>0.757575757575758</v>
+        <v>0.59659511472983</v>
       </c>
       <c r="N113">
-        <v>2.50679196188142</v>
+        <v>4.20622313379339</v>
       </c>
       <c r="O113">
-        <v>99</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="114" spans="1:15">
@@ -6623,31 +6623,31 @@
         <v>191</v>
       </c>
       <c r="G114">
-        <v>0.59755207025974</v>
+        <v>0.56938797026705</v>
       </c>
       <c r="H114">
-        <v>0.571428571428571</v>
+        <v>0.546511627906977</v>
       </c>
       <c r="I114">
-        <v>0.285714285714286</v>
+        <v>0.288372093023256</v>
       </c>
       <c r="J114">
-        <v>1</v>
+        <v>0.993023255813953</v>
       </c>
       <c r="K114">
-        <v>0.59755207025974</v>
+        <v>0.567940498662456</v>
       </c>
       <c r="L114">
-        <v>0.571428571428571</v>
+        <v>0.544186046511628</v>
       </c>
       <c r="M114">
-        <v>0.285714285714286</v>
+        <v>0.288372093023256</v>
       </c>
       <c r="N114">
-        <v>4.38725542509089</v>
+        <v>4.27334109035607</v>
       </c>
       <c r="O114">
-        <v>77</v>
+        <v>430</v>
       </c>
     </row>
     <row r="115" spans="1:15">
@@ -6670,31 +6670,31 @@
         <v>192</v>
       </c>
       <c r="G115">
-        <v>0.956333333333333</v>
+        <v>0.919644527510456</v>
       </c>
       <c r="H115">
-        <v>0.939393939393939</v>
+        <v>0.897897897897898</v>
       </c>
       <c r="I115">
-        <v>0.939393939393939</v>
+        <v>0.895645645645646</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>0.003003003003003</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <v>0.0013837987987988</v>
       </c>
       <c r="L115">
-        <v>0</v>
+        <v>0.0015015015015015</v>
       </c>
       <c r="M115">
-        <v>0</v>
+        <v>0.000750750750750751</v>
       </c>
       <c r="N115">
-        <v>0.574630315180638</v>
+        <v>1.701342905986</v>
       </c>
       <c r="O115">
-        <v>99</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="116" spans="1:15">
@@ -6717,31 +6717,31 @@
         <v>193</v>
       </c>
       <c r="G116">
-        <v>0.826557430083275</v>
+        <v>0.752468480619308</v>
       </c>
       <c r="H116">
-        <v>0.848101265822785</v>
+        <v>0.764434180138568</v>
       </c>
       <c r="I116">
-        <v>0.822784810126582</v>
+        <v>0.745958429561201</v>
       </c>
       <c r="J116">
-        <v>0.936708860759494</v>
+        <v>0.884526558891455</v>
       </c>
       <c r="K116">
-        <v>0.799500316455696</v>
+        <v>0.670698239473439</v>
       </c>
       <c r="L116">
-        <v>0.822784810126582</v>
+        <v>0.678983833718245</v>
       </c>
       <c r="M116">
-        <v>0.79746835443038</v>
+        <v>0.662817551963048</v>
       </c>
       <c r="N116">
-        <v>4.3926226587326</v>
+        <v>4.37524539435632</v>
       </c>
       <c r="O116">
-        <v>79</v>
+        <v>433</v>
       </c>
     </row>
     <row r="117" spans="1:15">
@@ -6764,31 +6764,31 @@
         <v>194</v>
       </c>
       <c r="G117">
-        <v>0.866778903128141</v>
+        <v>0.775624819334438</v>
       </c>
       <c r="H117">
-        <v>0.924050632911392</v>
+        <v>0.751605995717345</v>
       </c>
       <c r="I117">
-        <v>0.734177215189873</v>
+        <v>0.63169164882227</v>
       </c>
       <c r="J117">
-        <v>0.645569620253165</v>
+        <v>0.715203426124197</v>
       </c>
       <c r="K117">
-        <v>0.574201860759494</v>
+        <v>0.524066447537473</v>
       </c>
       <c r="L117">
-        <v>0.607594936708861</v>
+        <v>0.492505353319058</v>
       </c>
       <c r="M117">
-        <v>0.506329113924051</v>
+        <v>0.404710920770878</v>
       </c>
       <c r="N117">
-        <v>3.64151778468161</v>
+        <v>3.86885384896436</v>
       </c>
       <c r="O117">
-        <v>79</v>
+        <v>467</v>
       </c>
     </row>
     <row r="118" spans="1:15">
@@ -6811,31 +6811,31 @@
         <v>195</v>
       </c>
       <c r="G118">
-        <v>0.725891472699444</v>
+        <v>0.68275891660968</v>
       </c>
       <c r="H118">
-        <v>0.717171717171717</v>
+        <v>0.629722921914358</v>
       </c>
       <c r="I118">
-        <v>0.636363636363636</v>
+        <v>0.554156171284635</v>
       </c>
       <c r="J118">
-        <v>0.94949494949495</v>
+        <v>0.948362720403023</v>
       </c>
       <c r="K118">
-        <v>0.723746558559066</v>
+        <v>0.676023638844023</v>
       </c>
       <c r="L118">
-        <v>0.717171717171717</v>
+        <v>0.624685138539043</v>
       </c>
       <c r="M118">
-        <v>0.636363636363636</v>
+        <v>0.550377833753149</v>
       </c>
       <c r="N118">
-        <v>4.17302838105533</v>
+        <v>5.26257053419506</v>
       </c>
       <c r="O118">
-        <v>99</v>
+        <v>794</v>
       </c>
     </row>
     <row r="119" spans="1:15">
@@ -6858,31 +6858,31 @@
         <v>196</v>
       </c>
       <c r="G119">
-        <v>0.165745175149446</v>
+        <v>0.208473048164785</v>
       </c>
       <c r="H119">
-        <v>0.03</v>
+        <v>0.137981118373275</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>0.037037037037037</v>
       </c>
       <c r="J119">
-        <v>0.86</v>
+        <v>0.781408859840232</v>
       </c>
       <c r="K119">
-        <v>0.142275718360826</v>
+        <v>0.168544742426045</v>
       </c>
       <c r="L119">
-        <v>0.01</v>
+        <v>0.10239651416122</v>
       </c>
       <c r="M119">
-        <v>0</v>
+        <v>0.0348583877995643</v>
       </c>
       <c r="N119">
-        <v>4.57474331406078</v>
+        <v>6.7698759592779</v>
       </c>
       <c r="O119">
-        <v>100</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="120" spans="1:15">
@@ -6905,31 +6905,31 @@
         <v>197</v>
       </c>
       <c r="G120">
-        <v>0.144737980063163</v>
+        <v>0.197631614885952</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>0.0731354091238233</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>0.057929036929761</v>
       </c>
       <c r="J120">
-        <v>0.93</v>
+        <v>0.87400434467777</v>
       </c>
       <c r="K120">
-        <v>0.141497456668718</v>
+        <v>0.185333538748508</v>
       </c>
       <c r="L120">
-        <v>0</v>
+        <v>0.0724112961622013</v>
       </c>
       <c r="M120">
-        <v>0</v>
+        <v>0.057204923968139</v>
       </c>
       <c r="N120">
-        <v>3.35421192792486</v>
+        <v>5.80365809729613</v>
       </c>
       <c r="O120">
-        <v>100</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="121" spans="1:15">
@@ -6952,31 +6952,31 @@
         <v>198</v>
       </c>
       <c r="G121">
-        <v>0.768737394399133</v>
+        <v>0.646003708164849</v>
       </c>
       <c r="H121">
-        <v>0.76</v>
+        <v>0.612554112554113</v>
       </c>
       <c r="I121">
-        <v>0.76</v>
+        <v>0.584415584415584</v>
       </c>
       <c r="J121">
-        <v>0.79</v>
+        <v>0.726551226551227</v>
       </c>
       <c r="K121">
-        <v>0.73198768656</v>
+        <v>0.612453019577016</v>
       </c>
       <c r="L121">
-        <v>0.73</v>
+        <v>0.601010101010101</v>
       </c>
       <c r="M121">
-        <v>0.73</v>
+        <v>0.573593073593074</v>
       </c>
       <c r="N121">
-        <v>2.45188003464093</v>
+        <v>4.16980328476335</v>
       </c>
       <c r="O121">
-        <v>100</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="122" spans="1:15">
@@ -6999,31 +6999,31 @@
         <v>199</v>
       </c>
       <c r="G122">
-        <v>0.473913658989691</v>
+        <v>0.46957945238627</v>
       </c>
       <c r="H122">
-        <v>0.515463917525773</v>
+        <v>0.522354694485842</v>
       </c>
       <c r="I122">
-        <v>0.103092783505155</v>
+        <v>0.148286140089419</v>
       </c>
       <c r="J122">
-        <v>1</v>
+        <v>0.959016393442623</v>
       </c>
       <c r="K122">
-        <v>0.473913658989691</v>
+        <v>0.467833108683255</v>
       </c>
       <c r="L122">
-        <v>0.515463917525773</v>
+        <v>0.522354694485842</v>
       </c>
       <c r="M122">
-        <v>0.103092783505155</v>
+        <v>0.148286140089419</v>
       </c>
       <c r="N122">
-        <v>2.91568435605371</v>
+        <v>4.77181555488247</v>
       </c>
       <c r="O122">
-        <v>97</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="123" spans="1:15">
@@ -7046,31 +7046,31 @@
         <v>200</v>
       </c>
       <c r="G123">
-        <v>0.51199310364</v>
+        <v>0.572086059778161</v>
       </c>
       <c r="H123">
-        <v>0.42</v>
+        <v>0.498876404494382</v>
       </c>
       <c r="I123">
-        <v>0.27</v>
+        <v>0.32434456928839</v>
       </c>
       <c r="J123">
-        <v>0.98</v>
+        <v>0.939325842696629</v>
       </c>
       <c r="K123">
-        <v>0.49707310364</v>
+        <v>0.5587708907945</v>
       </c>
       <c r="L123">
-        <v>0.41</v>
+        <v>0.49063670411985</v>
       </c>
       <c r="M123">
-        <v>0.26</v>
+        <v>0.316104868913858</v>
       </c>
       <c r="N123">
-        <v>3.88569996742263</v>
+        <v>5.35698143814368</v>
       </c>
       <c r="O123">
-        <v>100</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="124" spans="1:15">
@@ -7093,31 +7093,31 @@
         <v>201</v>
       </c>
       <c r="G124">
-        <v>0.942321714285714</v>
+        <v>0.904881970167898</v>
       </c>
       <c r="H124">
-        <v>0.928571428571429</v>
+        <v>0.887793783169067</v>
       </c>
       <c r="I124">
-        <v>0.928571428571429</v>
+        <v>0.854435178165277</v>
       </c>
       <c r="J124">
-        <v>0.989795918367347</v>
+        <v>0.976497346474602</v>
       </c>
       <c r="K124">
-        <v>0.940321714285714</v>
+        <v>0.891002744097803</v>
       </c>
       <c r="L124">
-        <v>0.928571428571429</v>
+        <v>0.872630780894617</v>
       </c>
       <c r="M124">
-        <v>0.928571428571429</v>
+        <v>0.843062926459439</v>
       </c>
       <c r="N124">
-        <v>1.65416003391818</v>
+        <v>2.9598765879773</v>
       </c>
       <c r="O124">
-        <v>98</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="125" spans="1:15">
@@ -7140,31 +7140,31 @@
         <v>202</v>
       </c>
       <c r="G125">
-        <v>0.976280268817204</v>
+        <v>0.951718305920488</v>
       </c>
       <c r="H125">
-        <v>0.989247311827957</v>
+        <v>0.961392884178653</v>
       </c>
       <c r="I125">
-        <v>0.935483870967742</v>
+        <v>0.905374716124148</v>
       </c>
       <c r="J125">
-        <v>0.989247311827957</v>
+        <v>0.957607872823618</v>
       </c>
       <c r="K125">
-        <v>0.965527580645161</v>
+        <v>0.924889518045956</v>
       </c>
       <c r="L125">
-        <v>0.978494623655914</v>
+        <v>0.934897804693414</v>
       </c>
       <c r="M125">
-        <v>0.924731182795699</v>
+        <v>0.884178652535958</v>
       </c>
       <c r="N125">
-        <v>0.957268500730921</v>
+        <v>2.04604471326368</v>
       </c>
       <c r="O125">
-        <v>93</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="126" spans="1:15">
@@ -7187,31 +7187,31 @@
         <v>269</v>
       </c>
       <c r="G126">
-        <v>0.985347150537634</v>
+        <v>0.902762031758975</v>
       </c>
       <c r="H126">
-        <v>0.978494623655914</v>
+        <v>0.89340490797546</v>
       </c>
       <c r="I126">
-        <v>0.978494623655914</v>
+        <v>0.835122699386503</v>
       </c>
       <c r="J126">
-        <v>1</v>
+        <v>0.97239263803681</v>
       </c>
       <c r="K126">
-        <v>0.985347150537634</v>
+        <v>0.895087798820034</v>
       </c>
       <c r="L126">
-        <v>0.978494623655914</v>
+        <v>0.888803680981595</v>
       </c>
       <c r="M126">
-        <v>0.978494623655914</v>
+        <v>0.830521472392638</v>
       </c>
       <c r="N126">
-        <v>0.99977748931331</v>
+        <v>2.88355234031107</v>
       </c>
       <c r="O126">
-        <v>93</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="127" spans="1:15">
@@ -7234,31 +7234,31 @@
         <v>270</v>
       </c>
       <c r="G127">
-        <v>0.814364101010101</v>
+        <v>0.799269512007725</v>
       </c>
       <c r="H127">
-        <v>0.787878787878788</v>
+        <v>0.77037037037037</v>
       </c>
       <c r="I127">
-        <v>0.777777777777778</v>
+        <v>0.751851851851852</v>
       </c>
       <c r="J127">
-        <v>1</v>
+        <v>0.954814814814815</v>
       </c>
       <c r="K127">
-        <v>0.814364101010101</v>
+        <v>0.787792054661392</v>
       </c>
       <c r="L127">
-        <v>0.787878787878788</v>
+        <v>0.760740740740741</v>
       </c>
       <c r="M127">
-        <v>0.777777777777778</v>
+        <v>0.742222222222222</v>
       </c>
       <c r="N127">
-        <v>1.61666788972057</v>
+        <v>3.25838907939314</v>
       </c>
       <c r="O127">
-        <v>99</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="128" spans="1:15">
@@ -7281,31 +7281,31 @@
         <v>271</v>
       </c>
       <c r="G128">
-        <v>0.374982746333088</v>
+        <v>0.250303712940996</v>
       </c>
       <c r="H128">
-        <v>0.37</v>
+        <v>0.165325530358449</v>
       </c>
       <c r="I128">
-        <v>0.07</v>
+        <v>0.0248719824433065</v>
       </c>
       <c r="J128">
-        <v>0.87</v>
+        <v>0.824433065106072</v>
       </c>
       <c r="K128">
-        <v>0.3540911536</v>
+        <v>0.239654639364863</v>
       </c>
       <c r="L128">
-        <v>0.37</v>
+        <v>0.165325530358449</v>
       </c>
       <c r="M128">
-        <v>0.07</v>
+        <v>0.0248719824433065</v>
       </c>
       <c r="N128">
-        <v>3.31046829893867</v>
+        <v>4.61165908722239</v>
       </c>
       <c r="O128">
-        <v>100</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="129" spans="1:15">
@@ -7328,7 +7328,7 @@
         <v>272</v>
       </c>
       <c r="G129">
-        <v>0.0762811068614808</v>
+        <v>0.0544996680846221</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -7337,10 +7337,10 @@
         <v>0</v>
       </c>
       <c r="J129">
-        <v>0.797979797979798</v>
+        <v>0.726147123088128</v>
       </c>
       <c r="K129">
-        <v>0.0735587434637879</v>
+        <v>0.0512399115236032</v>
       </c>
       <c r="L129">
         <v>0</v>
@@ -7349,10 +7349,10 @@
         <v>0</v>
       </c>
       <c r="N129">
-        <v>4.39822846951675</v>
+        <v>6.6245118373683</v>
       </c>
       <c r="O129">
-        <v>99</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="130" spans="1:15">
@@ -7375,7 +7375,7 @@
         <v>273</v>
       </c>
       <c r="G130">
-        <v>0.0315252323230919</v>
+        <v>0.0326456406863516</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -7384,10 +7384,10 @@
         <v>0</v>
       </c>
       <c r="J130">
-        <v>0.07</v>
+        <v>0.291431261770245</v>
       </c>
       <c r="K130">
-        <v>0.00273581120150415</v>
+        <v>0.0118630861025625</v>
       </c>
       <c r="L130">
         <v>0</v>
@@ -7396,10 +7396,10 @@
         <v>0</v>
       </c>
       <c r="N130">
-        <v>0.756909740308999</v>
+        <v>4.62131369019485</v>
       </c>
       <c r="O130">
-        <v>100</v>
+        <v>6372</v>
       </c>
     </row>
     <row r="131" spans="1:15">
@@ -7422,31 +7422,31 @@
         <v>261</v>
       </c>
       <c r="G131">
-        <v>0.70858412</v>
+        <v>0.827425735478882</v>
       </c>
       <c r="H131">
-        <v>0.64</v>
+        <v>0.772345679012346</v>
       </c>
       <c r="I131">
-        <v>0.59</v>
+        <v>0.728395061728395</v>
       </c>
       <c r="J131">
-        <v>1</v>
+        <v>0.993827160493827</v>
       </c>
       <c r="K131">
-        <v>0.70858412</v>
+        <v>0.823339320761595</v>
       </c>
       <c r="L131">
-        <v>0.64</v>
+        <v>0.768641975308642</v>
       </c>
       <c r="M131">
-        <v>0.59</v>
+        <v>0.724938271604938</v>
       </c>
       <c r="N131">
-        <v>2.06804654984921</v>
+        <v>2.75139254135397</v>
       </c>
       <c r="O131">
-        <v>100</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="132" spans="1:15">
@@ -7469,31 +7469,31 @@
         <v>274</v>
       </c>
       <c r="G132">
-        <v>0.165216247488976</v>
+        <v>0.35710828939722</v>
       </c>
       <c r="H132">
-        <v>0.04</v>
+        <v>0.216691804927099</v>
       </c>
       <c r="I132">
-        <v>0.03</v>
+        <v>0.156024803083627</v>
       </c>
       <c r="J132">
-        <v>0.85</v>
+        <v>0.926596279537456</v>
       </c>
       <c r="K132">
-        <v>0.158865310728997</v>
+        <v>0.352307176570401</v>
       </c>
       <c r="L132">
-        <v>0.04</v>
+        <v>0.215518686106921</v>
       </c>
       <c r="M132">
-        <v>0.03</v>
+        <v>0.155186861069214</v>
       </c>
       <c r="N132">
-        <v>4.26814373132616</v>
+        <v>7.27794197013716</v>
       </c>
       <c r="O132">
-        <v>100</v>
+        <v>5967</v>
       </c>
     </row>
     <row r="133" spans="1:15">
@@ -7516,31 +7516,31 @@
         <v>275</v>
       </c>
       <c r="G133">
-        <v>0.0911005246942363</v>
+        <v>0.654751345784456</v>
       </c>
       <c r="H133">
-        <v>0.08</v>
+        <v>0.678680953927193</v>
       </c>
       <c r="I133">
-        <v>0.08</v>
+        <v>0.497167803153299</v>
       </c>
       <c r="J133">
-        <v>0.08</v>
+        <v>0.752318071941408</v>
       </c>
       <c r="K133">
-        <v>0.08</v>
+        <v>0.59408805942278</v>
       </c>
       <c r="L133">
-        <v>0.08</v>
+        <v>0.616336544359058</v>
       </c>
       <c r="M133">
-        <v>0.08</v>
+        <v>0.453404048057149</v>
       </c>
       <c r="N133">
-        <v>4.31411631649308</v>
+        <v>5.63915036449642</v>
       </c>
       <c r="O133">
-        <v>100</v>
+        <v>27717</v>
       </c>
     </row>
     <row r="134" spans="1:15">
@@ -7563,31 +7563,31 @@
         <v>276</v>
       </c>
       <c r="G134">
-        <v>0.569884901158604</v>
+        <v>0.468738182250232</v>
       </c>
       <c r="H134">
-        <v>0.43</v>
+        <v>0.331387883739932</v>
       </c>
       <c r="I134">
-        <v>0.42</v>
+        <v>0.294472977705148</v>
       </c>
       <c r="J134">
-        <v>0.14</v>
+        <v>0.272732578498891</v>
       </c>
       <c r="K134">
-        <v>0.07718547</v>
+        <v>0.119460643140393</v>
       </c>
       <c r="L134">
-        <v>0.06</v>
+        <v>0.0783238006303257</v>
       </c>
       <c r="M134">
-        <v>0.05</v>
+        <v>0.0726041788257266</v>
       </c>
       <c r="N134">
-        <v>3.3923585424752</v>
+        <v>8.24250514482661</v>
       </c>
       <c r="O134">
-        <v>100</v>
+        <v>34268</v>
       </c>
     </row>
     <row r="135" spans="1:15">
@@ -7610,31 +7610,31 @@
         <v>277</v>
       </c>
       <c r="G135">
-        <v>0.0496456838255426</v>
+        <v>0.130035383510744</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>0.0577625158142057</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>0.0452557382974878</v>
       </c>
       <c r="J135">
-        <v>0.01</v>
+        <v>0.181890475329839</v>
       </c>
       <c r="K135">
-        <v>0.000220022921301183</v>
+        <v>0.0465633395836229</v>
       </c>
       <c r="L135">
-        <v>0</v>
+        <v>0.0259895174408097</v>
       </c>
       <c r="M135">
-        <v>0</v>
+        <v>0.0211819989155973</v>
       </c>
       <c r="N135">
-        <v>4.9008718934921</v>
+        <v>10.1582510830201</v>
       </c>
       <c r="O135">
-        <v>100</v>
+        <v>27665</v>
       </c>
     </row>
     <row r="136" spans="1:15">
@@ -7657,31 +7657,31 @@
         <v>278</v>
       </c>
       <c r="G136">
-        <v>0.654692918268799</v>
+        <v>0.504432055013532</v>
       </c>
       <c r="H136">
-        <v>0.91</v>
+        <v>0.573564470082703</v>
       </c>
       <c r="I136">
-        <v>0.25</v>
+        <v>0.163286929393413</v>
       </c>
       <c r="J136">
-        <v>0.97</v>
+        <v>0.811107513906466</v>
       </c>
       <c r="K136">
-        <v>0.640437576768799</v>
+        <v>0.416270598368919</v>
       </c>
       <c r="L136">
-        <v>0.89</v>
+        <v>0.473467345557289</v>
       </c>
       <c r="M136">
-        <v>0.25</v>
+        <v>0.142831915707685</v>
       </c>
       <c r="N136">
-        <v>4.13637444864144</v>
+        <v>9.46445437412304</v>
       </c>
       <c r="O136">
-        <v>100</v>
+        <v>33977</v>
       </c>
     </row>
     <row r="137" spans="1:15">
@@ -7704,31 +7704,31 @@
         <v>279</v>
       </c>
       <c r="G137">
-        <v>0.578449344742268</v>
+        <v>0.431888086386928</v>
       </c>
       <c r="H137">
-        <v>0.381443298969072</v>
+        <v>0.226765799256506</v>
       </c>
       <c r="I137">
-        <v>0.371134020618557</v>
+        <v>0.214126394052045</v>
       </c>
       <c r="J137">
-        <v>1</v>
+        <v>0.896654275092937</v>
       </c>
       <c r="K137">
-        <v>0.578449344742268</v>
+        <v>0.422759057283416</v>
       </c>
       <c r="L137">
-        <v>0.381443298969072</v>
+        <v>0.226022304832714</v>
       </c>
       <c r="M137">
-        <v>0.371134020618557</v>
+        <v>0.214126394052045</v>
       </c>
       <c r="N137">
-        <v>2.91568435605371</v>
+        <v>4.60505589831112</v>
       </c>
       <c r="O137">
-        <v>97</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="138" spans="1:15">
@@ -7751,31 +7751,31 @@
         <v>182</v>
       </c>
       <c r="G138">
-        <v>0.85776704</v>
+        <v>0.687042867781397</v>
       </c>
       <c r="H138">
-        <v>0.84</v>
+        <v>0.663609627737791</v>
       </c>
       <c r="I138">
-        <v>0.83</v>
+        <v>0.595735624177695</v>
       </c>
       <c r="J138">
-        <v>0.98</v>
+        <v>0.984482625183809</v>
       </c>
       <c r="K138">
-        <v>0.85504852</v>
+        <v>0.683389627975498</v>
       </c>
       <c r="L138">
-        <v>0.84</v>
+        <v>0.660397802027707</v>
       </c>
       <c r="M138">
-        <v>0.83</v>
+        <v>0.592755978639424</v>
       </c>
       <c r="N138">
-        <v>1.41367389862828</v>
+        <v>3.76299227390448</v>
       </c>
       <c r="O138">
-        <v>100</v>
+        <v>25842</v>
       </c>
     </row>
     <row r="139" spans="1:15">
@@ -7798,31 +7798,31 @@
         <v>280</v>
       </c>
       <c r="G139">
-        <v>0.883150000000001</v>
+        <v>0.714870728490211</v>
       </c>
       <c r="H139">
-        <v>0.81</v>
+        <v>0.543167208128845</v>
       </c>
       <c r="I139">
-        <v>0.81</v>
+        <v>0.542337734153591</v>
       </c>
       <c r="J139">
-        <v>1</v>
+        <v>0.997373332411696</v>
       </c>
       <c r="K139">
-        <v>0.883150000000001</v>
+        <v>0.713653424276364</v>
       </c>
       <c r="L139">
-        <v>0.81</v>
+        <v>0.542683348309947</v>
       </c>
       <c r="M139">
-        <v>0.81</v>
+        <v>0.541853874334693</v>
       </c>
       <c r="N139">
-        <v>0.779207486310554</v>
+        <v>1.75088485980889</v>
       </c>
       <c r="O139">
-        <v>100</v>
+        <v>14467</v>
       </c>
     </row>
     <row r="140" spans="1:15">
@@ -7845,31 +7845,31 @@
         <v>268</v>
       </c>
       <c r="G140">
-        <v>0.560398522003313</v>
+        <v>0.656905762862087</v>
       </c>
       <c r="H140">
-        <v>0.676767676767677</v>
+        <v>0.708254414370379</v>
       </c>
       <c r="I140">
-        <v>0.161616161616162</v>
+        <v>0.298222032137838</v>
       </c>
       <c r="J140">
-        <v>0.878787878787879</v>
+        <v>0.905113948799413</v>
       </c>
       <c r="K140">
-        <v>0.487320847316444</v>
+        <v>0.584931780231227</v>
       </c>
       <c r="L140">
-        <v>0.565656565656566</v>
+        <v>0.630475957719802</v>
       </c>
       <c r="M140">
-        <v>0.161616161616162</v>
+        <v>0.250320767397813</v>
       </c>
       <c r="N140">
-        <v>3.9043367109321</v>
+        <v>5.55527862724779</v>
       </c>
       <c r="O140">
-        <v>99</v>
+        <v>16367</v>
       </c>
     </row>
     <row r="141" spans="1:15">
@@ -7892,31 +7892,31 @@
         <v>281</v>
       </c>
       <c r="G141">
-        <v>0.839529376812504</v>
+        <v>0.837535993658632</v>
       </c>
       <c r="H141">
-        <v>0.804347826086957</v>
+        <v>0.8</v>
       </c>
       <c r="I141">
-        <v>0.728260869565217</v>
+        <v>0.752066115702479</v>
       </c>
       <c r="J141">
-        <v>0.989130434782609</v>
+        <v>0.978512396694215</v>
       </c>
       <c r="K141">
-        <v>0.839372610434783</v>
+        <v>0.831925407786083</v>
       </c>
       <c r="L141">
-        <v>0.804347826086957</v>
+        <v>0.79504132231405</v>
       </c>
       <c r="M141">
-        <v>0.728260869565217</v>
+        <v>0.748760330578512</v>
       </c>
       <c r="N141">
-        <v>2.48655724338248</v>
+        <v>2.71211745502357</v>
       </c>
       <c r="O141">
-        <v>92</v>
+        <v>605</v>
       </c>
     </row>
     <row r="142" spans="1:15">
@@ -7939,31 +7939,31 @@
         <v>282</v>
       </c>
       <c r="G142">
-        <v>0.665670818163265</v>
+        <v>0.679022042610023</v>
       </c>
       <c r="H142">
-        <v>0.73469387755102</v>
+        <v>0.763382467028704</v>
       </c>
       <c r="I142">
-        <v>0.346938775510204</v>
+        <v>0.375842931312287</v>
       </c>
       <c r="J142">
-        <v>0.86734693877551</v>
+        <v>0.980843826460584</v>
       </c>
       <c r="K142">
-        <v>0.571834083469388</v>
+        <v>0.66632750461841</v>
       </c>
       <c r="L142">
-        <v>0.602040816326531</v>
+        <v>0.74715044459032</v>
       </c>
       <c r="M142">
-        <v>0.336734693877551</v>
+        <v>0.371367189831115</v>
       </c>
       <c r="N142">
-        <v>3.9547348796657</v>
+        <v>5.14132162298742</v>
       </c>
       <c r="O142">
-        <v>98</v>
+        <v>16757</v>
       </c>
     </row>
     <row r="143" spans="1:15">
@@ -7986,31 +7986,31 @@
         <v>283</v>
       </c>
       <c r="G143">
-        <v>0.57374965</v>
+        <v>0.725316607826643</v>
       </c>
       <c r="H143">
-        <v>0.37</v>
+        <v>0.622573687994249</v>
       </c>
       <c r="I143">
-        <v>0.35</v>
+        <v>0.583992331655883</v>
       </c>
       <c r="J143">
-        <v>1</v>
+        <v>0.98921639108555</v>
       </c>
       <c r="K143">
-        <v>0.57374965</v>
+        <v>0.724098107438808</v>
       </c>
       <c r="L143">
-        <v>0.37</v>
+        <v>0.622214234363767</v>
       </c>
       <c r="M143">
-        <v>0.35</v>
+        <v>0.583692786963815</v>
       </c>
       <c r="N143">
-        <v>2.55704175012088</v>
+        <v>3.16737485177446</v>
       </c>
       <c r="O143">
-        <v>100</v>
+        <v>16692</v>
       </c>
     </row>
     <row r="144" spans="1:15">
@@ -8033,31 +8033,31 @@
         <v>284</v>
       </c>
       <c r="G144">
-        <v>0.5827175352</v>
+        <v>0.498580083751839</v>
       </c>
       <c r="H144">
-        <v>0.54</v>
+        <v>0.378459687123947</v>
       </c>
       <c r="I144">
-        <v>0.29</v>
+        <v>0.243802647412756</v>
       </c>
       <c r="J144">
-        <v>1</v>
+        <v>0.911913357400722</v>
       </c>
       <c r="K144">
-        <v>0.5827175352</v>
+        <v>0.450028644220938</v>
       </c>
       <c r="L144">
-        <v>0.54</v>
+        <v>0.339169675090253</v>
       </c>
       <c r="M144">
-        <v>0.29</v>
+        <v>0.209626955475331</v>
       </c>
       <c r="N144">
-        <v>2.93726935057743</v>
+        <v>4.63796524150865</v>
       </c>
       <c r="O144">
-        <v>100</v>
+        <v>16620</v>
       </c>
     </row>
     <row r="145" spans="1:15">
@@ -8080,31 +8080,31 @@
         <v>285</v>
       </c>
       <c r="G145">
-        <v>0.91080824</v>
+        <v>0.857325706281</v>
       </c>
       <c r="H145">
-        <v>0.88</v>
+        <v>0.840919683082181</v>
       </c>
       <c r="I145">
-        <v>0.87</v>
+        <v>0.765574025167003</v>
       </c>
       <c r="J145">
-        <v>0.99</v>
+        <v>0.956190772098804</v>
       </c>
       <c r="K145">
-        <v>0.90770234</v>
+        <v>0.82130959159008</v>
       </c>
       <c r="L145">
-        <v>0.88</v>
+        <v>0.807052974988349</v>
       </c>
       <c r="M145">
-        <v>0.87</v>
+        <v>0.733260835793071</v>
       </c>
       <c r="N145">
-        <v>1.61507622475497</v>
+        <v>4.07019479287684</v>
       </c>
       <c r="O145">
-        <v>100</v>
+        <v>6437</v>
       </c>
     </row>
     <row r="146" spans="1:15">
@@ -8127,31 +8127,31 @@
         <v>286</v>
       </c>
       <c r="G146">
-        <v>0.886256084210526</v>
+        <v>0.736907411144283</v>
       </c>
       <c r="H146">
-        <v>0.863157894736842</v>
+        <v>0.703068826211037</v>
       </c>
       <c r="I146">
-        <v>0.831578947368421</v>
+        <v>0.647585337830325</v>
       </c>
       <c r="J146">
-        <v>0.968421052631579</v>
+        <v>0.938234313035099</v>
       </c>
       <c r="K146">
-        <v>0.854677136842105</v>
+        <v>0.708659113103109</v>
       </c>
       <c r="L146">
-        <v>0.831578947368421</v>
+        <v>0.680312071457692</v>
       </c>
       <c r="M146">
-        <v>0.8</v>
+        <v>0.627219154219636</v>
       </c>
       <c r="N146">
-        <v>2.48875843973146</v>
+        <v>3.55607171721226</v>
       </c>
       <c r="O146">
-        <v>95</v>
+        <v>53962</v>
       </c>
     </row>
     <row r="147" spans="1:15">
@@ -8174,31 +8174,31 @@
         <v>181</v>
       </c>
       <c r="G147">
-        <v>0.903902205375612</v>
+        <v>0.744456599614546</v>
       </c>
       <c r="H147">
-        <v>0.89010989010989</v>
+        <v>0.761658031088083</v>
       </c>
       <c r="I147">
-        <v>0.857142857142857</v>
+        <v>0.634715025906736</v>
       </c>
       <c r="J147">
-        <v>0.989010989010989</v>
+        <v>0.981865284974093</v>
       </c>
       <c r="K147">
-        <v>0.903330590372417</v>
+        <v>0.742035293465984</v>
       </c>
       <c r="L147">
-        <v>0.89010989010989</v>
+        <v>0.759067357512953</v>
       </c>
       <c r="M147">
-        <v>0.857142857142857</v>
+        <v>0.634715025906736</v>
       </c>
       <c r="N147">
-        <v>3.24860919756886</v>
+        <v>3.74626818958162</v>
       </c>
       <c r="O147">
-        <v>91</v>
+        <v>386</v>
       </c>
     </row>
     <row r="148" spans="1:15">
@@ -8221,31 +8221,31 @@
         <v>287</v>
       </c>
       <c r="G148">
-        <v>0.0632495058271474</v>
+        <v>0.0503683152813147</v>
       </c>
       <c r="H148">
-        <v>0.0105263157894737</v>
+        <v>0.00154918667699458</v>
       </c>
       <c r="I148">
-        <v>0.0105263157894737</v>
+        <v>0.00154918667699458</v>
       </c>
       <c r="J148">
-        <v>0.852631578947368</v>
+        <v>0.750580945003873</v>
       </c>
       <c r="K148">
-        <v>0.0593104240885777</v>
+        <v>0.0433052037534471</v>
       </c>
       <c r="L148">
-        <v>0.0105263157894737</v>
+        <v>0.00154918667699458</v>
       </c>
       <c r="M148">
-        <v>0.0105263157894737</v>
+        <v>0.00154918667699458</v>
       </c>
       <c r="N148">
-        <v>4.12314659177331</v>
+        <v>5.72676752736296</v>
       </c>
       <c r="O148">
-        <v>95</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="149" spans="1:15">
@@ -8268,31 +8268,31 @@
         <v>254</v>
       </c>
       <c r="G149">
-        <v>0.48026976834864</v>
+        <v>0.298243722222404</v>
       </c>
       <c r="H149">
-        <v>0.414141414141414</v>
+        <v>0.209420289855072</v>
       </c>
       <c r="I149">
-        <v>0.414141414141414</v>
+        <v>0.209420289855072</v>
       </c>
       <c r="J149">
-        <v>0.505050505050505</v>
+        <v>0.357246376811594</v>
       </c>
       <c r="K149">
-        <v>0.369685338181818</v>
+        <v>0.214035651478725</v>
       </c>
       <c r="L149">
-        <v>0.353535353535354</v>
+        <v>0.192753623188406</v>
       </c>
       <c r="M149">
-        <v>0.353535353535354</v>
+        <v>0.192753623188406</v>
       </c>
       <c r="N149">
-        <v>4.32159351100563</v>
+        <v>6.17265819570612</v>
       </c>
       <c r="O149">
-        <v>99</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="150" spans="1:15">
@@ -8315,31 +8315,31 @@
         <v>288</v>
       </c>
       <c r="G150">
-        <v>0.483196880183449</v>
+        <v>0.423519936817038</v>
       </c>
       <c r="H150">
-        <v>0.27</v>
+        <v>0.232440260680666</v>
       </c>
       <c r="I150">
-        <v>0.26</v>
+        <v>0.185372918175235</v>
       </c>
       <c r="J150">
-        <v>0.97</v>
+        <v>0.878349022447502</v>
       </c>
       <c r="K150">
-        <v>0.47248677758128</v>
+        <v>0.387528268402986</v>
       </c>
       <c r="L150">
-        <v>0.26</v>
+        <v>0.210716871832006</v>
       </c>
       <c r="M150">
-        <v>0.25</v>
+        <v>0.172338884866039</v>
       </c>
       <c r="N150">
-        <v>3.29421192792486</v>
+        <v>5.81171215849677</v>
       </c>
       <c r="O150">
-        <v>100</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="151" spans="1:15">
@@ -8362,31 +8362,31 @@
         <v>289</v>
       </c>
       <c r="G151">
-        <v>0.768737394399133</v>
+        <v>0.646003708164849</v>
       </c>
       <c r="H151">
-        <v>0.76</v>
+        <v>0.612554112554113</v>
       </c>
       <c r="I151">
-        <v>0.76</v>
+        <v>0.584415584415584</v>
       </c>
       <c r="J151">
-        <v>0.79</v>
+        <v>0.726551226551227</v>
       </c>
       <c r="K151">
-        <v>0.73198768656</v>
+        <v>0.612453019577016</v>
       </c>
       <c r="L151">
-        <v>0.73</v>
+        <v>0.601010101010101</v>
       </c>
       <c r="M151">
-        <v>0.73</v>
+        <v>0.573593073593074</v>
       </c>
       <c r="N151">
-        <v>2.45188003464093</v>
+        <v>4.16980328476335</v>
       </c>
       <c r="O151">
-        <v>100</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="152" spans="1:15">
@@ -8409,31 +8409,31 @@
         <v>290</v>
       </c>
       <c r="G152">
-        <v>0.421830340876454</v>
+        <v>0.318876873810574</v>
       </c>
       <c r="H152">
-        <v>0.29</v>
+        <v>0.166542195668409</v>
       </c>
       <c r="I152">
-        <v>0.29</v>
+        <v>0.162808065720687</v>
       </c>
       <c r="J152">
-        <v>0.9</v>
+        <v>0.849887976101568</v>
       </c>
       <c r="K152">
-        <v>0.40642751548</v>
+        <v>0.300530017026323</v>
       </c>
       <c r="L152">
-        <v>0.29</v>
+        <v>0.166542195668409</v>
       </c>
       <c r="M152">
-        <v>0.29</v>
+        <v>0.162808065720687</v>
       </c>
       <c r="N152">
-        <v>3.96569996742263</v>
+        <v>5.45703316142337</v>
       </c>
       <c r="O152">
-        <v>100</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="153" spans="1:15">
@@ -8456,31 +8456,31 @@
         <v>291</v>
       </c>
       <c r="G153">
-        <v>0.976280268817204</v>
+        <v>0.951718305920488</v>
       </c>
       <c r="H153">
-        <v>0.989247311827957</v>
+        <v>0.961392884178653</v>
       </c>
       <c r="I153">
-        <v>0.935483870967742</v>
+        <v>0.905374716124148</v>
       </c>
       <c r="J153">
-        <v>0.989247311827957</v>
+        <v>0.957607872823618</v>
       </c>
       <c r="K153">
-        <v>0.965527580645161</v>
+        <v>0.924889518045956</v>
       </c>
       <c r="L153">
-        <v>0.978494623655914</v>
+        <v>0.934897804693414</v>
       </c>
       <c r="M153">
-        <v>0.924731182795699</v>
+        <v>0.884178652535958</v>
       </c>
       <c r="N153">
-        <v>0.957268500730921</v>
+        <v>2.04604471326368</v>
       </c>
       <c r="O153">
-        <v>93</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="154" spans="1:15">
@@ -8503,31 +8503,31 @@
         <v>292</v>
       </c>
       <c r="G154">
-        <v>0.713089680851064</v>
+        <v>0.538129798540772</v>
       </c>
       <c r="H154">
-        <v>0.574468085106383</v>
+        <v>0.412927756653992</v>
       </c>
       <c r="I154">
-        <v>0.563829787234043</v>
+        <v>0.309505703422053</v>
       </c>
       <c r="J154">
-        <v>1</v>
+        <v>0.976425855513308</v>
       </c>
       <c r="K154">
-        <v>0.713089680851064</v>
+        <v>0.535343965135524</v>
       </c>
       <c r="L154">
-        <v>0.574468085106383</v>
+        <v>0.412167300380228</v>
       </c>
       <c r="M154">
-        <v>0.563829787234043</v>
+        <v>0.308745247148289</v>
       </c>
       <c r="N154">
-        <v>2.14914097322882</v>
+        <v>4.32263379872346</v>
       </c>
       <c r="O154">
-        <v>94</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="155" spans="1:15">
@@ -8550,19 +8550,19 @@
         <v>293</v>
       </c>
       <c r="G155">
-        <v>0.619647337460269</v>
+        <v>0.71401913539049</v>
       </c>
       <c r="H155">
-        <v>0.69</v>
+        <v>0.822097378277154</v>
       </c>
       <c r="I155">
-        <v>0.44</v>
+        <v>0.455056179775281</v>
       </c>
       <c r="J155">
-        <v>0</v>
+        <v>0.00187265917602996</v>
       </c>
       <c r="K155">
-        <v>0</v>
+        <v>8.52369182691034e-06</v>
       </c>
       <c r="L155">
         <v>0</v>
@@ -8571,10 +8571,10 @@
         <v>0</v>
       </c>
       <c r="N155">
-        <v>2.89394225565193</v>
+        <v>3.95185630427735</v>
       </c>
       <c r="O155">
-        <v>100</v>
+        <v>534</v>
       </c>
     </row>
     <row r="156" spans="1:15">
@@ -8597,31 +8597,31 @@
         <v>294</v>
       </c>
       <c r="G156">
-        <v>0.76489</v>
+        <v>0.858944389145536</v>
       </c>
       <c r="H156">
-        <v>0.6</v>
+        <v>0.832984633143352</v>
       </c>
       <c r="I156">
-        <v>0.58</v>
+        <v>0.801818050645697</v>
       </c>
       <c r="J156">
-        <v>1</v>
+        <v>0.961835365413751</v>
       </c>
       <c r="K156">
-        <v>0.76489</v>
+        <v>0.855534153605564</v>
       </c>
       <c r="L156">
-        <v>0.6</v>
+        <v>0.832263184474425</v>
       </c>
       <c r="M156">
-        <v>0.58</v>
+        <v>0.801132674410216</v>
       </c>
       <c r="N156">
-        <v>2.11410261188977</v>
+        <v>2.40128407782419</v>
       </c>
       <c r="O156">
-        <v>100</v>
+        <v>27722</v>
       </c>
     </row>
     <row r="157" spans="1:15">
@@ -8644,31 +8644,31 @@
         <v>170</v>
       </c>
       <c r="G157">
-        <v>0.746405242424243</v>
+        <v>0.776270450335787</v>
       </c>
       <c r="H157">
-        <v>0.606060606060606</v>
+        <v>0.696307460437076</v>
       </c>
       <c r="I157">
-        <v>0.606060606060606</v>
+        <v>0.688018085908063</v>
       </c>
       <c r="J157">
-        <v>0.98989898989899</v>
+        <v>0.963828183873399</v>
       </c>
       <c r="K157">
-        <v>0.736304232323232</v>
+        <v>0.769498758775698</v>
       </c>
       <c r="L157">
-        <v>0.595959595959596</v>
+        <v>0.691032403918613</v>
       </c>
       <c r="M157">
-        <v>0.595959595959596</v>
+        <v>0.682743029389601</v>
       </c>
       <c r="N157">
-        <v>2.15668984825046</v>
+        <v>2.61531160191328</v>
       </c>
       <c r="O157">
-        <v>99</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="158" spans="1:15">
@@ -8691,31 +8691,31 @@
         <v>295</v>
       </c>
       <c r="G158">
-        <v>0.761628872080429</v>
+        <v>0.797693834195075</v>
       </c>
       <c r="H158">
-        <v>0.64</v>
+        <v>0.735606060606061</v>
       </c>
       <c r="I158">
-        <v>0.64</v>
+        <v>0.725757575757576</v>
       </c>
       <c r="J158">
-        <v>0.98</v>
+        <v>0.972727272727273</v>
       </c>
       <c r="K158">
-        <v>0.75749312</v>
+        <v>0.793829695028015</v>
       </c>
       <c r="L158">
-        <v>0.64</v>
+        <v>0.732575757575758</v>
       </c>
       <c r="M158">
-        <v>0.64</v>
+        <v>0.722727272727273</v>
       </c>
       <c r="N158">
-        <v>1.67416003391818</v>
+        <v>2.38177147283091</v>
       </c>
       <c r="O158">
-        <v>100</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="159" spans="1:15">
@@ -8738,31 +8738,31 @@
         <v>296</v>
       </c>
       <c r="G159">
-        <v>0.632397626262626</v>
+        <v>0.62347346876966</v>
       </c>
       <c r="H159">
-        <v>0.484848484848485</v>
+        <v>0.489473684210526</v>
       </c>
       <c r="I159">
-        <v>0.464646464646465</v>
+        <v>0.469172932330827</v>
       </c>
       <c r="J159">
-        <v>0.98989898989899</v>
+        <v>0.947368421052632</v>
       </c>
       <c r="K159">
-        <v>0.628185505050504</v>
+        <v>0.607852376663176</v>
       </c>
       <c r="L159">
-        <v>0.484848484848485</v>
+        <v>0.478947368421053</v>
       </c>
       <c r="M159">
-        <v>0.464646464646465</v>
+        <v>0.459398496240602</v>
       </c>
       <c r="N159">
-        <v>2.18730015173056</v>
+        <v>2.90589524192873</v>
       </c>
       <c r="O159">
-        <v>99</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="160" spans="1:15">
@@ -8785,31 +8785,31 @@
         <v>257</v>
       </c>
       <c r="G160">
-        <v>0.954981262626263</v>
+        <v>0.901748316806728</v>
       </c>
       <c r="H160">
-        <v>0.939393939393939</v>
+        <v>0.898050974512744</v>
       </c>
       <c r="I160">
-        <v>0.939393939393939</v>
+        <v>0.850824587706147</v>
       </c>
       <c r="J160">
-        <v>1</v>
+        <v>0.986506746626687</v>
       </c>
       <c r="K160">
-        <v>0.954981262626263</v>
+        <v>0.896450784312852</v>
       </c>
       <c r="L160">
-        <v>0.939393939393939</v>
+        <v>0.892803598200899</v>
       </c>
       <c r="M160">
-        <v>0.939393939393939</v>
+        <v>0.845577211394303</v>
       </c>
       <c r="N160">
-        <v>0.494889620422621</v>
+        <v>1.46977716700958</v>
       </c>
       <c r="O160">
-        <v>99</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="161" spans="1:15">
@@ -8832,31 +8832,31 @@
         <v>297</v>
       </c>
       <c r="G161">
-        <v>0.876695788078527</v>
+        <v>0.815822691976662</v>
       </c>
       <c r="H161">
-        <v>0.873684210526316</v>
+        <v>0.807045636509207</v>
       </c>
       <c r="I161">
-        <v>0.852631578947368</v>
+        <v>0.765412329863891</v>
       </c>
       <c r="J161">
-        <v>0.989473684210526</v>
+        <v>0.987189751801441</v>
       </c>
       <c r="K161">
-        <v>0.866169472289053</v>
+        <v>0.810768686557425</v>
       </c>
       <c r="L161">
-        <v>0.863157894736842</v>
+        <v>0.802241793434748</v>
       </c>
       <c r="M161">
-        <v>0.842105263157895</v>
+        <v>0.760608486789431</v>
       </c>
       <c r="N161">
-        <v>2.23759127386008</v>
+        <v>3.58521769673978</v>
       </c>
       <c r="O161">
-        <v>95</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="162" spans="1:15">
@@ -8879,31 +8879,31 @@
         <v>249</v>
       </c>
       <c r="G162">
-        <v>0.95659</v>
+        <v>0.948232382195162</v>
       </c>
       <c r="H162">
-        <v>0.98</v>
+        <v>0.95532322830373</v>
       </c>
       <c r="I162">
-        <v>0.91</v>
+        <v>0.909054733567268</v>
       </c>
       <c r="J162">
-        <v>1</v>
+        <v>0.999167962956264</v>
       </c>
       <c r="K162">
-        <v>0.95659</v>
+        <v>0.947507931488439</v>
       </c>
       <c r="L162">
-        <v>0.98</v>
+        <v>0.954599717830916</v>
       </c>
       <c r="M162">
-        <v>0.91</v>
+        <v>0.908331223094454</v>
       </c>
       <c r="N162">
-        <v>0.941172095986552</v>
+        <v>1.57065421239004</v>
       </c>
       <c r="O162">
-        <v>100</v>
+        <v>27643</v>
       </c>
     </row>
     <row r="163" spans="1:15">
@@ -8926,31 +8926,31 @@
         <v>250</v>
       </c>
       <c r="G163">
-        <v>0.629983099999999</v>
+        <v>0.881403384823776</v>
       </c>
       <c r="H163">
-        <v>0.56</v>
+        <v>0.85843323111235</v>
       </c>
       <c r="I163">
-        <v>0.54</v>
+        <v>0.841650404237524</v>
       </c>
       <c r="J163">
-        <v>1</v>
+        <v>0.96303317535545</v>
       </c>
       <c r="K163">
-        <v>0.629983099999999</v>
+        <v>0.852732665020407</v>
       </c>
       <c r="L163">
-        <v>0.56</v>
+        <v>0.832785057150822</v>
       </c>
       <c r="M163">
-        <v>0.54</v>
+        <v>0.816615556175077</v>
       </c>
       <c r="N163">
-        <v>1.58095429422159</v>
+        <v>2.55131653128207</v>
       </c>
       <c r="O163">
-        <v>100</v>
+        <v>17935</v>
       </c>
     </row>
     <row r="164" spans="1:15">
@@ -8973,31 +8973,31 @@
         <v>298</v>
       </c>
       <c r="G164">
-        <v>0.96788</v>
+        <v>0.93016723590514</v>
       </c>
       <c r="H164">
-        <v>0.95</v>
+        <v>0.957933844678811</v>
       </c>
       <c r="I164">
-        <v>0.95</v>
+        <v>0.848813518696069</v>
       </c>
       <c r="J164">
-        <v>1</v>
+        <v>0.999460690316395</v>
       </c>
       <c r="K164">
-        <v>0.96788</v>
+        <v>0.929800506445886</v>
       </c>
       <c r="L164">
-        <v>0.95</v>
+        <v>0.957574304889741</v>
       </c>
       <c r="M164">
-        <v>0.95</v>
+        <v>0.848453978906999</v>
       </c>
       <c r="N164">
-        <v>0.382493361860324</v>
+        <v>1.36685241548561</v>
       </c>
       <c r="O164">
-        <v>100</v>
+        <v>16688</v>
       </c>
     </row>
     <row r="165" spans="1:15">
@@ -9020,31 +9020,31 @@
         <v>299</v>
       </c>
       <c r="G165">
-        <v>0.8379278604</v>
+        <v>0.876330423387562</v>
       </c>
       <c r="H165">
-        <v>0.75</v>
+        <v>0.841138421733506</v>
       </c>
       <c r="I165">
-        <v>0.75</v>
+        <v>0.804527813712807</v>
       </c>
       <c r="J165">
-        <v>0.98</v>
+        <v>0.878137128072445</v>
       </c>
       <c r="K165">
-        <v>0.8179278604</v>
+        <v>0.775539422337759</v>
       </c>
       <c r="L165">
-        <v>0.73</v>
+        <v>0.747994825355757</v>
       </c>
       <c r="M165">
-        <v>0.73</v>
+        <v>0.712031047865459</v>
       </c>
       <c r="N165">
-        <v>1.68295572625322</v>
+        <v>2.22013327339172</v>
       </c>
       <c r="O165">
-        <v>100</v>
+        <v>7730</v>
       </c>
     </row>
     <row r="166" spans="1:15">
@@ -9067,31 +9067,31 @@
         <v>300</v>
       </c>
       <c r="G166">
-        <v>0.883150000000001</v>
+        <v>0.714870728490211</v>
       </c>
       <c r="H166">
-        <v>0.81</v>
+        <v>0.543167208128845</v>
       </c>
       <c r="I166">
-        <v>0.81</v>
+        <v>0.542337734153591</v>
       </c>
       <c r="J166">
-        <v>1</v>
+        <v>0.997373332411696</v>
       </c>
       <c r="K166">
-        <v>0.883150000000001</v>
+        <v>0.713653424276364</v>
       </c>
       <c r="L166">
-        <v>0.81</v>
+        <v>0.542683348309947</v>
       </c>
       <c r="M166">
-        <v>0.81</v>
+        <v>0.541853874334693</v>
       </c>
       <c r="N166">
-        <v>0.779207486310554</v>
+        <v>1.75088485980889</v>
       </c>
       <c r="O166">
-        <v>100</v>
+        <v>14467</v>
       </c>
     </row>
     <row r="167" spans="1:15">
@@ -9123,10 +9123,10 @@
         <v>0</v>
       </c>
       <c r="J167">
-        <v>0.24</v>
+        <v>0.0535279805352798</v>
       </c>
       <c r="K167">
-        <v>4.01485745348507e-07</v>
+        <v>8.95446715091966e-08</v>
       </c>
       <c r="L167">
         <v>0</v>
@@ -9135,10 +9135,10 @@
         <v>0</v>
       </c>
       <c r="N167">
-        <v>6.04146788019945</v>
+        <v>5.53071044204601</v>
       </c>
       <c r="O167">
-        <v>25</v>
+        <v>411</v>
       </c>
     </row>
     <row r="168" spans="1:15">
@@ -9161,31 +9161,31 @@
         <v>252</v>
       </c>
       <c r="G168">
-        <v>0.83634671029127</v>
+        <v>0.813480081125463</v>
       </c>
       <c r="H168">
-        <v>0.855421686746988</v>
+        <v>0.800751879699248</v>
       </c>
       <c r="I168">
-        <v>0.734939759036145</v>
+        <v>0.719924812030075</v>
       </c>
       <c r="J168">
-        <v>0.951807228915663</v>
+        <v>0.969924812030075</v>
       </c>
       <c r="K168">
-        <v>0.826355662650602</v>
+        <v>0.805251030482214</v>
       </c>
       <c r="L168">
-        <v>0.843373493975904</v>
+        <v>0.793233082706767</v>
       </c>
       <c r="M168">
-        <v>0.734939759036145</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="N168">
-        <v>3.03149709804776</v>
+        <v>2.91432539124929</v>
       </c>
       <c r="O168">
-        <v>83</v>
+        <v>532</v>
       </c>
     </row>
     <row r="169" spans="1:15">
@@ -9208,31 +9208,31 @@
         <v>302</v>
       </c>
       <c r="G169">
-        <v>0.954981262626263</v>
+        <v>0.901748316806728</v>
       </c>
       <c r="H169">
-        <v>0.939393939393939</v>
+        <v>0.898050974512744</v>
       </c>
       <c r="I169">
-        <v>0.939393939393939</v>
+        <v>0.850824587706147</v>
       </c>
       <c r="J169">
-        <v>1</v>
+        <v>0.986506746626687</v>
       </c>
       <c r="K169">
-        <v>0.954981262626263</v>
+        <v>0.896450784312852</v>
       </c>
       <c r="L169">
-        <v>0.939393939393939</v>
+        <v>0.892803598200899</v>
       </c>
       <c r="M169">
-        <v>0.939393939393939</v>
+        <v>0.845577211394303</v>
       </c>
       <c r="N169">
-        <v>0.494889620422621</v>
+        <v>1.46977716700958</v>
       </c>
       <c r="O169">
-        <v>99</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="170" spans="1:15">
@@ -9255,7 +9255,7 @@
         <v>303</v>
       </c>
       <c r="G170">
-        <v>1.67285727228545e-06</v>
+        <v>1.67285727228543e-06</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -9264,10 +9264,10 @@
         <v>0</v>
       </c>
       <c r="J170">
-        <v>0.127659574468085</v>
+        <v>0.103406326034063</v>
       </c>
       <c r="K170">
-        <v>2.13556247525802e-07</v>
+        <v>1.72984024506403e-07</v>
       </c>
       <c r="L170">
         <v>0</v>
@@ -9276,10 +9276,10 @@
         <v>0</v>
       </c>
       <c r="N170">
-        <v>5.15517762616028</v>
+        <v>7.10563080535681</v>
       </c>
       <c r="O170">
-        <v>47</v>
+        <v>822</v>
       </c>
     </row>
     <row r="171" spans="1:15">
@@ -9302,31 +9302,31 @@
         <v>261</v>
       </c>
       <c r="G171">
-        <v>0.70858412</v>
+        <v>0.827425735478882</v>
       </c>
       <c r="H171">
-        <v>0.64</v>
+        <v>0.772345679012346</v>
       </c>
       <c r="I171">
-        <v>0.59</v>
+        <v>0.728395061728395</v>
       </c>
       <c r="J171">
-        <v>1</v>
+        <v>0.993827160493827</v>
       </c>
       <c r="K171">
-        <v>0.70858412</v>
+        <v>0.823339320761595</v>
       </c>
       <c r="L171">
-        <v>0.64</v>
+        <v>0.768641975308642</v>
       </c>
       <c r="M171">
-        <v>0.59</v>
+        <v>0.724938271604938</v>
       </c>
       <c r="N171">
-        <v>2.06804654984921</v>
+        <v>2.75139254135397</v>
       </c>
       <c r="O171">
-        <v>100</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="172" spans="1:15">
@@ -9349,31 +9349,31 @@
         <v>304</v>
       </c>
       <c r="G172">
-        <v>0.96334</v>
+        <v>0.969100078962171</v>
       </c>
       <c r="H172">
-        <v>0.96</v>
+        <v>0.992471538744032</v>
       </c>
       <c r="I172">
-        <v>0.93</v>
+        <v>0.928387807565185</v>
       </c>
       <c r="J172">
-        <v>1</v>
+        <v>0.916819684171869</v>
       </c>
       <c r="K172">
-        <v>0.96334</v>
+        <v>0.889617550350348</v>
       </c>
       <c r="L172">
-        <v>0.96</v>
+        <v>0.910760190965846</v>
       </c>
       <c r="M172">
-        <v>0.93</v>
+        <v>0.853286816011752</v>
       </c>
       <c r="N172">
-        <v>1.24502458673514</v>
+        <v>1.89245037761505</v>
       </c>
       <c r="O172">
-        <v>100</v>
+        <v>5446</v>
       </c>
     </row>
   </sheetData>
